--- a/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_toplevel.xlsx
+++ b/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_toplevel.xlsx
@@ -40,7 +40,7 @@
     <t>MPI-ESM-1-2-HAM</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Top Level</t>

--- a/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_toplevel.xlsx
+++ b/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_toplevel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
     <sheet name="2. Radiative Forcings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="437">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1271,13 +1271,70 @@
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.other.solar.additional_information</t>
+  </si>
+  <si>
+    <t>HAMMOZ</t>
+  </si>
+  <si>
+    <t>Mauritsen_2019</t>
+  </si>
+  <si>
+    <t>Tegen_2018</t>
+  </si>
+  <si>
+    <t>MPI-ESM1.2-HAM</t>
+  </si>
+  <si>
+    <t>ECHAM6.3, HAM2.3, MPIOM1.6.3, JSBACH3.20, HAMOCC6</t>
+  </si>
+  <si>
+    <t>MPI-ESM1.2-HAM is the latest version of the Max Planck Institute for Meteorology Earth System Model (MPI-ESM1.2) coupled with the Hamburg Aerosol Module (HAM2.3), developed by the HAMMOZ consortium. The HAMMOZ consortium is composed of ETH Zurich, Max Planck Institut for Meteorology, Forschungszentrum Jülich, University of Oxford, the Finnish Meteorological Institute and the Leibniz Institute for Tropospheric Research, and managed by the Center for Climate Systems Modeling (C2SM) at ETH Zurich.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://redmine.hammoz.ethz.ch/projects/aerchemmip</t>
+  </si>
+  <si>
+    <t>Fortran</t>
+  </si>
+  <si>
+    <t>The atmosphere component ECHAM6.3 is directly coupled to the aerosol and cloud microphysics module HAM2.3 and the land surface model JSBACH3.20. The ocean dynamic model MPIOM1.6.3 is directly coupled to the ocean biogeochemistry model HAMOCC6. These two major components are coupled via the coupler OASIS3-MCT.</t>
+  </si>
+  <si>
+    <t>See Mauritsen et al. (2019) for tuning of MPI-ESM1.2-LR. In order to use the ocean spin-up of MPI-ESM1.2-LR for MPI-ESM1.2-HAM, the energy input into the ocean (global mean net surface energy flux) was tuned to be similar. Also the pre-industrial global mean surface temperature in MPI-ESM1.2-LR was tuned to be similar to the one in MPI-ESM1.2-LR. Both together should minimize drift. In order to obtain acceptable Arctic sea ice cover and volume several adjustments were made including a higher minimum cloud droplet number concentration over land than over ocean and a different sea salt parameterization than the default one used in ECHAM6.3-HAM2.3.</t>
+  </si>
+  <si>
+    <t>net surface energy flux, surface temperature</t>
+  </si>
+  <si>
+    <t>Arctic sea ice cover, Arctic sea ice volume</t>
+  </si>
+  <si>
+    <t>For ECHAM6.3 and MPI-ESM1.2-LR see Mauritsen et al. (2019). Error 2 described in Mauritsen et al. (2019) is eliminated differently in ECHAM6.3-HAM2.3 and MPI-ESM1.2-HAM. The phase of detrained condensate is passed from the convection scheme to the stratiform scheme but in the stratiform cloud scheme the phase of the detrained condensate is recalculated based on atmospheric conditions (allowing supercooled liquid water) and the latent heat of fusion is released to the atmosphere if necessary.</t>
+  </si>
+  <si>
+    <t>Aerosol-cloud interactions for stratiform liquid, mixed-phase and cirrus clouds are computed online. Detrained cloud droplets from convective clouds depend on the number of activated aerosol particles at the convective cloud base. Aerosol activation is computed using a Köhler-theory based parameterization. For stratiform mixed-phase clouds heterogenous nucleation (immersion and contact freezing) of supercooled cloud droplets is computed. For stratiform cirrus clouds homogeneous nucleation of solution droplets is computed. Size dependent wet scavenging of aerosol particles in-cloud and below cloud is included. The below cloud collection efficiencies as a function of aerosol and rain drop or snow crystal size are read from a look-up table. The in-cloud scavenging scheme takes nucleation scavenging and impaction scavenging of aerosol particles with cloud droplets and ice-crystals into account.</t>
+  </si>
+  <si>
+    <t>see 2.1.12.3</t>
+  </si>
+  <si>
+    <t>See Zhang et al. (2012) for details.</t>
+  </si>
+  <si>
+    <t>Sea salt emissions are computed online based on 10-m wind speed. For details see Tegen et al. (2018).</t>
+  </si>
+  <si>
+    <t>Dust emissions are computed online based on 10-m wind speed. For details see Tegen et al. (2018).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1378,6 +1435,14 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1420,10 +1485,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1467,12 +1533,21 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1551,6 +1626,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1585,6 +1661,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1760,10 +1837,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1772,12 +1849,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1785,7 +1862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,7 +1870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1801,7 +1878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1809,7 +1886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1817,12 +1894,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="18">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1830,7 +1907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1838,7 +1915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="18">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1846,7 +1923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="18">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1854,13 +1931,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="20.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="20.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1876,10 +1953,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1888,7 +1967,7 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -1899,7 +1978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1915,7 +1994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
@@ -1923,11 +2002,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="11" t="s">
+        <v>418</v>
+      </c>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -1943,7 +2024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -1951,16 +2032,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="11" t="s">
+        <v>419</v>
+      </c>
       <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B18" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B18">
       <formula1>"Top Level,Key Properties,Radiative Forcings"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1973,10 +2062,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD224"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH224"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2019,7 +2110,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -2046,7 +2139,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -2072,8 +2167,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
@@ -2112,8 +2209,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="178" customHeight="1">
-      <c r="B25" s="11"/>
+    <row r="25" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B25" s="11" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
@@ -2148,7 +2247,9 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
+      <c r="B33" s="11">
+        <v>2019</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
@@ -2170,7 +2271,9 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
+      <c r="B37" s="11" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
@@ -2192,7 +2295,9 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
+      <c r="B41" s="11" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
@@ -2218,8 +2323,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="178" customHeight="1">
-      <c r="B46" s="11"/>
+    <row r="46" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B46" s="11" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
@@ -2276,7 +2383,9 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="B58" s="11"/>
+      <c r="B58" s="15" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
@@ -2298,7 +2407,9 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="B62" s="11"/>
+      <c r="B62" s="11" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
@@ -2325,7 +2436,9 @@
       </c>
     </row>
     <row r="67" spans="1:34" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
+      <c r="B67" s="11" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="69" spans="1:34" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
@@ -2347,7 +2460,9 @@
       </c>
     </row>
     <row r="71" spans="1:34" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="73" spans="1:34" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
@@ -2369,7 +2484,9 @@
       </c>
     </row>
     <row r="75" spans="1:34" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
+      <c r="B75" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="AA75" s="6" t="s">
         <v>104</v>
       </c>
@@ -2521,8 +2638,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="178" customHeight="1">
-      <c r="B100" s="11"/>
+    <row r="100" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B100" s="11" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
@@ -2549,7 +2668,9 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
+      <c r="B105" s="11" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
@@ -2576,7 +2697,9 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="B110" s="11"/>
+      <c r="B110" s="11" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
@@ -2686,8 +2809,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="178" customHeight="1">
-      <c r="B132" s="11"/>
+    <row r="132" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B132" s="11" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
@@ -2713,7 +2838,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="178" customHeight="1">
+    <row r="137" spans="1:3" ht="177.95" customHeight="1">
       <c r="B137" s="11"/>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -2740,7 +2865,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="178" customHeight="1">
+    <row r="142" spans="1:3" ht="177.95" customHeight="1">
       <c r="B142" s="11"/>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -2767,7 +2892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="178" customHeight="1">
+    <row r="147" spans="1:3" ht="177.95" customHeight="1">
       <c r="B147" s="11"/>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -2794,7 +2919,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="178" customHeight="1">
+    <row r="152" spans="1:3" ht="177.95" customHeight="1">
       <c r="B152" s="11"/>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
@@ -2821,7 +2946,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="178" customHeight="1">
+    <row r="157" spans="1:3" ht="177.95" customHeight="1">
       <c r="B157" s="11"/>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
@@ -2861,7 +2986,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="178" customHeight="1">
+    <row r="166" spans="1:3" ht="177.95" customHeight="1">
       <c r="B166" s="11"/>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -2888,7 +3013,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="178" customHeight="1">
+    <row r="171" spans="1:3" ht="177.95" customHeight="1">
       <c r="B171" s="11"/>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
@@ -2915,7 +3040,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="178" customHeight="1">
+    <row r="176" spans="1:3" ht="177.95" customHeight="1">
       <c r="B176" s="11"/>
     </row>
     <row r="178" spans="1:3" ht="24" customHeight="1">
@@ -2942,7 +3067,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="178" customHeight="1">
+    <row r="181" spans="1:3" ht="177.95" customHeight="1">
       <c r="B181" s="11"/>
     </row>
     <row r="183" spans="1:3" ht="24" customHeight="1">
@@ -2969,7 +3094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="178" customHeight="1">
+    <row r="186" spans="1:3" ht="177.95" customHeight="1">
       <c r="B186" s="11"/>
     </row>
     <row r="188" spans="1:3" ht="24" customHeight="1">
@@ -2996,7 +3121,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="178" customHeight="1">
+    <row r="191" spans="1:3" ht="177.95" customHeight="1">
       <c r="B191" s="11"/>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
@@ -3023,7 +3148,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="178" customHeight="1">
+    <row r="196" spans="1:3" ht="177.95" customHeight="1">
       <c r="B196" s="11"/>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
@@ -3050,7 +3175,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="178" customHeight="1">
+    <row r="201" spans="1:3" ht="177.95" customHeight="1">
       <c r="B201" s="11"/>
     </row>
     <row r="203" spans="1:3" ht="24" customHeight="1">
@@ -3077,7 +3202,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="178" customHeight="1">
+    <row r="206" spans="1:3" ht="177.95" customHeight="1">
       <c r="B206" s="11"/>
     </row>
     <row r="209" spans="1:3" ht="24" customHeight="1">
@@ -3117,7 +3242,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="178" customHeight="1">
+    <row r="215" spans="1:3" ht="177.95" customHeight="1">
       <c r="B215" s="11"/>
     </row>
     <row r="218" spans="1:3" ht="24" customHeight="1">
@@ -3157,7 +3282,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="178" customHeight="1">
+    <row r="224" spans="1:3" ht="177.95" customHeight="1">
       <c r="B224" s="11"/>
     </row>
   </sheetData>
@@ -3175,15 +3300,20 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B58" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD299"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG300"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3252,7 +3382,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3293,7 +3423,9 @@
       </c>
     </row>
     <row r="20" spans="1:33" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="AA20" s="6" t="s">
         <v>246</v>
       </c>
@@ -3316,1893 +3448,1910 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
+    <row r="21" spans="1:33" ht="24" customHeight="1">
+      <c r="B21" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="24" customHeight="1">
+      <c r="A23" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="24" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="10" t="s">
+    <row r="24" spans="1:33" ht="24" customHeight="1">
+      <c r="A24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="24" customHeight="1">
-      <c r="B24" s="8" t="s">
+    <row r="25" spans="1:33" ht="24" customHeight="1">
+      <c r="B25" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="178" customHeight="1">
-      <c r="B25" s="11"/>
-    </row>
-    <row r="28" spans="1:33" ht="24" customHeight="1">
-      <c r="A28" s="12" t="s">
+    <row r="26" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="29" spans="1:33" ht="24" customHeight="1">
+      <c r="A29" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="24" customHeight="1">
-      <c r="B29" s="13" t="s">
+    <row r="30" spans="1:33" ht="24" customHeight="1">
+      <c r="B30" s="13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
+    <row r="32" spans="1:33" ht="24" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="24" customHeight="1">
-      <c r="A32" s="14" t="s">
+    <row r="33" spans="1:33" ht="24" customHeight="1">
+      <c r="A33" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="24" customHeight="1">
-      <c r="B33" s="10" t="s">
+    <row r="34" spans="1:33" ht="24" customHeight="1">
+      <c r="B34" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="24" customHeight="1">
-      <c r="B34" s="11"/>
-      <c r="AA34" s="6" t="s">
+    <row r="35" spans="1:33" ht="24" customHeight="1">
+      <c r="B35" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA35" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB34" s="6" t="s">
+      <c r="AB35" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AC34" s="6" t="s">
+      <c r="AC35" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AD34" s="6" t="s">
+      <c r="AD35" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AE34" s="6" t="s">
+      <c r="AE35" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AF34" s="6" t="s">
+      <c r="AF35" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AG34" s="6" t="s">
+      <c r="AG35" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
+    <row r="37" spans="1:33" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="24" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="10" t="s">
+    <row r="38" spans="1:33" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="24" customHeight="1">
-      <c r="B38" s="8" t="s">
+    <row r="39" spans="1:33" ht="24" customHeight="1">
+      <c r="B39" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="178" customHeight="1">
-      <c r="B39" s="11"/>
-    </row>
-    <row r="42" spans="1:33" ht="24" customHeight="1">
-      <c r="A42" s="12" t="s">
+    <row r="40" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="43" spans="1:33" ht="24" customHeight="1">
+      <c r="A43" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B43" s="12" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="24" customHeight="1">
-      <c r="B43" s="13" t="s">
+    <row r="44" spans="1:33" ht="24" customHeight="1">
+      <c r="B44" s="13" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="24" customHeight="1">
-      <c r="A45" s="9" t="s">
+    <row r="46" spans="1:33" ht="24" customHeight="1">
+      <c r="A46" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B46" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="24" customHeight="1">
-      <c r="A46" s="14" t="s">
+    <row r="47" spans="1:33" ht="24" customHeight="1">
+      <c r="A47" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B47" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="24" customHeight="1">
-      <c r="B47" s="10" t="s">
+    <row r="48" spans="1:33" ht="24" customHeight="1">
+      <c r="B48" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="24" customHeight="1">
-      <c r="B48" s="11"/>
-      <c r="AA48" s="6" t="s">
+    <row r="49" spans="1:33" ht="24" customHeight="1">
+      <c r="B49" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA49" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB48" s="6" t="s">
+      <c r="AB49" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AC48" s="6" t="s">
+      <c r="AC49" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AD48" s="6" t="s">
+      <c r="AD49" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AE48" s="6" t="s">
+      <c r="AE49" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AF48" s="6" t="s">
+      <c r="AF49" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AG48" s="6" t="s">
+      <c r="AG49" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="24" customHeight="1">
-      <c r="A50" s="9" t="s">
+    <row r="51" spans="1:33" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="24" customHeight="1">
-      <c r="A51" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="10" t="s">
+    <row r="52" spans="1:33" ht="24" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="24" customHeight="1">
-      <c r="B52" s="8" t="s">
+    <row r="53" spans="1:33" ht="24" customHeight="1">
+      <c r="B53" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="178" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="56" spans="1:33" ht="24" customHeight="1">
-      <c r="A56" s="12" t="s">
+    <row r="54" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B54" s="11"/>
+    </row>
+    <row r="57" spans="1:33" ht="24" customHeight="1">
+      <c r="A57" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B57" s="12" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="24" customHeight="1">
-      <c r="B57" s="13" t="s">
+    <row r="58" spans="1:33" ht="24" customHeight="1">
+      <c r="B58" s="13" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="24" customHeight="1">
-      <c r="A59" s="9" t="s">
+    <row r="60" spans="1:33" ht="24" customHeight="1">
+      <c r="A60" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B60" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="24" customHeight="1">
-      <c r="A60" s="14" t="s">
+    <row r="61" spans="1:33" ht="24" customHeight="1">
+      <c r="A61" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B61" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="24" customHeight="1">
-      <c r="B61" s="10" t="s">
+    <row r="62" spans="1:33" ht="24" customHeight="1">
+      <c r="B62" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="24" customHeight="1">
-      <c r="B62" s="11"/>
-      <c r="AA62" s="6" t="s">
+    <row r="63" spans="1:33" ht="24" customHeight="1">
+      <c r="B63" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA63" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB62" s="6" t="s">
+      <c r="AB63" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AC62" s="6" t="s">
+      <c r="AC63" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AD62" s="6" t="s">
+      <c r="AD63" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AE62" s="6" t="s">
+      <c r="AE63" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AF62" s="6" t="s">
+      <c r="AF63" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AG62" s="6" t="s">
+      <c r="AG63" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
+    <row r="65" spans="1:33" ht="24" customHeight="1">
+      <c r="A65" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B65" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="24" customHeight="1">
-      <c r="A65" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="10" t="s">
+    <row r="66" spans="1:33" ht="24" customHeight="1">
+      <c r="A66" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="24" customHeight="1">
-      <c r="B66" s="8" t="s">
+    <row r="67" spans="1:33" ht="24" customHeight="1">
+      <c r="B67" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="178" customHeight="1">
-      <c r="B67" s="11"/>
-    </row>
-    <row r="70" spans="1:33" ht="24" customHeight="1">
-      <c r="A70" s="12" t="s">
+    <row r="68" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B68" s="11"/>
+    </row>
+    <row r="71" spans="1:33" ht="24" customHeight="1">
+      <c r="A71" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B71" s="12" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="24" customHeight="1">
-      <c r="B71" s="13" t="s">
+    <row r="72" spans="1:33" ht="24" customHeight="1">
+      <c r="B72" s="13" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="73" spans="1:33" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
+    <row r="74" spans="1:33" ht="24" customHeight="1">
+      <c r="A74" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B74" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:33" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
+    <row r="75" spans="1:33" ht="24" customHeight="1">
+      <c r="A75" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B75" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="24" customHeight="1">
-      <c r="B75" s="10" t="s">
+    <row r="76" spans="1:33" ht="24" customHeight="1">
+      <c r="B76" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:33" ht="24" customHeight="1">
-      <c r="B76" s="11"/>
-      <c r="AA76" s="6" t="s">
+    <row r="77" spans="1:33" ht="24" customHeight="1">
+      <c r="B77" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA77" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB76" s="6" t="s">
+      <c r="AB77" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AC76" s="6" t="s">
+      <c r="AC77" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AD76" s="6" t="s">
+      <c r="AD77" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AE76" s="6" t="s">
+      <c r="AE77" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AF76" s="6" t="s">
+      <c r="AF77" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AG76" s="6" t="s">
+      <c r="AG77" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
+    <row r="79" spans="1:33" ht="24" customHeight="1">
+      <c r="A79" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B79" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="79" spans="1:33" ht="24" customHeight="1">
-      <c r="A79" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B79" s="10" t="s">
+    <row r="80" spans="1:33" ht="24" customHeight="1">
+      <c r="A80" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="24" customHeight="1">
-      <c r="B80" s="8" t="s">
+    <row r="81" spans="1:33" ht="24" customHeight="1">
+      <c r="B81" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="178" customHeight="1">
-      <c r="B81" s="11"/>
-    </row>
-    <row r="84" spans="1:33" ht="24" customHeight="1">
-      <c r="A84" s="12" t="s">
+    <row r="82" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B82" s="11"/>
+    </row>
+    <row r="85" spans="1:33" ht="24" customHeight="1">
+      <c r="A85" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B85" s="12" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="85" spans="1:33" ht="24" customHeight="1">
-      <c r="B85" s="13" t="s">
+    <row r="86" spans="1:33" ht="24" customHeight="1">
+      <c r="B86" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="87" spans="1:33" ht="24" customHeight="1">
-      <c r="A87" s="9" t="s">
+    <row r="88" spans="1:33" ht="24" customHeight="1">
+      <c r="A88" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B88" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="24" customHeight="1">
-      <c r="A88" s="14" t="s">
+    <row r="89" spans="1:33" ht="24" customHeight="1">
+      <c r="A89" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B89" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="24" customHeight="1">
-      <c r="B89" s="10" t="s">
+    <row r="90" spans="1:33" ht="24" customHeight="1">
+      <c r="B90" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:33" ht="24" customHeight="1">
-      <c r="B90" s="11"/>
-      <c r="AA90" s="6" t="s">
+    <row r="91" spans="1:33" ht="24" customHeight="1">
+      <c r="B91" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA91" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB90" s="6" t="s">
+      <c r="AB91" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AC90" s="6" t="s">
+      <c r="AC91" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AD90" s="6" t="s">
+      <c r="AD91" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AE90" s="6" t="s">
+      <c r="AE91" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AF90" s="6" t="s">
+      <c r="AF91" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AG90" s="6" t="s">
+      <c r="AG91" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="1:33" ht="24" customHeight="1">
-      <c r="A92" s="9" t="s">
+    <row r="93" spans="1:33" ht="24" customHeight="1">
+      <c r="A93" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B93" s="9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="24" customHeight="1">
-      <c r="A93" s="14" t="s">
+    <row r="94" spans="1:33" ht="24" customHeight="1">
+      <c r="A94" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B94" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="24" customHeight="1">
-      <c r="B94" s="11"/>
-      <c r="AA94" s="6" t="s">
+    <row r="95" spans="1:33" ht="24" customHeight="1">
+      <c r="B95" s="11"/>
+      <c r="AA95" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB94" s="6" t="s">
+      <c r="AB95" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="AC94" s="6" t="s">
+      <c r="AC95" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="AD94" s="6" t="s">
+      <c r="AD95" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="AE94" s="6" t="s">
+      <c r="AE95" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:33" ht="24" customHeight="1">
-      <c r="A96" s="9" t="s">
+    <row r="97" spans="1:33" ht="24" customHeight="1">
+      <c r="A97" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B97" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="97" spans="1:33" ht="24" customHeight="1">
-      <c r="A97" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B97" s="10" t="s">
+    <row r="98" spans="1:33" ht="24" customHeight="1">
+      <c r="A98" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C98" s="10" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:33" ht="24" customHeight="1">
-      <c r="B98" s="8" t="s">
+    <row r="99" spans="1:33" ht="24" customHeight="1">
+      <c r="B99" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:33" ht="178" customHeight="1">
-      <c r="B99" s="11"/>
-    </row>
-    <row r="102" spans="1:33" ht="24" customHeight="1">
-      <c r="A102" s="12" t="s">
+    <row r="100" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B100" s="11"/>
+    </row>
+    <row r="103" spans="1:33" ht="24" customHeight="1">
+      <c r="A103" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B103" s="12" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:33" ht="24" customHeight="1">
-      <c r="B103" s="13" t="s">
+    <row r="104" spans="1:33" ht="24" customHeight="1">
+      <c r="B104" s="13" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="105" spans="1:33" ht="24" customHeight="1">
-      <c r="A105" s="9" t="s">
+    <row r="106" spans="1:33" ht="24" customHeight="1">
+      <c r="A106" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B106" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="106" spans="1:33" ht="24" customHeight="1">
-      <c r="A106" s="14" t="s">
+    <row r="107" spans="1:33" ht="24" customHeight="1">
+      <c r="A107" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B107" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C107" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="107" spans="1:33" ht="24" customHeight="1">
-      <c r="B107" s="10" t="s">
+    <row r="108" spans="1:33" ht="24" customHeight="1">
+      <c r="B108" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:33" ht="24" customHeight="1">
-      <c r="B108" s="11"/>
-      <c r="AA108" s="6" t="s">
+    <row r="109" spans="1:33" ht="24" customHeight="1">
+      <c r="B109" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA109" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB108" s="6" t="s">
+      <c r="AB109" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AC108" s="6" t="s">
+      <c r="AC109" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AD108" s="6" t="s">
+      <c r="AD109" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AE108" s="6" t="s">
+      <c r="AE109" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AF108" s="6" t="s">
+      <c r="AF109" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AG108" s="6" t="s">
+      <c r="AG109" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:33" ht="24" customHeight="1">
-      <c r="A110" s="9" t="s">
+    <row r="111" spans="1:33" ht="24" customHeight="1">
+      <c r="A111" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B111" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:33" ht="24" customHeight="1">
-      <c r="A111" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B111" s="10" t="s">
+    <row r="112" spans="1:33" ht="24" customHeight="1">
+      <c r="A112" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C112" s="10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="112" spans="1:33" ht="24" customHeight="1">
-      <c r="B112" s="8" t="s">
+    <row r="113" spans="1:33" ht="24" customHeight="1">
+      <c r="B113" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="113" spans="1:33" ht="178" customHeight="1">
-      <c r="B113" s="11"/>
-    </row>
-    <row r="116" spans="1:33" ht="24" customHeight="1">
-      <c r="A116" s="12" t="s">
+    <row r="114" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B114" s="11"/>
+    </row>
+    <row r="117" spans="1:33" ht="24" customHeight="1">
+      <c r="A117" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B117" s="12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="117" spans="1:33" ht="24" customHeight="1">
-      <c r="B117" s="13" t="s">
+    <row r="118" spans="1:33" ht="24" customHeight="1">
+      <c r="B118" s="13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="119" spans="1:33" ht="24" customHeight="1">
-      <c r="A119" s="9" t="s">
+    <row r="120" spans="1:33" ht="24" customHeight="1">
+      <c r="A120" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B120" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="120" spans="1:33" ht="24" customHeight="1">
-      <c r="A120" s="14" t="s">
+    <row r="121" spans="1:33" ht="24" customHeight="1">
+      <c r="A121" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B121" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C121" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:33" ht="24" customHeight="1">
-      <c r="B121" s="10" t="s">
+    <row r="122" spans="1:33" ht="24" customHeight="1">
+      <c r="B122" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:33" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
-      <c r="AA122" s="6" t="s">
+    <row r="123" spans="1:33" ht="24" customHeight="1">
+      <c r="B123" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA123" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB122" s="6" t="s">
+      <c r="AB123" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AC122" s="6" t="s">
+      <c r="AC123" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AD122" s="6" t="s">
+      <c r="AD123" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AE122" s="6" t="s">
+      <c r="AE123" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AF122" s="6" t="s">
+      <c r="AF123" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AG122" s="6" t="s">
+      <c r="AG123" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="124" spans="1:33" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
+    <row r="125" spans="1:33" ht="24" customHeight="1">
+      <c r="A125" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B125" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="125" spans="1:33" ht="24" customHeight="1">
-      <c r="A125" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B125" s="10" t="s">
+    <row r="126" spans="1:33" ht="24" customHeight="1">
+      <c r="A126" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B126" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C126" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="126" spans="1:33" ht="24" customHeight="1">
-      <c r="B126" s="8" t="s">
+    <row r="127" spans="1:33" ht="24" customHeight="1">
+      <c r="B127" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="178" customHeight="1">
-      <c r="B127" s="11"/>
-    </row>
-    <row r="130" spans="1:33" ht="24" customHeight="1">
-      <c r="A130" s="12" t="s">
+    <row r="128" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B128" s="11"/>
+    </row>
+    <row r="131" spans="1:33" ht="24" customHeight="1">
+      <c r="A131" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B131" s="12" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="131" spans="1:33" ht="24" customHeight="1">
-      <c r="B131" s="13" t="s">
+    <row r="132" spans="1:33" ht="24" customHeight="1">
+      <c r="B132" s="13" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="133" spans="1:33" ht="24" customHeight="1">
-      <c r="A133" s="9" t="s">
+    <row r="134" spans="1:33" ht="24" customHeight="1">
+      <c r="A134" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B134" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="1:33" ht="24" customHeight="1">
-      <c r="A134" s="14" t="s">
+    <row r="135" spans="1:33" ht="24" customHeight="1">
+      <c r="A135" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B135" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C135" s="10" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="135" spans="1:33" ht="24" customHeight="1">
-      <c r="B135" s="10" t="s">
+    <row r="136" spans="1:33" ht="24" customHeight="1">
+      <c r="B136" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:33" ht="24" customHeight="1">
-      <c r="B136" s="11"/>
-      <c r="AA136" s="6" t="s">
+    <row r="137" spans="1:33" ht="24" customHeight="1">
+      <c r="B137" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA137" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB136" s="6" t="s">
+      <c r="AB137" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AC136" s="6" t="s">
+      <c r="AC137" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AD136" s="6" t="s">
+      <c r="AD137" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AE136" s="6" t="s">
+      <c r="AE137" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AF136" s="6" t="s">
+      <c r="AF137" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AG136" s="6" t="s">
+      <c r="AG137" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="138" spans="1:33" ht="24" customHeight="1">
-      <c r="A138" s="9" t="s">
+    <row r="139" spans="1:33" ht="24" customHeight="1">
+      <c r="A139" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B139" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="139" spans="1:33" ht="24" customHeight="1">
-      <c r="A139" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B139" s="10" t="s">
+    <row r="140" spans="1:33" ht="24" customHeight="1">
+      <c r="A140" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B140" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="C140" s="10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="140" spans="1:33" ht="24" customHeight="1">
-      <c r="B140" s="8" t="s">
+    <row r="141" spans="1:33" ht="24" customHeight="1">
+      <c r="B141" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:33" ht="178" customHeight="1">
-      <c r="B141" s="11"/>
-    </row>
-    <row r="144" spans="1:33" ht="24" customHeight="1">
-      <c r="A144" s="12" t="s">
+    <row r="142" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B142" s="11"/>
+    </row>
+    <row r="145" spans="1:33" ht="24" customHeight="1">
+      <c r="A145" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="B145" s="12" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="145" spans="1:33" ht="24" customHeight="1">
-      <c r="B145" s="13" t="s">
+    <row r="146" spans="1:33" ht="24" customHeight="1">
+      <c r="B146" s="13" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="147" spans="1:33" ht="24" customHeight="1">
-      <c r="A147" s="9" t="s">
+    <row r="148" spans="1:33" ht="24" customHeight="1">
+      <c r="A148" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B148" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="148" spans="1:33" ht="24" customHeight="1">
-      <c r="A148" s="14" t="s">
+    <row r="149" spans="1:33" ht="24" customHeight="1">
+      <c r="A149" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B149" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C149" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="149" spans="1:33" ht="24" customHeight="1">
-      <c r="B149" s="10" t="s">
+    <row r="150" spans="1:33" ht="24" customHeight="1">
+      <c r="B150" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:33" ht="24" customHeight="1">
-      <c r="B150" s="11"/>
-      <c r="AA150" s="6" t="s">
+    <row r="151" spans="1:33" ht="24" customHeight="1">
+      <c r="B151" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="AB150" s="6" t="s">
+      <c r="AA151" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB151" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AC150" s="6" t="s">
+      <c r="AC151" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AD150" s="6" t="s">
+      <c r="AD151" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AE150" s="6" t="s">
+      <c r="AE151" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AF150" s="6" t="s">
+      <c r="AF151" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AG150" s="6" t="s">
+      <c r="AG151" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="152" spans="1:33" ht="24" customHeight="1">
-      <c r="A152" s="9" t="s">
+    <row r="153" spans="1:33" ht="24" customHeight="1">
+      <c r="A153" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B153" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="153" spans="1:33" ht="24" customHeight="1">
-      <c r="A153" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B153" s="10" t="s">
+    <row r="154" spans="1:33" ht="24" customHeight="1">
+      <c r="A154" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B154" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C154" s="10" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="154" spans="1:33" ht="24" customHeight="1">
-      <c r="B154" s="8" t="s">
+    <row r="155" spans="1:33" ht="24" customHeight="1">
+      <c r="B155" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="1:33" ht="178" customHeight="1">
-      <c r="B155" s="11"/>
-    </row>
-    <row r="158" spans="1:33" ht="24" customHeight="1">
-      <c r="A158" s="12" t="s">
+    <row r="156" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B156" s="11"/>
+    </row>
+    <row r="159" spans="1:33" ht="24" customHeight="1">
+      <c r="A159" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="B158" s="12" t="s">
+      <c r="B159" s="12" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="159" spans="1:33" ht="24" customHeight="1">
-      <c r="B159" s="13" t="s">
+    <row r="160" spans="1:33" ht="24" customHeight="1">
+      <c r="B160" s="13" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="161" spans="1:33" ht="24" customHeight="1">
-      <c r="A161" s="9" t="s">
+    <row r="162" spans="1:33" ht="24" customHeight="1">
+      <c r="A162" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B162" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="162" spans="1:33" ht="24" customHeight="1">
-      <c r="A162" s="14" t="s">
+    <row r="163" spans="1:33" ht="24" customHeight="1">
+      <c r="A163" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B163" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="C163" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="163" spans="1:33" ht="24" customHeight="1">
-      <c r="B163" s="10" t="s">
+    <row r="164" spans="1:33" ht="24" customHeight="1">
+      <c r="B164" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:33" ht="24" customHeight="1">
-      <c r="B164" s="11"/>
-      <c r="AA164" s="6" t="s">
+    <row r="165" spans="1:33" ht="24" customHeight="1">
+      <c r="B165" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA165" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB164" s="6" t="s">
+      <c r="AB165" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AC164" s="6" t="s">
+      <c r="AC165" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AD164" s="6" t="s">
+      <c r="AD165" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AE164" s="6" t="s">
+      <c r="AE165" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AF164" s="6" t="s">
+      <c r="AF165" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AG164" s="6" t="s">
+      <c r="AG165" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="166" spans="1:33" ht="24" customHeight="1">
-      <c r="A166" s="9" t="s">
+    <row r="167" spans="1:33" ht="24" customHeight="1">
+      <c r="A167" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B167" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="167" spans="1:33" ht="24" customHeight="1">
-      <c r="A167" s="14" t="s">
+    <row r="168" spans="1:33" ht="24" customHeight="1">
+      <c r="A168" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B167" s="10" t="s">
+      <c r="B168" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C167" s="10" t="s">
+      <c r="C168" s="10" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="168" spans="1:33" ht="24" customHeight="1">
-      <c r="B168" s="11"/>
-    </row>
-    <row r="170" spans="1:33" ht="24" customHeight="1">
-      <c r="A170" s="9" t="s">
+    <row r="169" spans="1:33" ht="24" customHeight="1">
+      <c r="B169" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:33" ht="24" customHeight="1">
+      <c r="A171" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B171" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="171" spans="1:33" ht="24" customHeight="1">
-      <c r="A171" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B171" s="10" t="s">
+    <row r="172" spans="1:33" ht="24" customHeight="1">
+      <c r="A172" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B172" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C172" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="172" spans="1:33" ht="24" customHeight="1">
-      <c r="B172" s="8" t="s">
+    <row r="173" spans="1:33" ht="24" customHeight="1">
+      <c r="B173" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="173" spans="1:33" ht="178" customHeight="1">
-      <c r="B173" s="11"/>
-    </row>
-    <row r="176" spans="1:33" ht="24" customHeight="1">
-      <c r="A176" s="12" t="s">
+    <row r="174" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B174" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="177" spans="1:33" ht="24" customHeight="1">
+      <c r="A177" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B177" s="12" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="177" spans="1:33" ht="24" customHeight="1">
-      <c r="B177" s="13" t="s">
+    <row r="178" spans="1:33" ht="24" customHeight="1">
+      <c r="B178" s="13" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="179" spans="1:33" ht="24" customHeight="1">
-      <c r="A179" s="9" t="s">
+    <row r="180" spans="1:33" ht="24" customHeight="1">
+      <c r="A180" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B180" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="180" spans="1:33" ht="24" customHeight="1">
-      <c r="A180" s="14" t="s">
+    <row r="181" spans="1:33" ht="24" customHeight="1">
+      <c r="A181" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B181" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="C181" s="10" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="181" spans="1:33" ht="24" customHeight="1">
-      <c r="B181" s="10" t="s">
+    <row r="182" spans="1:33" ht="24" customHeight="1">
+      <c r="B182" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:33" ht="24" customHeight="1">
-      <c r="B182" s="11"/>
-      <c r="AA182" s="6" t="s">
+    <row r="183" spans="1:33" ht="24" customHeight="1">
+      <c r="B183" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA183" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB182" s="6" t="s">
+      <c r="AB183" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AC182" s="6" t="s">
+      <c r="AC183" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AD182" s="6" t="s">
+      <c r="AD183" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AE182" s="6" t="s">
+      <c r="AE183" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AF182" s="6" t="s">
+      <c r="AF183" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AG182" s="6" t="s">
+      <c r="AG183" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="184" spans="1:33" ht="24" customHeight="1">
-      <c r="A184" s="9" t="s">
+    <row r="185" spans="1:33" ht="24" customHeight="1">
+      <c r="A185" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B185" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="185" spans="1:33" ht="24" customHeight="1">
-      <c r="A185" s="14" t="s">
+    <row r="186" spans="1:33" ht="24" customHeight="1">
+      <c r="A186" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B186" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C185" s="10" t="s">
+      <c r="C186" s="10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="186" spans="1:33" ht="24" customHeight="1">
-      <c r="B186" s="11"/>
-    </row>
-    <row r="188" spans="1:33" ht="24" customHeight="1">
-      <c r="A188" s="9" t="s">
+    <row r="187" spans="1:33" ht="24" customHeight="1">
+      <c r="B187" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:33" ht="24" customHeight="1">
+      <c r="A189" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B189" s="9" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="189" spans="1:33" ht="24" customHeight="1">
-      <c r="A189" s="14" t="s">
+    <row r="190" spans="1:33" ht="24" customHeight="1">
+      <c r="A190" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B190" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C189" s="10" t="s">
+      <c r="C190" s="10" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="190" spans="1:33" ht="24" customHeight="1">
-      <c r="B190" s="11"/>
-    </row>
-    <row r="192" spans="1:33" ht="24" customHeight="1">
-      <c r="A192" s="9" t="s">
+    <row r="191" spans="1:33" ht="24" customHeight="1">
+      <c r="B191" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:33" ht="24" customHeight="1">
+      <c r="A193" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B193" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="193" spans="1:33" ht="24" customHeight="1">
-      <c r="A193" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B193" s="10" t="s">
+    <row r="194" spans="1:33" ht="24" customHeight="1">
+      <c r="A194" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B194" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C193" s="10" t="s">
+      <c r="C194" s="10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="194" spans="1:33" ht="24" customHeight="1">
-      <c r="B194" s="8" t="s">
+    <row r="195" spans="1:33" ht="24" customHeight="1">
+      <c r="B195" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="195" spans="1:33" ht="178" customHeight="1">
-      <c r="B195" s="11"/>
-    </row>
-    <row r="198" spans="1:33" ht="24" customHeight="1">
-      <c r="A198" s="12" t="s">
+    <row r="196" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B196" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="199" spans="1:33" ht="24" customHeight="1">
+      <c r="A199" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="B198" s="12" t="s">
+      <c r="B199" s="12" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="199" spans="1:33" ht="24" customHeight="1">
-      <c r="B199" s="13" t="s">
+    <row r="200" spans="1:33" ht="24" customHeight="1">
+      <c r="B200" s="13" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="201" spans="1:33" ht="24" customHeight="1">
-      <c r="A201" s="9" t="s">
+    <row r="202" spans="1:33" ht="24" customHeight="1">
+      <c r="A202" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B202" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="202" spans="1:33" ht="24" customHeight="1">
-      <c r="A202" s="14" t="s">
+    <row r="203" spans="1:33" ht="24" customHeight="1">
+      <c r="A203" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B203" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C202" s="10" t="s">
+      <c r="C203" s="10" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="203" spans="1:33" ht="24" customHeight="1">
-      <c r="B203" s="10" t="s">
+    <row r="204" spans="1:33" ht="24" customHeight="1">
+      <c r="B204" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:33" ht="24" customHeight="1">
-      <c r="B204" s="11"/>
-      <c r="AA204" s="6" t="s">
+    <row r="205" spans="1:33" ht="24" customHeight="1">
+      <c r="B205" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA205" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB204" s="6" t="s">
+      <c r="AB205" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AC204" s="6" t="s">
+      <c r="AC205" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AD204" s="6" t="s">
+      <c r="AD205" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AE204" s="6" t="s">
+      <c r="AE205" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AF204" s="6" t="s">
+      <c r="AF205" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AG204" s="6" t="s">
+      <c r="AG205" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="206" spans="1:33" ht="24" customHeight="1">
-      <c r="A206" s="9" t="s">
+    <row r="207" spans="1:33" ht="24" customHeight="1">
+      <c r="A207" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B207" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="207" spans="1:33" ht="24" customHeight="1">
-      <c r="A207" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B207" s="10" t="s">
+    <row r="208" spans="1:33" ht="24" customHeight="1">
+      <c r="A208" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B208" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C207" s="10" t="s">
+      <c r="C208" s="10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="208" spans="1:33" ht="24" customHeight="1">
-      <c r="B208" s="8" t="s">
+    <row r="209" spans="1:33" ht="24" customHeight="1">
+      <c r="B209" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="209" spans="1:33" ht="178" customHeight="1">
-      <c r="B209" s="11"/>
-    </row>
-    <row r="212" spans="1:33" ht="24" customHeight="1">
-      <c r="A212" s="12" t="s">
+    <row r="210" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B210" s="11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="213" spans="1:33" ht="24" customHeight="1">
+      <c r="A213" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="B212" s="12" t="s">
+      <c r="B213" s="12" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="213" spans="1:33" ht="24" customHeight="1">
-      <c r="B213" s="13" t="s">
+    <row r="214" spans="1:33" ht="24" customHeight="1">
+      <c r="B214" s="13" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="215" spans="1:33" ht="24" customHeight="1">
-      <c r="A215" s="9" t="s">
+    <row r="216" spans="1:33" ht="24" customHeight="1">
+      <c r="A216" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B216" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="216" spans="1:33" ht="24" customHeight="1">
-      <c r="A216" s="14" t="s">
+    <row r="217" spans="1:33" ht="24" customHeight="1">
+      <c r="A217" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B216" s="10" t="s">
+      <c r="B217" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C216" s="10" t="s">
+      <c r="C217" s="10" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="217" spans="1:33" ht="24" customHeight="1">
-      <c r="B217" s="10" t="s">
+    <row r="218" spans="1:33" ht="24" customHeight="1">
+      <c r="B218" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:33" ht="24" customHeight="1">
-      <c r="B218" s="11"/>
-      <c r="AA218" s="6" t="s">
+    <row r="219" spans="1:33" ht="24" customHeight="1">
+      <c r="B219" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA219" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB218" s="6" t="s">
+      <c r="AB219" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AC218" s="6" t="s">
+      <c r="AC219" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AD218" s="6" t="s">
+      <c r="AD219" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AE218" s="6" t="s">
+      <c r="AE219" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AF218" s="6" t="s">
+      <c r="AF219" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AG218" s="6" t="s">
+      <c r="AG219" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="220" spans="1:33" ht="24" customHeight="1">
-      <c r="A220" s="9" t="s">
+    <row r="221" spans="1:33" ht="24" customHeight="1">
+      <c r="A221" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B221" s="9" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="221" spans="1:33" ht="24" customHeight="1">
-      <c r="A221" s="14" t="s">
+    <row r="222" spans="1:33" ht="24" customHeight="1">
+      <c r="A222" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B222" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="C221" s="10" t="s">
+      <c r="C222" s="10" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="222" spans="1:33" ht="24" customHeight="1">
-      <c r="B222" s="11"/>
-      <c r="AA222" s="6" t="s">
+    <row r="223" spans="1:33" ht="24" customHeight="1">
+      <c r="B223" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA223" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="AB222" s="6" t="s">
+      <c r="AB223" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="AC222" s="6" t="s">
+      <c r="AC223" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="AD222" s="6" t="s">
+      <c r="AD223" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="AE222" s="6" t="s">
+      <c r="AE223" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="AF222" s="6" t="s">
+      <c r="AF223" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="224" spans="1:33" ht="24" customHeight="1">
-      <c r="A224" s="9" t="s">
+    <row r="225" spans="1:32" ht="24" customHeight="1">
+      <c r="A225" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B225" s="9" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="225" spans="1:33" ht="24" customHeight="1">
-      <c r="A225" s="14" t="s">
+    <row r="226" spans="1:32" ht="24" customHeight="1">
+      <c r="A226" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="B226" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C225" s="10" t="s">
+      <c r="C226" s="10" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="226" spans="1:33" ht="24" customHeight="1">
-      <c r="B226" s="11"/>
-      <c r="AA226" s="6" t="s">
+    <row r="227" spans="1:32" ht="24" customHeight="1">
+      <c r="B227" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA227" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="AB226" s="6" t="s">
+      <c r="AB227" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="AC226" s="6" t="s">
+      <c r="AC227" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="AD226" s="6" t="s">
+      <c r="AD227" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="AE226" s="6" t="s">
+      <c r="AE227" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="AF226" s="6" t="s">
+      <c r="AF227" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="228" spans="1:33" ht="24" customHeight="1">
-      <c r="A228" s="9" t="s">
+    <row r="229" spans="1:32" ht="24" customHeight="1">
+      <c r="A229" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B229" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="229" spans="1:33" ht="24" customHeight="1">
-      <c r="A229" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B229" s="10" t="s">
+    <row r="230" spans="1:32" ht="24" customHeight="1">
+      <c r="A230" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B230" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C229" s="10" t="s">
+      <c r="C230" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="230" spans="1:33" ht="24" customHeight="1">
-      <c r="B230" s="8" t="s">
+    <row r="231" spans="1:32" ht="24" customHeight="1">
+      <c r="B231" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="231" spans="1:33" ht="178" customHeight="1">
-      <c r="B231" s="11"/>
-    </row>
-    <row r="234" spans="1:33" ht="24" customHeight="1">
-      <c r="A234" s="12" t="s">
+    <row r="232" spans="1:32" ht="177.95" customHeight="1">
+      <c r="B232" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="235" spans="1:32" ht="24" customHeight="1">
+      <c r="A235" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="B234" s="12" t="s">
+      <c r="B235" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="235" spans="1:33" ht="24" customHeight="1">
-      <c r="B235" s="13" t="s">
+    <row r="236" spans="1:32" ht="24" customHeight="1">
+      <c r="B236" s="13" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="237" spans="1:33" ht="24" customHeight="1">
-      <c r="A237" s="9" t="s">
+    <row r="238" spans="1:32" ht="24" customHeight="1">
+      <c r="A238" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B238" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="238" spans="1:33" ht="24" customHeight="1">
-      <c r="A238" s="14" t="s">
+    <row r="239" spans="1:32" ht="24" customHeight="1">
+      <c r="A239" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="B239" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C238" s="10" t="s">
+      <c r="C239" s="10" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="239" spans="1:33" ht="24" customHeight="1">
-      <c r="B239" s="10" t="s">
+    <row r="240" spans="1:32" ht="24" customHeight="1">
+      <c r="B240" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:33" ht="24" customHeight="1">
-      <c r="B240" s="11"/>
-      <c r="AA240" s="6" t="s">
+    <row r="241" spans="1:33" ht="24" customHeight="1">
+      <c r="B241" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA241" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB240" s="6" t="s">
+      <c r="AB241" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AC240" s="6" t="s">
+      <c r="AC241" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AD240" s="6" t="s">
+      <c r="AD241" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AE240" s="6" t="s">
+      <c r="AE241" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AF240" s="6" t="s">
+      <c r="AF241" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AG240" s="6" t="s">
+      <c r="AG241" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="242" spans="1:32" ht="24" customHeight="1">
-      <c r="A242" s="9" t="s">
+    <row r="243" spans="1:33" ht="24" customHeight="1">
+      <c r="A243" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B243" s="9" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="243" spans="1:32" ht="24" customHeight="1">
-      <c r="A243" s="14" t="s">
+    <row r="244" spans="1:33" ht="24" customHeight="1">
+      <c r="A244" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="B244" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="C243" s="10" t="s">
+      <c r="C244" s="10" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="244" spans="1:32" ht="24" customHeight="1">
-      <c r="B244" s="11"/>
-      <c r="AA244" s="6" t="s">
+    <row r="245" spans="1:33" ht="24" customHeight="1">
+      <c r="B245" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="AB244" s="6" t="s">
+      <c r="AA245" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB245" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="AC244" s="6" t="s">
+      <c r="AC245" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="AD244" s="6" t="s">
+      <c r="AD245" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="AE244" s="6" t="s">
+      <c r="AE245" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="AF244" s="6" t="s">
+      <c r="AF245" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="246" spans="1:32" ht="24" customHeight="1">
-      <c r="A246" s="9" t="s">
+    <row r="247" spans="1:33" ht="24" customHeight="1">
+      <c r="A247" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="B246" s="9" t="s">
+      <c r="B247" s="9" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="247" spans="1:32" ht="24" customHeight="1">
-      <c r="A247" s="14" t="s">
+    <row r="248" spans="1:33" ht="24" customHeight="1">
+      <c r="A248" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B247" s="10" t="s">
+      <c r="B248" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C247" s="10" t="s">
+      <c r="C248" s="10" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="248" spans="1:32" ht="24" customHeight="1">
-      <c r="B248" s="11"/>
-      <c r="AA248" s="6" t="s">
+    <row r="249" spans="1:33" ht="24" customHeight="1">
+      <c r="B249" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA249" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="AB248" s="6" t="s">
+      <c r="AB249" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="AC248" s="6" t="s">
+      <c r="AC249" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="AD248" s="6" t="s">
+      <c r="AD249" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="AE248" s="6" t="s">
+      <c r="AE249" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="AF248" s="6" t="s">
+      <c r="AF249" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="250" spans="1:32" ht="24" customHeight="1">
-      <c r="A250" s="9" t="s">
+    <row r="251" spans="1:33" ht="24" customHeight="1">
+      <c r="A251" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="B250" s="9" t="s">
+      <c r="B251" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="251" spans="1:32" ht="24" customHeight="1">
-      <c r="A251" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B251" s="10" t="s">
+    <row r="252" spans="1:33" ht="24" customHeight="1">
+      <c r="A252" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B252" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C251" s="10" t="s">
+      <c r="C252" s="10" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="252" spans="1:32" ht="24" customHeight="1">
-      <c r="B252" s="8" t="s">
+    <row r="253" spans="1:33" ht="24" customHeight="1">
+      <c r="B253" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="253" spans="1:32" ht="178" customHeight="1">
-      <c r="B253" s="11"/>
-    </row>
-    <row r="256" spans="1:32" ht="24" customHeight="1">
-      <c r="A256" s="12" t="s">
+    <row r="254" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B254" s="11"/>
+    </row>
+    <row r="257" spans="1:33" ht="24" customHeight="1">
+      <c r="A257" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="B256" s="12" t="s">
+      <c r="B257" s="12" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="257" spans="1:33" ht="24" customHeight="1">
-      <c r="B257" s="13" t="s">
+    <row r="258" spans="1:33" ht="24" customHeight="1">
+      <c r="B258" s="13" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="259" spans="1:33" ht="24" customHeight="1">
-      <c r="A259" s="9" t="s">
+    <row r="260" spans="1:33" ht="24" customHeight="1">
+      <c r="A260" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B259" s="9" t="s">
+      <c r="B260" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="260" spans="1:33" ht="24" customHeight="1">
-      <c r="A260" s="14" t="s">
+    <row r="261" spans="1:33" ht="24" customHeight="1">
+      <c r="A261" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B260" s="10" t="s">
+      <c r="B261" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C260" s="10" t="s">
+      <c r="C261" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="261" spans="1:33" ht="24" customHeight="1">
-      <c r="B261" s="10" t="s">
+    <row r="262" spans="1:33" ht="24" customHeight="1">
+      <c r="B262" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:33" ht="24" customHeight="1">
-      <c r="B262" s="11"/>
-      <c r="AA262" s="6" t="s">
+    <row r="263" spans="1:33" ht="24" customHeight="1">
+      <c r="B263" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA263" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB262" s="6" t="s">
+      <c r="AB263" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AC262" s="6" t="s">
+      <c r="AC263" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AD262" s="6" t="s">
+      <c r="AD263" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AE262" s="6" t="s">
+      <c r="AE263" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AF262" s="6" t="s">
+      <c r="AF263" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AG262" s="6" t="s">
+      <c r="AG263" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="264" spans="1:33" ht="24" customHeight="1">
-      <c r="A264" s="9" t="s">
+    <row r="265" spans="1:33" ht="24" customHeight="1">
+      <c r="A265" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="B264" s="9" t="s">
+      <c r="B265" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="265" spans="1:33" ht="24" customHeight="1">
-      <c r="A265" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B265" s="10" t="s">
+    <row r="266" spans="1:33" ht="24" customHeight="1">
+      <c r="A266" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B266" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C265" s="10" t="s">
+      <c r="C266" s="10" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="266" spans="1:33" ht="24" customHeight="1">
-      <c r="B266" s="8" t="s">
+    <row r="267" spans="1:33" ht="24" customHeight="1">
+      <c r="B267" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="267" spans="1:33" ht="178" customHeight="1">
-      <c r="B267" s="11"/>
-    </row>
-    <row r="270" spans="1:33" ht="24" customHeight="1">
-      <c r="A270" s="12" t="s">
+    <row r="268" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B268" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="271" spans="1:33" ht="24" customHeight="1">
+      <c r="A271" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="B270" s="12" t="s">
+      <c r="B271" s="12" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="271" spans="1:33" ht="24" customHeight="1">
-      <c r="B271" s="13" t="s">
+    <row r="272" spans="1:33" ht="24" customHeight="1">
+      <c r="B272" s="13" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="273" spans="1:33" ht="24" customHeight="1">
-      <c r="A273" s="9" t="s">
+    <row r="274" spans="1:33" ht="24" customHeight="1">
+      <c r="A274" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="B273" s="9" t="s">
+      <c r="B274" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="274" spans="1:33" ht="24" customHeight="1">
-      <c r="A274" s="14" t="s">
+    <row r="275" spans="1:33" ht="24" customHeight="1">
+      <c r="A275" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B274" s="10" t="s">
+      <c r="B275" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C274" s="10" t="s">
+      <c r="C275" s="10" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="275" spans="1:33" ht="24" customHeight="1">
-      <c r="B275" s="10" t="s">
+    <row r="276" spans="1:33" ht="24" customHeight="1">
+      <c r="B276" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="1:33" ht="24" customHeight="1">
-      <c r="B276" s="11"/>
-      <c r="AA276" s="6" t="s">
+    <row r="277" spans="1:33" ht="24" customHeight="1">
+      <c r="B277" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA277" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB276" s="6" t="s">
+      <c r="AB277" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AC276" s="6" t="s">
+      <c r="AC277" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AD276" s="6" t="s">
+      <c r="AD277" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AE276" s="6" t="s">
+      <c r="AE277" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AF276" s="6" t="s">
+      <c r="AF277" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AG276" s="6" t="s">
+      <c r="AG277" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="278" spans="1:33" ht="24" customHeight="1">
-      <c r="A278" s="9" t="s">
+    <row r="279" spans="1:33" ht="24" customHeight="1">
+      <c r="A279" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="B278" s="9" t="s">
+      <c r="B279" s="9" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="279" spans="1:33" ht="24" customHeight="1">
-      <c r="A279" s="14" t="s">
+    <row r="280" spans="1:33" ht="24" customHeight="1">
+      <c r="A280" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B279" s="10" t="s">
+      <c r="B280" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C279" s="10" t="s">
+      <c r="C280" s="10" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="280" spans="1:33" ht="24" customHeight="1">
-      <c r="B280" s="11"/>
-    </row>
-    <row r="282" spans="1:33" ht="24" customHeight="1">
-      <c r="A282" s="9" t="s">
+    <row r="281" spans="1:33" ht="24" customHeight="1">
+      <c r="B281" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:33" ht="24" customHeight="1">
+      <c r="A283" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="B282" s="9" t="s">
+      <c r="B283" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="283" spans="1:33" ht="24" customHeight="1">
-      <c r="A283" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B283" s="10" t="s">
+    <row r="284" spans="1:33" ht="24" customHeight="1">
+      <c r="A284" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B284" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C283" s="10" t="s">
+      <c r="C284" s="10" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="284" spans="1:33" ht="24" customHeight="1">
-      <c r="B284" s="8" t="s">
+    <row r="285" spans="1:33" ht="24" customHeight="1">
+      <c r="B285" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="285" spans="1:33" ht="178" customHeight="1">
-      <c r="B285" s="11"/>
-    </row>
-    <row r="288" spans="1:33" ht="24" customHeight="1">
-      <c r="A288" s="12" t="s">
+    <row r="286" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B286" s="11"/>
+    </row>
+    <row r="289" spans="1:32" ht="24" customHeight="1">
+      <c r="A289" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="B288" s="12" t="s">
+      <c r="B289" s="12" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="289" spans="1:32" ht="24" customHeight="1">
-      <c r="B289" s="13" t="s">
+    <row r="290" spans="1:32" ht="24" customHeight="1">
+      <c r="B290" s="13" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="291" spans="1:32" ht="24" customHeight="1">
-      <c r="A291" s="9" t="s">
+    <row r="292" spans="1:32" ht="24" customHeight="1">
+      <c r="A292" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="B291" s="9" t="s">
+      <c r="B292" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="292" spans="1:32" ht="24" customHeight="1">
-      <c r="A292" s="14" t="s">
+    <row r="293" spans="1:32" ht="24" customHeight="1">
+      <c r="A293" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B292" s="10" t="s">
+      <c r="B293" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C292" s="10" t="s">
+      <c r="C293" s="10" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="293" spans="1:32" ht="24" customHeight="1">
-      <c r="B293" s="10" t="s">
+    <row r="294" spans="1:32" ht="24" customHeight="1">
+      <c r="B294" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="1:32" ht="24" customHeight="1">
-      <c r="B294" s="11"/>
-      <c r="AA294" s="6" t="s">
+    <row r="295" spans="1:32" ht="24" customHeight="1">
+      <c r="B295" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA295" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AB294" s="6" t="s">
+      <c r="AB295" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="AC294" s="6" t="s">
+      <c r="AC295" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="AD294" s="6" t="s">
+      <c r="AD295" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="AE294" s="6" t="s">
+      <c r="AE295" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="AF294" s="6" t="s">
+      <c r="AF295" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="296" spans="1:32" ht="24" customHeight="1">
-      <c r="A296" s="9" t="s">
+    <row r="297" spans="1:32" ht="24" customHeight="1">
+      <c r="A297" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="B296" s="9" t="s">
+      <c r="B297" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="297" spans="1:32" ht="24" customHeight="1">
-      <c r="A297" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B297" s="10" t="s">
+    <row r="298" spans="1:32" ht="24" customHeight="1">
+      <c r="A298" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B298" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C297" s="10" t="s">
+      <c r="C298" s="10" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="298" spans="1:32" ht="24" customHeight="1">
-      <c r="B298" s="8" t="s">
+    <row r="299" spans="1:32" ht="24" customHeight="1">
+      <c r="B299" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="299" spans="1:32" ht="178" customHeight="1">
-      <c r="B299" s="11"/>
+    <row r="300" spans="1:32" ht="177.95" customHeight="1">
+      <c r="B300" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="27">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B277 B263 B241 B219 B205 B183 B165 B151 B137 B123 B109 B91 B77 B63 B49 B20:B21">
       <formula1>AA20:AG20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
-      <formula1>AA34:AG34</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
+      <formula1>AA95:AE95</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
-      <formula1>AA48:AG48</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
-      <formula1>AA62:AG62</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
-      <formula1>AA76:AG76</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90">
-      <formula1>AA90:AG90</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94">
-      <formula1>AA94:AE94</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B108">
-      <formula1>AA108:AG108</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122">
-      <formula1>AA122:AG122</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B136">
-      <formula1>AA136:AG136</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B150">
-      <formula1>AA150:AG150</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B164">
-      <formula1>AA164:AG164</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B168">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169 B281 B191 B187">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B182">
-      <formula1>AA182:AG182</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B186">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B190">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B204">
-      <formula1>AA204:AG204</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B218">
-      <formula1>AA218:AG218</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B222">
-      <formula1>AA222:AF222</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B226">
-      <formula1>AA226:AF226</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B240">
-      <formula1>AA240:AG240</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B244">
-      <formula1>AA244:AF244</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B248">
-      <formula1>AA248:AF248</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B262">
-      <formula1>AA262:AG262</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B276">
-      <formula1>AA276:AG276</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B280">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B294">
-      <formula1>AA294:AF294</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B223 B295 B249 B245 B227">
+      <formula1>AA223:AF223</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_toplevel.xlsx
+++ b/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_toplevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="442">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1303,9 +1303,6 @@
     <t>The atmosphere component ECHAM6.3 is directly coupled to the aerosol and cloud microphysics module HAM2.3 and the land surface model JSBACH3.20. The ocean dynamic model MPIOM1.6.3 is directly coupled to the ocean biogeochemistry model HAMOCC6. These two major components are coupled via the coupler OASIS3-MCT.</t>
   </si>
   <si>
-    <t>See Mauritsen et al. (2019) for tuning of MPI-ESM1.2-LR. In order to use the ocean spin-up of MPI-ESM1.2-LR for MPI-ESM1.2-HAM, the energy input into the ocean (global mean net surface energy flux) was tuned to be similar. Also the pre-industrial global mean surface temperature in MPI-ESM1.2-LR was tuned to be similar to the one in MPI-ESM1.2-LR. Both together should minimize drift. In order to obtain acceptable Arctic sea ice cover and volume several adjustments were made including a higher minimum cloud droplet number concentration over land than over ocean and a different sea salt parameterization than the default one used in ECHAM6.3-HAM2.3.</t>
-  </si>
-  <si>
     <t>net surface energy flux, surface temperature</t>
   </si>
   <si>
@@ -1328,6 +1325,24 @@
   </si>
   <si>
     <t>Dust emissions are computed online based on 10-m wind speed. For details see Tegen et al. (2018).</t>
+  </si>
+  <si>
+    <t>NEUBAUER-DAVID</t>
+  </si>
+  <si>
+    <t>FERRACHAT-SYLVAINE</t>
+  </si>
+  <si>
+    <t>Principal Investigator</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t>See Mauritsen et al. (2019) for tuning of MPI-ESM1.2-LR. In order to use the ocean spin-up of MPI-ESM1.2-LR for MPI-ESM1.2-HAM, the energy input into the ocean (global mean net surface energy flux) was tuned to be similar. Also the pre-industrial global mean surface temperature in MPI-ESM1.2-LR was tuned to be similar to the one in MPI-ESM1.2-LR. Both together should minimize drift. In order to obtain acceptable Arctic sea ice cover and volume several adjustments were made including a higher minimum cloud droplet number concentration over land than over ocean and a different sea salt parameterization than the default one used in ECHAM6.3-HAM2.3. The minimum cloud droplet number concentration over ocean was adjusted to best meet the observed warming during the historical time period.</t>
+  </si>
+  <si>
+    <t>surface temperature evolution since 1850</t>
   </si>
 </sst>
 </file>
@@ -1954,11 +1969,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2008,54 +2021,70 @@
       </c>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="18">
-      <c r="A12" s="9" t="s">
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18">
+      <c r="A11" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18">
+      <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75">
-      <c r="A16" s="10" t="s">
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
-      <c r="A17" s="11" t="s">
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" ht="18">
-      <c r="A18" s="11" t="s">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" ht="18">
+      <c r="A20" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B20" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B11">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:B20">
       <formula1>"Top Level,Key Properties,Radiative Forcings"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2065,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH224"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2485,6 +2514,9 @@
     </row>
     <row r="75" spans="1:34" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>105</v>
       </c>
       <c r="AA75" s="6" t="s">
@@ -2640,7 +2672,7 @@
     </row>
     <row r="100" spans="1:3" ht="177.95" customHeight="1">
       <c r="B100" s="11" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
@@ -2669,7 +2701,7 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -2698,7 +2730,7 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="B110" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -2726,7 +2758,9 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="B115" s="11"/>
+      <c r="B115" s="11" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
@@ -2811,7 +2845,7 @@
     </row>
     <row r="132" spans="1:3" ht="177.95" customHeight="1">
       <c r="B132" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -3311,7 +3345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
@@ -4461,7 +4495,7 @@
     </row>
     <row r="174" spans="1:33" ht="177.95" customHeight="1">
       <c r="B174" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="177" spans="1:33" ht="24" customHeight="1">
@@ -4601,7 +4635,7 @@
     </row>
     <row r="196" spans="1:33" ht="177.95" customHeight="1">
       <c r="B196" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="199" spans="1:33" ht="24" customHeight="1">
@@ -4693,7 +4727,7 @@
     </row>
     <row r="210" spans="1:33" ht="177.95" customHeight="1">
       <c r="B210" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="213" spans="1:33" ht="24" customHeight="1">
@@ -4869,7 +4903,7 @@
     </row>
     <row r="232" spans="1:32" ht="177.95" customHeight="1">
       <c r="B232" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="235" spans="1:32" ht="24" customHeight="1">
@@ -5135,7 +5169,7 @@
     </row>
     <row r="268" spans="1:33" ht="177.95" customHeight="1">
       <c r="B268" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="271" spans="1:33" ht="24" customHeight="1">

--- a/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_toplevel.xlsx
+++ b/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_toplevel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
     <sheet name="2. Radiative Forcings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="438">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -139,6 +139,9 @@
     <t>cmip6.toplevel.key_properties.name</t>
   </si>
   <si>
+    <t>MPI-ESM1.2-HAM</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
+    <t>ECHAM6.3, HAM2.3, MPIOM1.6.3, JSBACH3.20, HAMOCC6</t>
+  </si>
+  <si>
     <t>1.1.1.3 *</t>
   </si>
   <si>
@@ -169,6 +175,9 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>MPI-ESM1.2-HAM is the latest version of the Max Planck Institute for Meteorology Earth System Model (MPI-ESM1.2) coupled with the Hamburg Aerosol Module (HAM2.3), developed by the HAMMOZ consortium. The HAMMOZ consortium is composed of ETH Zurich, Max Planck Institut for Meteorology, Forschungszentrum Jülich, University of Oxford, the Finnish Meteorological Institute and the Leibniz Institute for Tropospheric Research, and managed by the Center for Climate Systems Modeling (C2SM) at ETH Zurich.</t>
+  </si>
+  <si>
     <t>1.2.1</t>
   </si>
   <si>
@@ -190,6 +199,9 @@
     <t>cmip6.toplevel.key_properties.flux_correction.details</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>1.3.1</t>
   </si>
   <si>
@@ -280,6 +292,9 @@
     <t>cmip6.toplevel.key_properties.software_properties.repository</t>
   </si>
   <si>
+    <t>https://redmine.hammoz.ethz.ch/projects/aerchemmip</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
@@ -304,6 +319,9 @@
     <t>cmip6.toplevel.key_properties.software_properties.code_languages</t>
   </si>
   <si>
+    <t>Fortran</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.4 </t>
   </si>
   <si>
@@ -316,6 +334,9 @@
     <t>cmip6.toplevel.key_properties.software_properties.components_structure</t>
   </si>
   <si>
+    <t>The atmosphere component ECHAM6.3 is directly coupled to the aerosol and cloud microphysics module HAM2.3 and the land surface model JSBACH3.20. The ocean dynamic model MPIOM1.6.3 is directly coupled to the ocean biogeochemistry model HAMOCC6. These two major components are coupled via the coupler OASIS3-MCT.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.5 </t>
   </si>
   <si>
@@ -331,30 +352,30 @@
     <t>cmip6.toplevel.key_properties.software_properties.coupler</t>
   </si>
   <si>
-    <t>OASIS</t>
-  </si>
-  <si>
-    <t>OASIS3-MCT</t>
-  </si>
-  <si>
-    <t>ESMF</t>
-  </si>
-  <si>
-    <t>NUOPC</t>
-  </si>
-  <si>
-    <t>Bespoke</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Other: document in cell to the right</t>
   </si>
   <si>
+    <t>OASIS: The OASIS coupler - prior to OASIS-MCT</t>
+  </si>
+  <si>
+    <t>OASIS3-MCT: The MCT variant of the OASIS coupler</t>
+  </si>
+  <si>
+    <t>ESMF: Vanilla Earth System Modelling Framework</t>
+  </si>
+  <si>
+    <t>NUOPC: National Unified Operational Prediction Capability variant of ESMF</t>
+  </si>
+  <si>
+    <t>Bespoke: Customised coupler developed for this model</t>
+  </si>
+  <si>
+    <t>Unknown: It is not known what/if-a coupler is used</t>
+  </si>
+  <si>
+    <t>None: No coupler is used</t>
+  </si>
+  <si>
     <t>1.5.1</t>
   </si>
   <si>
@@ -430,6 +451,9 @@
     <t>cmip6.toplevel.key_properties.tuning_applied.description</t>
   </si>
   <si>
+    <t>See Mauritsen et al. (2019) for tuning of MPI-ESM1.2-LR. In order to use the ocean spin-up of MPI-ESM1.2-LR for MPI-ESM1.2-HAM, the energy input into the ocean (global mean net surface energy flux) was tuned to be similar. Also the pre-industrial global mean surface temperature in MPI-ESM1.2-LR was tuned to be similar to the one in MPI-ESM1.2-LR. Both together should minimize drift. In order to obtain acceptable Arctic sea ice cover and volume several adjustments were made including a higher minimum cloud droplet number concentration over land than over ocean and a different sea salt parameterization than the default one used in ECHAM6.3-HAM2.3. The minimum cloud droplet number concentration over ocean was adjusted to best meet the observed warming during the historical time period.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.6.1.2 </t>
   </si>
   <si>
@@ -442,6 +466,9 @@
     <t>cmip6.toplevel.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
+    <t>net surface energy flux, surface temperature</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.6.1.3 </t>
   </si>
   <si>
@@ -454,6 +481,9 @@
     <t>cmip6.toplevel.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
+    <t>Arctic sea ice cover, Arctic sea ice volume</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.6.1.4 </t>
   </si>
   <si>
@@ -466,6 +496,9 @@
     <t>cmip6.toplevel.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
+    <t>surface temperature evolution since 1850</t>
+  </si>
+  <si>
     <t>1.6.1.5 *</t>
   </si>
   <si>
@@ -511,6 +544,9 @@
     <t>cmip6.toplevel.key_properties.conservation.heat.global</t>
   </si>
   <si>
+    <t>For ECHAM6.3 and MPI-ESM1.2-LR see Mauritsen et al. (2019). Error 2 described in Mauritsen et al. (2019) is eliminated differently in ECHAM6.3-HAM2.3 and MPI-ESM1.2-HAM. The phase of detrained condensate is passed from the convection scheme to the stratiform scheme but in the stratiform cloud scheme the phase of the detrained condensate is recalculated based on atmospheric conditions (allowing supercooled liquid water) and the latent heat of fusion is released to the atmosphere if necessary.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.6.2.2 </t>
   </si>
   <si>
@@ -757,22 +793,22 @@
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CO2.provision</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Y: Prescribed concentrations, distributions or time series data</t>
+  </si>
+  <si>
+    <t>N/A: Not applicable - forcing agent is not included</t>
+  </si>
+  <si>
+    <t>M: Emissions and concentrations determined by the model state rather than externally prescribed</t>
+  </si>
+  <si>
+    <t>E: Concentrations calculated interactively driven by prescribed emissions or precursor emissions</t>
+  </si>
+  <si>
+    <t>ES: Surface emissions (and 3-D concentrations away from the surface) derived via the model from the prescribed surface concentration</t>
+  </si>
+  <si>
+    <t>C: Fixed prescribed climatology of concentrations with no year-to-year variability</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.2.2 </t>
@@ -898,13 +934,16 @@
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.equivalence_concentration</t>
   </si>
   <si>
-    <t>Option 1</t>
-  </si>
-  <si>
-    <t>Option 2</t>
-  </si>
-  <si>
-    <t>Option 3</t>
+    <t>N/A: Not applicabale (CFCs not included or emissions and concentrations determined by the model state)</t>
+  </si>
+  <si>
+    <t>Option 1: CFCs, including CFC-12, are provided as actual concentrations</t>
+  </si>
+  <si>
+    <t>Option 2: CFC-12 is provided as actual concentrations and any other gases are provided as an equivalence concentration of CFC-11</t>
+  </si>
+  <si>
+    <t>Option 3: Ozone depleting gases, including CFC-12, are provided as an equivalence concentration of CFC-12 and all other fluorinated gases are provided as an equivalence concentration of HFC-134a</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.7.3 </t>
@@ -1030,6 +1069,9 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.additional_information</t>
   </si>
   <si>
+    <t>Aerosol-cloud interactions for stratiform liquid, mixed-phase and cirrus clouds are computed online. Detrained cloud droplets from convective clouds depend on the number of activated aerosol particles at the convective cloud base. Aerosol activation is computed using a Köhler-theory based parameterization. For stratiform mixed-phase clouds heterogenous nucleation (immersion and contact freezing) of supercooled cloud droplets is computed. For stratiform cirrus clouds homogeneous nucleation of solution droplets is computed. Size dependent wet scavenging of aerosol particles in-cloud and below cloud is included. The below cloud collection efficiencies as a function of aerosol and rain drop or snow crystal size are read from a look-up table. The in-cloud scavenging scheme takes nucleation scavenging and impaction scavenging of aerosol particles with cloud droplets and ice-crystals into account.</t>
+  </si>
+  <si>
     <t>2.1.13</t>
   </si>
   <si>
@@ -1069,6 +1111,9 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.additional_information</t>
   </si>
   <si>
+    <t>see 2.1.12.3</t>
+  </si>
+  <si>
     <t>2.1.14</t>
   </si>
   <si>
@@ -1090,6 +1135,9 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.dust.additional_information</t>
   </si>
   <si>
+    <t>Dust emissions are computed online based on 10-m wind speed. For details see Tegen et al. (2018).</t>
+  </si>
+  <si>
     <t>2.1.15</t>
   </si>
   <si>
@@ -1117,19 +1165,19 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
   </si>
   <si>
-    <t>Type A</t>
-  </si>
-  <si>
-    <t>Type B</t>
-  </si>
-  <si>
-    <t>Type C</t>
-  </si>
-  <si>
-    <t>Type D</t>
-  </si>
-  <si>
-    <t>Type E</t>
+    <t>Type E: Explosive volcanic aerosol set to constant (average volcano) background</t>
+  </si>
+  <si>
+    <t>Type A: Explosive volcanic aerosol returns rapidly to zero (or near-zero) background.</t>
+  </si>
+  <si>
+    <t>Type B: Explosive volcanic aerosol returns rapidly to constant (average volcano)</t>
+  </si>
+  <si>
+    <t>Type C: Explosive volcanic aerosol returns slowly (over several decades) to constant (average volcano) background.</t>
+  </si>
+  <si>
+    <t>Type D: Explosive volcanic aerosol set to zero</t>
   </si>
   <si>
     <t>2.1.15.3 *</t>
@@ -1150,6 +1198,9 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.additional_information</t>
   </si>
   <si>
+    <t>See Zhang et al. (2012) for details.</t>
+  </si>
+  <si>
     <t>2.1.16</t>
   </si>
   <si>
@@ -1204,6 +1255,9 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.sea_salt.additional_information</t>
   </si>
   <si>
+    <t>Sea salt emissions are computed online based on 10-m wind speed. For details see Tegen et al. (2018).</t>
+  </si>
+  <si>
     <t>2.1.18</t>
   </si>
   <si>
@@ -1258,98 +1312,32 @@
     <t>Irradiance</t>
   </si>
   <si>
-    <t>Proton</t>
-  </si>
-  <si>
-    <t>Electron</t>
-  </si>
-  <si>
-    <t>Cosmic ray</t>
+    <t>N/A: Not applicable - solar forcing is not included</t>
+  </si>
+  <si>
+    <t>irradiance: Solar irradiance forcing</t>
+  </si>
+  <si>
+    <t>proton: Proton pathway to solar forcing</t>
+  </si>
+  <si>
+    <t>electron: Electron pathway to solar forcing</t>
+  </si>
+  <si>
+    <t>cosmic ray: Cosmic ray pathway to solar forcing</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.19.2 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.other.solar.additional_information</t>
-  </si>
-  <si>
-    <t>HAMMOZ</t>
-  </si>
-  <si>
-    <t>Mauritsen_2019</t>
-  </si>
-  <si>
-    <t>Tegen_2018</t>
-  </si>
-  <si>
-    <t>MPI-ESM1.2-HAM</t>
-  </si>
-  <si>
-    <t>ECHAM6.3, HAM2.3, MPIOM1.6.3, JSBACH3.20, HAMOCC6</t>
-  </si>
-  <si>
-    <t>MPI-ESM1.2-HAM is the latest version of the Max Planck Institute for Meteorology Earth System Model (MPI-ESM1.2) coupled with the Hamburg Aerosol Module (HAM2.3), developed by the HAMMOZ consortium. The HAMMOZ consortium is composed of ETH Zurich, Max Planck Institut for Meteorology, Forschungszentrum Jülich, University of Oxford, the Finnish Meteorological Institute and the Leibniz Institute for Tropospheric Research, and managed by the Center for Climate Systems Modeling (C2SM) at ETH Zurich.</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>https://redmine.hammoz.ethz.ch/projects/aerchemmip</t>
-  </si>
-  <si>
-    <t>Fortran</t>
-  </si>
-  <si>
-    <t>The atmosphere component ECHAM6.3 is directly coupled to the aerosol and cloud microphysics module HAM2.3 and the land surface model JSBACH3.20. The ocean dynamic model MPIOM1.6.3 is directly coupled to the ocean biogeochemistry model HAMOCC6. These two major components are coupled via the coupler OASIS3-MCT.</t>
-  </si>
-  <si>
-    <t>net surface energy flux, surface temperature</t>
-  </si>
-  <si>
-    <t>Arctic sea ice cover, Arctic sea ice volume</t>
-  </si>
-  <si>
-    <t>For ECHAM6.3 and MPI-ESM1.2-LR see Mauritsen et al. (2019). Error 2 described in Mauritsen et al. (2019) is eliminated differently in ECHAM6.3-HAM2.3 and MPI-ESM1.2-HAM. The phase of detrained condensate is passed from the convection scheme to the stratiform scheme but in the stratiform cloud scheme the phase of the detrained condensate is recalculated based on atmospheric conditions (allowing supercooled liquid water) and the latent heat of fusion is released to the atmosphere if necessary.</t>
-  </si>
-  <si>
-    <t>Aerosol-cloud interactions for stratiform liquid, mixed-phase and cirrus clouds are computed online. Detrained cloud droplets from convective clouds depend on the number of activated aerosol particles at the convective cloud base. Aerosol activation is computed using a Köhler-theory based parameterization. For stratiform mixed-phase clouds heterogenous nucleation (immersion and contact freezing) of supercooled cloud droplets is computed. For stratiform cirrus clouds homogeneous nucleation of solution droplets is computed. Size dependent wet scavenging of aerosol particles in-cloud and below cloud is included. The below cloud collection efficiencies as a function of aerosol and rain drop or snow crystal size are read from a look-up table. The in-cloud scavenging scheme takes nucleation scavenging and impaction scavenging of aerosol particles with cloud droplets and ice-crystals into account.</t>
-  </si>
-  <si>
-    <t>see 2.1.12.3</t>
-  </si>
-  <si>
-    <t>See Zhang et al. (2012) for details.</t>
-  </si>
-  <si>
-    <t>Sea salt emissions are computed online based on 10-m wind speed. For details see Tegen et al. (2018).</t>
-  </si>
-  <si>
-    <t>Dust emissions are computed online based on 10-m wind speed. For details see Tegen et al. (2018).</t>
-  </si>
-  <si>
-    <t>NEUBAUER-DAVID</t>
-  </si>
-  <si>
-    <t>FERRACHAT-SYLVAINE</t>
-  </si>
-  <si>
-    <t>Principal Investigator</t>
-  </si>
-  <si>
-    <t>Contributor</t>
-  </si>
-  <si>
-    <t>See Mauritsen et al. (2019) for tuning of MPI-ESM1.2-LR. In order to use the ocean spin-up of MPI-ESM1.2-LR for MPI-ESM1.2-HAM, the energy input into the ocean (global mean net surface energy flux) was tuned to be similar. Also the pre-industrial global mean surface temperature in MPI-ESM1.2-LR was tuned to be similar to the one in MPI-ESM1.2-LR. Both together should minimize drift. In order to obtain acceptable Arctic sea ice cover and volume several adjustments were made including a higher minimum cloud droplet number concentration over land than over ocean and a different sea salt parameterization than the default one used in ECHAM6.3-HAM2.3. The minimum cloud droplet number concentration over ocean was adjusted to best meet the observed warming during the historical time period.</t>
-  </si>
-  <si>
-    <t>surface temperature evolution since 1850</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1450,14 +1438,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1500,11 +1480,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1548,21 +1527,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1641,7 +1611,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1676,7 +1645,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1852,10 +1820,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1864,12 +1832,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33.75">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1877,7 +1845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1885,7 +1853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1893,7 +1861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1901,7 +1869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1909,12 +1877,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.25">
+    <row r="9" spans="1:2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18">
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1922,7 +1890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1930,7 +1898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18">
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1938,7 +1906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1946,13 +1914,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" ht="20.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1968,8 +1936,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1980,7 +1948,7 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -1991,7 +1959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -2007,7 +1975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75">
+    <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
@@ -2015,88 +1983,60 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18">
-      <c r="A9" s="11" t="s">
-        <v>418</v>
-      </c>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:2" ht="18">
-      <c r="A10" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18">
-      <c r="A11" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18">
-      <c r="A14" s="9" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75">
-      <c r="A18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18">
-      <c r="A19" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2" ht="18">
-      <c r="A20" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B20" s="11"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:B20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>"Top Level,Key Properties,Radiative Forcings"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A15" r:id="rId2"/>
+    <hyperlink ref="A13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH224"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2140,15 +2080,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>421</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2156,28 +2096,28 @@
         <v>37</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>422</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2185,41 +2125,41 @@
         <v>37</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>423</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -2227,41 +2167,41 @@
         <v>37</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="178" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>424</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -2269,10 +2209,10 @@
         <v>37</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -2282,10 +2222,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -2293,23 +2233,23 @@
         <v>37</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>424</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -2317,23 +2257,23 @@
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>424</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -2341,28 +2281,28 @@
         <v>37</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="B45" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="178" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>424</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
@@ -2370,10 +2310,10 @@
         <v>37</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -2381,23 +2321,23 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="B54" s="13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -2405,23 +2345,23 @@
         <v>37</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="B58" s="15" t="s">
-        <v>425</v>
+      <c r="B58" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -2429,23 +2369,23 @@
         <v>37</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="B62" s="11" t="s">
-        <v>421</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:34" ht="24" customHeight="1">
@@ -2453,28 +2393,28 @@
         <v>37</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:34" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="24" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>426</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:34" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:34" ht="24" customHeight="1">
@@ -2482,63 +2422,60 @@
         <v>37</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:34" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>427</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:34" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:34" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="AA75" s="6" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AF75" s="6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AG75" s="6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AH75" s="6" t="s">
         <v>111</v>
@@ -2546,10 +2483,10 @@
     </row>
     <row r="78" spans="1:34" ht="24" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:34" ht="24" customHeight="1">
@@ -2557,21 +2494,21 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
@@ -2579,33 +2516,33 @@
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AD87" s="6" t="s">
         <v>111</v>
@@ -2613,21 +2550,21 @@
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
@@ -2635,23 +2572,23 @@
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="12" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="B95" s="13" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -2659,28 +2596,28 @@
         <v>37</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="B99" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="178" customHeight="1">
       <c r="B100" s="11" t="s">
-        <v>440</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -2688,28 +2625,28 @@
         <v>37</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="B104" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11" t="s">
-        <v>428</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
@@ -2717,28 +2654,28 @@
         <v>37</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="B110" s="11" t="s">
-        <v>429</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
@@ -2746,28 +2683,28 @@
         <v>37</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="B114" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
       <c r="B115" s="11" t="s">
-        <v>441</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -2775,10 +2712,10 @@
         <v>37</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
@@ -2786,10 +2723,10 @@
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
@@ -2797,10 +2734,10 @@
         <v>37</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
@@ -2808,23 +2745,23 @@
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="A126" s="12" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="B127" s="13" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
       <c r="A129" s="9" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
@@ -2832,28 +2769,28 @@
         <v>37</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="178" customHeight="1">
       <c r="B132" s="11" t="s">
-        <v>430</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -2861,26 +2798,26 @@
         <v>37</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
       <c r="B136" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="178" customHeight="1">
       <c r="B137" s="11"/>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="A139" s="9" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
@@ -2888,26 +2825,26 @@
         <v>37</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="B141" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="178" customHeight="1">
       <c r="B142" s="11"/>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="A144" s="9" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
@@ -2915,26 +2852,26 @@
         <v>37</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="B146" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="178" customHeight="1">
       <c r="B147" s="11"/>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="A149" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
@@ -2942,26 +2879,26 @@
         <v>37</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
       <c r="B151" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="178" customHeight="1">
       <c r="B152" s="11"/>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
@@ -2969,39 +2906,39 @@
         <v>37</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="B156" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="178" customHeight="1">
       <c r="B157" s="11"/>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
@@ -3009,26 +2946,26 @@
         <v>37</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="B165" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="178" customHeight="1">
       <c r="B166" s="11"/>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
       <c r="A168" s="9" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
@@ -3036,26 +2973,26 @@
         <v>37</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="B170" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="178" customHeight="1">
       <c r="B171" s="11"/>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="9" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -3063,26 +3000,26 @@
         <v>37</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="24" customHeight="1">
       <c r="B175" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="178" customHeight="1">
       <c r="B176" s="11"/>
     </row>
     <row r="178" spans="1:3" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="24" customHeight="1">
@@ -3090,26 +3027,26 @@
         <v>37</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="24" customHeight="1">
       <c r="B180" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="178" customHeight="1">
       <c r="B181" s="11"/>
     </row>
     <row r="183" spans="1:3" ht="24" customHeight="1">
       <c r="A183" s="9" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="24" customHeight="1">
@@ -3117,26 +3054,26 @@
         <v>37</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="24" customHeight="1">
       <c r="B185" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="178" customHeight="1">
       <c r="B186" s="11"/>
     </row>
     <row r="188" spans="1:3" ht="24" customHeight="1">
       <c r="A188" s="9" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="24" customHeight="1">
@@ -3144,26 +3081,26 @@
         <v>37</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="24" customHeight="1">
       <c r="B190" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="178" customHeight="1">
       <c r="B191" s="11"/>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
       <c r="A193" s="9" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="24" customHeight="1">
@@ -3171,26 +3108,26 @@
         <v>37</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="24" customHeight="1">
       <c r="B195" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="178" customHeight="1">
       <c r="B196" s="11"/>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
       <c r="A198" s="9" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="24" customHeight="1">
@@ -3198,26 +3135,26 @@
         <v>37</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="24" customHeight="1">
       <c r="B200" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="178" customHeight="1">
       <c r="B201" s="11"/>
     </row>
     <row r="203" spans="1:3" ht="24" customHeight="1">
       <c r="A203" s="9" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="24" customHeight="1">
@@ -3225,39 +3162,39 @@
         <v>37</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="24" customHeight="1">
       <c r="B205" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="178" customHeight="1">
       <c r="B206" s="11"/>
     </row>
     <row r="209" spans="1:3" ht="24" customHeight="1">
       <c r="A209" s="12" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="24" customHeight="1">
       <c r="B210" s="13" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="24" customHeight="1">
       <c r="A212" s="9" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="24" customHeight="1">
@@ -3265,39 +3202,39 @@
         <v>37</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="24" customHeight="1">
       <c r="B214" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="178" customHeight="1">
       <c r="B215" s="11"/>
     </row>
     <row r="218" spans="1:3" ht="24" customHeight="1">
       <c r="A218" s="12" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="24" customHeight="1">
       <c r="B219" s="13" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="24" customHeight="1">
       <c r="A221" s="9" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="24" customHeight="1">
@@ -3305,18 +3242,18 @@
         <v>37</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="24" customHeight="1">
       <c r="B223" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="178" customHeight="1">
       <c r="B224" s="11"/>
     </row>
   </sheetData>
@@ -3342,12 +3279,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG300"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3359,20 +3294,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>36</v>
@@ -3383,10 +3318,10 @@
         <v>37</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3394,10 +3329,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3405,50 +3340,50 @@
         <v>37</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
@@ -3458,25 +3393,25 @@
     </row>
     <row r="20" spans="1:33" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG20" s="6" t="s">
         <v>111</v>
@@ -3484,25 +3419,25 @@
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG21" s="6" t="s">
         <v>111</v>
@@ -3510,10 +3445,10 @@
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="24" customHeight="1">
@@ -3521,50 +3456,50 @@
         <v>37</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="B25" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="178" customHeight="1">
       <c r="B26" s="11"/>
     </row>
     <row r="29" spans="1:33" ht="24" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:33" ht="24" customHeight="1">
@@ -3574,25 +3509,25 @@
     </row>
     <row r="35" spans="1:33" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG35" s="6" t="s">
         <v>111</v>
@@ -3600,10 +3535,10 @@
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:33" ht="24" customHeight="1">
@@ -3611,50 +3546,50 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:33" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" ht="178" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="43" spans="1:33" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:33" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:33" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:33" ht="24" customHeight="1">
@@ -3664,25 +3599,25 @@
     </row>
     <row r="49" spans="1:33" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE49" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF49" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG49" s="6" t="s">
         <v>111</v>
@@ -3690,10 +3625,10 @@
     </row>
     <row r="51" spans="1:33" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:33" ht="24" customHeight="1">
@@ -3701,50 +3636,50 @@
         <v>37</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:33" ht="24" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" ht="178" customHeight="1">
       <c r="B54" s="11"/>
     </row>
     <row r="57" spans="1:33" ht="24" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:33" ht="24" customHeight="1">
       <c r="B58" s="13" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:33" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:33" ht="24" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:33" ht="24" customHeight="1">
@@ -3754,25 +3689,25 @@
     </row>
     <row r="63" spans="1:33" ht="24" customHeight="1">
       <c r="B63" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AA63" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD63" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE63" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF63" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG63" s="6" t="s">
         <v>111</v>
@@ -3780,10 +3715,10 @@
     </row>
     <row r="65" spans="1:33" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:33" ht="24" customHeight="1">
@@ -3791,50 +3726,50 @@
         <v>37</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:33" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" ht="178" customHeight="1">
       <c r="B68" s="11"/>
     </row>
     <row r="71" spans="1:33" ht="24" customHeight="1">
       <c r="A71" s="12" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:33" ht="24" customHeight="1">
       <c r="B72" s="13" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:33" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:33" ht="24" customHeight="1">
       <c r="A75" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:33" ht="24" customHeight="1">
@@ -3844,25 +3779,25 @@
     </row>
     <row r="77" spans="1:33" ht="24" customHeight="1">
       <c r="B77" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AA77" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC77" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD77" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE77" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF77" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG77" s="6" t="s">
         <v>111</v>
@@ -3870,10 +3805,10 @@
     </row>
     <row r="79" spans="1:33" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:33" ht="24" customHeight="1">
@@ -3881,50 +3816,50 @@
         <v>37</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:33" ht="24" customHeight="1">
       <c r="B81" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" ht="178" customHeight="1">
       <c r="B82" s="11"/>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:33" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="88" spans="1:33" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
@@ -3934,25 +3869,25 @@
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
       <c r="B91" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AA91" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD91" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE91" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF91" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG91" s="6" t="s">
         <v>111</v>
@@ -3960,36 +3895,36 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
       <c r="B95" s="11"/>
       <c r="AA95" s="6" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="AB95" s="6" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="AD95" s="6" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="AE95" s="6" t="s">
         <v>111</v>
@@ -3997,10 +3932,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -4008,50 +3943,50 @@
         <v>37</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
       <c r="B99" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" ht="178" customHeight="1">
       <c r="B100" s="11"/>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="A103" s="12" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="24" customHeight="1">
       <c r="B104" s="13" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
       <c r="A106" s="9" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="A107" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:33" ht="24" customHeight="1">
@@ -4061,25 +3996,25 @@
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="B109" s="11" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AA109" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB109" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC109" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD109" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE109" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF109" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG109" s="6" t="s">
         <v>111</v>
@@ -4087,10 +4022,10 @@
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:33" ht="24" customHeight="1">
@@ -4098,50 +4033,50 @@
         <v>37</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="1:33" ht="24" customHeight="1">
       <c r="B113" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="114" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" ht="178" customHeight="1">
       <c r="B114" s="11"/>
     </row>
     <row r="117" spans="1:33" ht="24" customHeight="1">
       <c r="A117" s="12" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:33" ht="24" customHeight="1">
       <c r="B118" s="13" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:33" ht="24" customHeight="1">
       <c r="A120" s="9" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="121" spans="1:33" ht="24" customHeight="1">
       <c r="A121" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:33" ht="24" customHeight="1">
@@ -4151,25 +4086,25 @@
     </row>
     <row r="123" spans="1:33" ht="24" customHeight="1">
       <c r="B123" s="11" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AA123" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB123" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC123" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD123" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE123" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF123" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG123" s="6" t="s">
         <v>111</v>
@@ -4177,10 +4112,10 @@
     </row>
     <row r="125" spans="1:33" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:33" ht="24" customHeight="1">
@@ -4188,50 +4123,50 @@
         <v>37</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127" spans="1:33" ht="24" customHeight="1">
       <c r="B127" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="128" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33" ht="178" customHeight="1">
       <c r="B128" s="11"/>
     </row>
     <row r="131" spans="1:33" ht="24" customHeight="1">
       <c r="A131" s="12" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="132" spans="1:33" ht="24" customHeight="1">
       <c r="B132" s="13" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="134" spans="1:33" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:33" ht="24" customHeight="1">
       <c r="A135" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="136" spans="1:33" ht="24" customHeight="1">
@@ -4241,25 +4176,25 @@
     </row>
     <row r="137" spans="1:33" ht="24" customHeight="1">
       <c r="B137" s="11" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AA137" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB137" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC137" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD137" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE137" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF137" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG137" s="6" t="s">
         <v>111</v>
@@ -4267,10 +4202,10 @@
     </row>
     <row r="139" spans="1:33" ht="24" customHeight="1">
       <c r="A139" s="9" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="140" spans="1:33" ht="24" customHeight="1">
@@ -4278,50 +4213,50 @@
         <v>37</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="141" spans="1:33" ht="24" customHeight="1">
       <c r="B141" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="142" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33" ht="178" customHeight="1">
       <c r="B142" s="11"/>
     </row>
     <row r="145" spans="1:33" ht="24" customHeight="1">
       <c r="A145" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="B146" s="13" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
       <c r="A148" s="9" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="A149" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="150" spans="1:33" ht="24" customHeight="1">
@@ -4331,25 +4266,25 @@
     </row>
     <row r="151" spans="1:33" ht="24" customHeight="1">
       <c r="B151" s="11" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AA151" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB151" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC151" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD151" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE151" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF151" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG151" s="6" t="s">
         <v>111</v>
@@ -4357,10 +4292,10 @@
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="A153" s="9" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="154" spans="1:33" ht="24" customHeight="1">
@@ -4368,50 +4303,50 @@
         <v>37</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="B155" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="156" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33" ht="178" customHeight="1">
       <c r="B156" s="11"/>
     </row>
     <row r="159" spans="1:33" ht="24" customHeight="1">
       <c r="A159" s="12" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="B160" s="13" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="162" spans="1:33" ht="24" customHeight="1">
       <c r="A162" s="9" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="163" spans="1:33" ht="24" customHeight="1">
       <c r="A163" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="164" spans="1:33" ht="24" customHeight="1">
@@ -4421,25 +4356,25 @@
     </row>
     <row r="165" spans="1:33" ht="24" customHeight="1">
       <c r="B165" s="11" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AA165" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB165" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC165" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD165" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE165" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF165" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG165" s="6" t="s">
         <v>111</v>
@@ -4447,21 +4382,21 @@
     </row>
     <row r="167" spans="1:33" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="168" spans="1:33" ht="24" customHeight="1">
       <c r="A168" s="14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="169" spans="1:33" ht="24" customHeight="1">
@@ -4471,10 +4406,10 @@
     </row>
     <row r="171" spans="1:33" ht="24" customHeight="1">
       <c r="A171" s="9" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" spans="1:33" ht="24" customHeight="1">
@@ -4482,52 +4417,52 @@
         <v>37</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="173" spans="1:33" ht="24" customHeight="1">
       <c r="B173" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="174" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="174" spans="1:33" ht="178" customHeight="1">
       <c r="B174" s="11" t="s">
-        <v>431</v>
+        <v>350</v>
       </c>
     </row>
     <row r="177" spans="1:33" ht="24" customHeight="1">
       <c r="A177" s="12" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="178" spans="1:33" ht="24" customHeight="1">
       <c r="B178" s="13" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="1:33" ht="24" customHeight="1">
       <c r="A180" s="9" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="181" spans="1:33" ht="24" customHeight="1">
       <c r="A181" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="182" spans="1:33" ht="24" customHeight="1">
@@ -4537,25 +4472,25 @@
     </row>
     <row r="183" spans="1:33" ht="24" customHeight="1">
       <c r="B183" s="11" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AA183" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB183" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC183" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD183" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE183" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF183" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG183" s="6" t="s">
         <v>111</v>
@@ -4563,21 +4498,21 @@
     </row>
     <row r="185" spans="1:33" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="186" spans="1:33" ht="24" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187" spans="1:33" ht="24" customHeight="1">
@@ -4587,21 +4522,21 @@
     </row>
     <row r="189" spans="1:33" ht="24" customHeight="1">
       <c r="A189" s="9" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="190" spans="1:33" ht="24" customHeight="1">
       <c r="A190" s="14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="191" spans="1:33" ht="24" customHeight="1">
@@ -4611,10 +4546,10 @@
     </row>
     <row r="193" spans="1:33" ht="24" customHeight="1">
       <c r="A193" s="9" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="194" spans="1:33" ht="24" customHeight="1">
@@ -4622,52 +4557,52 @@
         <v>37</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="195" spans="1:33" ht="24" customHeight="1">
       <c r="B195" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="196" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:33" ht="178" customHeight="1">
       <c r="B196" s="11" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
     </row>
     <row r="199" spans="1:33" ht="24" customHeight="1">
       <c r="A199" s="12" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
     </row>
     <row r="200" spans="1:33" ht="24" customHeight="1">
       <c r="B200" s="13" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="202" spans="1:33" ht="24" customHeight="1">
       <c r="A202" s="9" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="203" spans="1:33" ht="24" customHeight="1">
       <c r="A203" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
     </row>
     <row r="204" spans="1:33" ht="24" customHeight="1">
@@ -4677,25 +4612,25 @@
     </row>
     <row r="205" spans="1:33" ht="24" customHeight="1">
       <c r="B205" s="11" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AA205" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB205" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC205" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD205" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE205" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF205" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG205" s="6" t="s">
         <v>111</v>
@@ -4703,10 +4638,10 @@
     </row>
     <row r="207" spans="1:33" ht="24" customHeight="1">
       <c r="A207" s="9" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="208" spans="1:33" ht="24" customHeight="1">
@@ -4714,52 +4649,52 @@
         <v>37</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
     </row>
     <row r="209" spans="1:33" ht="24" customHeight="1">
       <c r="B209" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="210" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="210" spans="1:33" ht="178" customHeight="1">
       <c r="B210" s="11" t="s">
-        <v>435</v>
+        <v>372</v>
       </c>
     </row>
     <row r="213" spans="1:33" ht="24" customHeight="1">
       <c r="A213" s="12" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
     </row>
     <row r="214" spans="1:33" ht="24" customHeight="1">
       <c r="B214" s="13" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
     </row>
     <row r="216" spans="1:33" ht="24" customHeight="1">
       <c r="A216" s="9" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="217" spans="1:33" ht="24" customHeight="1">
       <c r="A217" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="218" spans="1:33" ht="24" customHeight="1">
@@ -4769,25 +4704,25 @@
     </row>
     <row r="219" spans="1:33" ht="24" customHeight="1">
       <c r="B219" s="11" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AA219" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB219" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC219" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD219" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE219" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF219" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG219" s="6" t="s">
         <v>111</v>
@@ -4795,41 +4730,41 @@
     </row>
     <row r="221" spans="1:33" ht="24" customHeight="1">
       <c r="A221" s="9" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="222" spans="1:33" ht="24" customHeight="1">
       <c r="A222" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
     </row>
     <row r="223" spans="1:33" ht="24" customHeight="1">
       <c r="B223" s="11" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="AA223" s="6" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="AB223" s="6" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="AC223" s="6" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="AD223" s="6" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="AE223" s="6" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="AF223" s="6" t="s">
         <v>111</v>
@@ -4837,41 +4772,41 @@
     </row>
     <row r="225" spans="1:32" ht="24" customHeight="1">
       <c r="A225" s="9" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="226" spans="1:32" ht="24" customHeight="1">
       <c r="A226" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="227" spans="1:32" ht="24" customHeight="1">
       <c r="B227" s="11" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="AA227" s="6" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="AB227" s="6" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="AC227" s="6" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="AD227" s="6" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="AE227" s="6" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="AF227" s="6" t="s">
         <v>111</v>
@@ -4879,10 +4814,10 @@
     </row>
     <row r="229" spans="1:32" ht="24" customHeight="1">
       <c r="A229" s="9" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="230" spans="1:32" ht="24" customHeight="1">
@@ -4890,52 +4825,52 @@
         <v>37</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="231" spans="1:32" ht="24" customHeight="1">
       <c r="B231" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="232" spans="1:32" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="232" spans="1:32" ht="178" customHeight="1">
       <c r="B232" s="11" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
     </row>
     <row r="235" spans="1:32" ht="24" customHeight="1">
       <c r="A235" s="12" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
     </row>
     <row r="236" spans="1:32" ht="24" customHeight="1">
       <c r="B236" s="13" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="238" spans="1:32" ht="24" customHeight="1">
       <c r="A238" s="9" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="239" spans="1:32" ht="24" customHeight="1">
       <c r="A239" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
     </row>
     <row r="240" spans="1:32" ht="24" customHeight="1">
@@ -4945,25 +4880,25 @@
     </row>
     <row r="241" spans="1:33" ht="24" customHeight="1">
       <c r="B241" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AA241" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB241" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC241" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD241" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE241" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF241" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG241" s="6" t="s">
         <v>111</v>
@@ -4971,41 +4906,41 @@
     </row>
     <row r="243" spans="1:33" ht="24" customHeight="1">
       <c r="A243" s="9" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="244" spans="1:33" ht="24" customHeight="1">
       <c r="A244" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
     </row>
     <row r="245" spans="1:33" ht="24" customHeight="1">
       <c r="B245" s="11" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="AA245" s="6" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="AB245" s="6" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="AC245" s="6" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="AD245" s="6" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="AE245" s="6" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="AF245" s="6" t="s">
         <v>111</v>
@@ -5013,41 +4948,41 @@
     </row>
     <row r="247" spans="1:33" ht="24" customHeight="1">
       <c r="A247" s="9" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="248" spans="1:33" ht="24" customHeight="1">
       <c r="A248" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
     </row>
     <row r="249" spans="1:33" ht="24" customHeight="1">
       <c r="B249" s="11" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="AA249" s="6" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="AB249" s="6" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="AC249" s="6" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="AD249" s="6" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="AE249" s="6" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="AF249" s="6" t="s">
         <v>111</v>
@@ -5055,10 +4990,10 @@
     </row>
     <row r="251" spans="1:33" ht="24" customHeight="1">
       <c r="A251" s="9" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="252" spans="1:33" ht="24" customHeight="1">
@@ -5066,50 +5001,50 @@
         <v>37</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="253" spans="1:33" ht="24" customHeight="1">
       <c r="B253" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="254" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="254" spans="1:33" ht="178" customHeight="1">
       <c r="B254" s="11"/>
     </row>
     <row r="257" spans="1:33" ht="24" customHeight="1">
       <c r="A257" s="12" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
     </row>
     <row r="258" spans="1:33" ht="24" customHeight="1">
       <c r="B258" s="13" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="260" spans="1:33" ht="24" customHeight="1">
       <c r="A260" s="9" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="261" spans="1:33" ht="24" customHeight="1">
       <c r="A261" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
     </row>
     <row r="262" spans="1:33" ht="24" customHeight="1">
@@ -5119,25 +5054,25 @@
     </row>
     <row r="263" spans="1:33" ht="24" customHeight="1">
       <c r="B263" s="11" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AA263" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB263" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC263" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD263" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE263" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF263" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG263" s="6" t="s">
         <v>111</v>
@@ -5145,10 +5080,10 @@
     </row>
     <row r="265" spans="1:33" ht="24" customHeight="1">
       <c r="A265" s="9" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="266" spans="1:33" ht="24" customHeight="1">
@@ -5156,52 +5091,52 @@
         <v>37</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
     </row>
     <row r="267" spans="1:33" ht="24" customHeight="1">
       <c r="B267" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="268" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="268" spans="1:33" ht="178" customHeight="1">
       <c r="B268" s="11" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
     </row>
     <row r="271" spans="1:33" ht="24" customHeight="1">
       <c r="A271" s="12" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
     </row>
     <row r="272" spans="1:33" ht="24" customHeight="1">
       <c r="B272" s="13" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
     </row>
     <row r="274" spans="1:33" ht="24" customHeight="1">
       <c r="A274" s="9" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="275" spans="1:33" ht="24" customHeight="1">
       <c r="A275" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
     </row>
     <row r="276" spans="1:33" ht="24" customHeight="1">
@@ -5211,25 +5146,25 @@
     </row>
     <row r="277" spans="1:33" ht="24" customHeight="1">
       <c r="B277" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AA277" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB277" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC277" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD277" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE277" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF277" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG277" s="6" t="s">
         <v>111</v>
@@ -5237,21 +5172,21 @@
     </row>
     <row r="279" spans="1:33" ht="24" customHeight="1">
       <c r="A279" s="9" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
     <row r="280" spans="1:33" ht="24" customHeight="1">
       <c r="A280" s="14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
     </row>
     <row r="281" spans="1:33" ht="24" customHeight="1">
@@ -5261,10 +5196,10 @@
     </row>
     <row r="283" spans="1:33" ht="24" customHeight="1">
       <c r="A283" s="9" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="284" spans="1:33" ht="24" customHeight="1">
@@ -5272,50 +5207,50 @@
         <v>37</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
     </row>
     <row r="285" spans="1:33" ht="24" customHeight="1">
       <c r="B285" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="286" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="286" spans="1:33" ht="178" customHeight="1">
       <c r="B286" s="11"/>
     </row>
     <row r="289" spans="1:32" ht="24" customHeight="1">
       <c r="A289" s="12" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
     </row>
     <row r="290" spans="1:32" ht="24" customHeight="1">
       <c r="B290" s="13" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
     </row>
     <row r="292" spans="1:32" ht="24" customHeight="1">
       <c r="A292" s="9" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="293" spans="1:32" ht="24" customHeight="1">
       <c r="A293" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
     </row>
     <row r="294" spans="1:32" ht="24" customHeight="1">
@@ -5325,22 +5260,22 @@
     </row>
     <row r="295" spans="1:32" ht="24" customHeight="1">
       <c r="B295" s="11" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="AA295" s="6" t="s">
-        <v>246</v>
+        <v>431</v>
       </c>
       <c r="AB295" s="6" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="AC295" s="6" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="AD295" s="6" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="AE295" s="6" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="AF295" s="6" t="s">
         <v>111</v>
@@ -5348,10 +5283,10 @@
     </row>
     <row r="297" spans="1:32" ht="24" customHeight="1">
       <c r="A297" s="9" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="298" spans="1:32" ht="24" customHeight="1">
@@ -5359,33 +5294,105 @@
         <v>37</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
     </row>
     <row r="299" spans="1:32" ht="24" customHeight="1">
       <c r="B299" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="300" spans="1:32" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="300" spans="1:32" ht="178" customHeight="1">
       <c r="B300" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B277 B263 B241 B219 B205 B183 B165 B151 B137 B123 B109 B91 B77 B63 B49 B20:B21">
+  <dataValidations count="28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>AA20:AG20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>AA21:AG21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>AA35:AG35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
+      <formula1>AA49:AG49</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+      <formula1>AA63:AG63</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77">
+      <formula1>AA77:AG77</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
+      <formula1>AA91:AG91</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
       <formula1>AA95:AE95</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169 B281 B191 B187">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109">
+      <formula1>AA109:AG109</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B123">
+      <formula1>AA123:AG123</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B137">
+      <formula1>AA137:AG137</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151">
+      <formula1>AA151:AG151</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
+      <formula1>AA165:AG165</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B223 B295 B249 B245 B227">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B183">
+      <formula1>AA183:AG183</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B187">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B191">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B205">
+      <formula1>AA205:AG205</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B219">
+      <formula1>AA219:AG219</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B223">
       <formula1>AA223:AF223</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B227">
+      <formula1>AA227:AF227</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B241">
+      <formula1>AA241:AG241</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B245">
+      <formula1>AA245:AF245</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B249">
+      <formula1>AA249:AF249</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B263">
+      <formula1>AA263:AG263</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B277">
+      <formula1>AA277:AG277</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B281">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B295">
+      <formula1>AA295:AF295</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_toplevel.xlsx
+++ b/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_toplevel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
     <sheet name="2. Radiative Forcings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="442">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -139,1205 +139,1217 @@
     <t>cmip6.toplevel.key_properties.name</t>
   </si>
   <si>
+    <t>1.1.1.2 *</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Keywords associated with coupled model</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.keywords</t>
+  </si>
+  <si>
+    <t>NOTE: Please enter a comma seperated list</t>
+  </si>
+  <si>
+    <t>1.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Top level overview of coupled model</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.overview</t>
+  </si>
+  <si>
+    <t>NOTE: Double click to expand if text is too long for cell</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Flux Correction</t>
+  </si>
+  <si>
+    <t>Flux correction properties of the model</t>
+  </si>
+  <si>
+    <t>1.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Describe if/how flux corrections are applied in the model</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.flux_correction.details</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Genealogy</t>
+  </si>
+  <si>
+    <t>Genealogy and history of the model</t>
+  </si>
+  <si>
+    <t>1.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Year Released</t>
+  </si>
+  <si>
+    <t>Year the model was released</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.genealogy.year_released</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1.2 </t>
+  </si>
+  <si>
+    <t>CMIP3 Parent</t>
+  </si>
+  <si>
+    <t>CMIP3 parent if any</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.genealogy.CMIP3_parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1.3 </t>
+  </si>
+  <si>
+    <t>CMIP5 Parent</t>
+  </si>
+  <si>
+    <t>CMIP5 parent if any</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.genealogy.CMIP5_parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1.4 </t>
+  </si>
+  <si>
+    <t>CMIP5 Differences</t>
+  </si>
+  <si>
+    <t>Briefly summarize the differences between this model and its CMIP5 parent, if applicable</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.genealogy.CMIP5_differences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1.5 </t>
+  </si>
+  <si>
+    <t>Previous Name</t>
+  </si>
+  <si>
+    <t>Previously known as</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.genealogy.previous_name</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Software Properties</t>
+  </si>
+  <si>
+    <t>Software properties of model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.1 </t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>Location of code for this component.</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.software_properties.repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.2 </t>
+  </si>
+  <si>
+    <t>Code Version</t>
+  </si>
+  <si>
+    <t>Code version identifier.</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.software_properties.code_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.3 </t>
+  </si>
+  <si>
+    <t>Code Languages</t>
+  </si>
+  <si>
+    <t>Code language(s).</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.software_properties.code_languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.4 </t>
+  </si>
+  <si>
+    <t>Components Structure</t>
+  </si>
+  <si>
+    <t>Describe how model realms are structured into independent software components (coupled via a coupler) and internal software components.</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.software_properties.components_structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.5 </t>
+  </si>
+  <si>
+    <t>Coupler</t>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>Overarching coupling framework for model.</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.software_properties.coupler</t>
+  </si>
+  <si>
+    <t>OASIS</t>
+  </si>
+  <si>
+    <t>OASIS3-MCT</t>
+  </si>
+  <si>
+    <t>ESMF</t>
+  </si>
+  <si>
+    <t>NUOPC</t>
+  </si>
+  <si>
+    <t>Bespoke</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Coupling</t>
+  </si>
+  <si>
+    <t>1.5.1.1 *</t>
+  </si>
+  <si>
+    <t>Atmosphere Double Flux</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>Is the atmosphere passing a double flux to the ocean and sea ice (as opposed to a single one)?</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.coupling.atmosphere_double_flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.1.2 </t>
+  </si>
+  <si>
+    <t>Atmosphere Fluxes Calculation Grid</t>
+  </si>
+  <si>
+    <t>Where are the air-sea fluxes calculated</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.coupling.atmosphere_fluxes_calculation_grid</t>
+  </si>
+  <si>
+    <t>Atmosphere grid</t>
+  </si>
+  <si>
+    <t>Ocean grid</t>
+  </si>
+  <si>
+    <t>Specific coupler grid</t>
+  </si>
+  <si>
+    <t>1.5.1.3 *</t>
+  </si>
+  <si>
+    <t>Atmosphere Relative Winds</t>
+  </si>
+  <si>
+    <t>Are relative or absolute winds used to compute the flux? I.e. do ocean surface currents enter the wind stress calculation?</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.coupling.atmosphere_relative_winds</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Tuning Applied</t>
+  </si>
+  <si>
+    <t>Tuning methodology for model</t>
+  </si>
+  <si>
+    <t>1.6.1.1 *</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>General overview description of tuning: explain and motivate the main targets and metrics/diagnostics retained. Document the relative weight given to climate performance metrics/diagnostics versus process oriented metrics/diagnostics, and on the possible conflicts with parameterization level tuning. In particular describe any struggle with a parameter value that required pushing it to its limits to solve a particular model deficiency.</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.tuning_applied.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.2 </t>
+  </si>
+  <si>
+    <t>Global Mean Metrics Used</t>
+  </si>
+  <si>
+    <t>List set of metrics/diagnostics of the global mean state used in tuning model</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.tuning_applied.global_mean_metrics_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.3 </t>
+  </si>
+  <si>
+    <t>Regional Metrics Used</t>
+  </si>
+  <si>
+    <t>List of regional metrics/diagnostics of mean state (e.g THC, AABW, regional means etc) used in tuning model/component</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.tuning_applied.regional_metrics_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.4 </t>
+  </si>
+  <si>
+    <t>Trend Metrics Used</t>
+  </si>
+  <si>
+    <t>List observed trend metrics/diagnostics used in tuning model/component (such as 20th century)</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.tuning_applied.trend_metrics_used</t>
+  </si>
+  <si>
+    <t>1.6.1.5 *</t>
+  </si>
+  <si>
+    <t>Energy Balance</t>
+  </si>
+  <si>
+    <t>Describe how energy balance was obtained in the full system: in the various components independently or at the components coupling stage?</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.tuning_applied.energy_balance</t>
+  </si>
+  <si>
+    <t>1.6.1.6 *</t>
+  </si>
+  <si>
+    <t>Fresh Water Balance</t>
+  </si>
+  <si>
+    <t>Describe how fresh_water balance was obtained in the full system: in the various components independently or at the components coupling stage?</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.tuning_applied.fresh_water_balance</t>
+  </si>
+  <si>
+    <t>1.6.2</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation --&gt; Heat</t>
+  </si>
+  <si>
+    <t>Global heat convervation properties of the model</t>
+  </si>
+  <si>
+    <t>1.6.2.1 *</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Describe if/how heat is conserved globally</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.heat.global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.2.2 </t>
+  </si>
+  <si>
+    <t>Atmos Ocean Interface</t>
+  </si>
+  <si>
+    <t>Describe if/how heat is conserved at the atmosphere/ocean coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.heat.atmos_ocean_interface</t>
+  </si>
+  <si>
+    <t>1.6.2.3 *</t>
+  </si>
+  <si>
+    <t>Atmos Land Interface</t>
+  </si>
+  <si>
+    <t>Describe if/how heat is conserved at the atmosphere/land coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.heat.atmos_land_interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.2.4 </t>
+  </si>
+  <si>
+    <t>Atmos Sea-ice Interface</t>
+  </si>
+  <si>
+    <t>Describe if/how heat is conserved at the atmosphere/sea-ice coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.heat.atmos_sea-ice_interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.2.5 </t>
+  </si>
+  <si>
+    <t>Ocean Seaice Interface</t>
+  </si>
+  <si>
+    <t>Describe if/how heat is conserved at the ocean/sea-ice coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.heat.ocean_seaice_interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.2.6 </t>
+  </si>
+  <si>
+    <t>Land Ocean Interface</t>
+  </si>
+  <si>
+    <t>Describe if/how heat is conserved at the land/ocean coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.heat.land_ocean_interface</t>
+  </si>
+  <si>
+    <t>1.6.3</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation --&gt; Fresh Water</t>
+  </si>
+  <si>
+    <t>Global fresh water convervation properties of the model</t>
+  </si>
+  <si>
+    <t>1.6.3.1 *</t>
+  </si>
+  <si>
+    <t>Describe if/how fresh_water is conserved globally</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.3.2 </t>
+  </si>
+  <si>
+    <t>Describe if/how fresh_water is conserved at the atmosphere/ocean coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.atmos_ocean_interface</t>
+  </si>
+  <si>
+    <t>1.6.3.3 *</t>
+  </si>
+  <si>
+    <t>Describe if/how fresh water is conserved at the atmosphere/land coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.atmos_land_interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.3.4 </t>
+  </si>
+  <si>
+    <t>Describe if/how fresh water is conserved at the atmosphere/sea-ice coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.atmos_sea-ice_interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.3.5 </t>
+  </si>
+  <si>
+    <t>Describe if/how fresh water is conserved at the ocean/sea-ice coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.ocean_seaice_interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.3.6 </t>
+  </si>
+  <si>
+    <t>Runoff</t>
+  </si>
+  <si>
+    <t>Describe how runoff is distributed and conserved</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.runoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.3.7 </t>
+  </si>
+  <si>
+    <t>Iceberg Calving</t>
+  </si>
+  <si>
+    <t>Describe if/how iceberg calving is modeled and conserved</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.iceberg_calving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.3.8 </t>
+  </si>
+  <si>
+    <t>Endoreic Basins</t>
+  </si>
+  <si>
+    <t>Describe if/how endoreic basins (no ocean access) are treated</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.endoreic_basins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.3.9 </t>
+  </si>
+  <si>
+    <t>Snow Accumulation</t>
+  </si>
+  <si>
+    <t>Describe how snow accumulation over land and over sea-ice is treated</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.fresh_water.snow_accumulation</t>
+  </si>
+  <si>
+    <t>1.6.4</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation --&gt; Salt</t>
+  </si>
+  <si>
+    <t>Global salt convervation properties of the model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.4.1 </t>
+  </si>
+  <si>
+    <t>Describe if/how salt is conserved at the ocean/sea-ice coupling interface</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.salt.ocean_seaice_interface</t>
+  </si>
+  <si>
+    <t>1.6.5</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation --&gt; Momentum</t>
+  </si>
+  <si>
+    <t>Global momentum convervation properties of the model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.5.1 </t>
+  </si>
+  <si>
+    <t>Describe if/how momentum is conserved in the model</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.conservation.momentum.details</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>Radiative Forcings</t>
+  </si>
+  <si>
+    <t>Radiative forcings of the model for historical and scenario (aka Table 12.1 IPCC AR5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the radiative forcings in toplevel model.</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of radiative forcings of the model for historical and scenario (aka table 12.1 ipcc ar5) in toplevel model.</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.overview</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; CO2</t>
+  </si>
+  <si>
+    <t>Carbon dioxide forcing</t>
+  </si>
+  <si>
+    <t>2.1.2.1 *</t>
+  </si>
+  <si>
+    <t>Provision</t>
+  </si>
+  <si>
+    <t>How this forcing agent is provided (e.g. via concentrations, emission precursors, prognostically derived, etc.)</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CO2.provision</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.2.2 </t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Additional information relating to the provision and implementation of this forcing agent (e.g. citations, use of non-standard datasets, explaining how multiple provisions are used, etc.).</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CO2.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; CH4</t>
+  </si>
+  <si>
+    <t>Methane forcing</t>
+  </si>
+  <si>
+    <t>2.1.3.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CH4.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.3.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CH4.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.4</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; N2O</t>
+  </si>
+  <si>
+    <t>Nitrous oxide forcing</t>
+  </si>
+  <si>
+    <t>2.1.4.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.N2O.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.4.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.N2O.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.5</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; Tropospheric O3</t>
+  </si>
+  <si>
+    <t>Troposheric ozone forcing</t>
+  </si>
+  <si>
+    <t>2.1.5.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.5.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.6</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; Stratospheric O3</t>
+  </si>
+  <si>
+    <t>Stratospheric ozone forcing</t>
+  </si>
+  <si>
+    <t>2.1.6.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.6.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.7</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; CFC</t>
+  </si>
+  <si>
+    <t>Ozone-depleting and non-ozone-depleting fluorinated gases forcing</t>
+  </si>
+  <si>
+    <t>2.1.7.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.provision</t>
+  </si>
+  <si>
+    <t>2.1.7.2 *</t>
+  </si>
+  <si>
+    <t>Equivalence Concentration</t>
+  </si>
+  <si>
+    <t>Details of any equivalence concentrations used</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.equivalence_concentration</t>
+  </si>
+  <si>
+    <t>Option 1</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>Option 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.7.3 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.8</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; SO4</t>
+  </si>
+  <si>
+    <t>SO4 aerosol forcing</t>
+  </si>
+  <si>
+    <t>2.1.8.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.SO4.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.8.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.SO4.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.9</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Black Carbon</t>
+  </si>
+  <si>
+    <t>Black carbon aerosol forcing</t>
+  </si>
+  <si>
+    <t>2.1.9.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.black_carbon.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.9.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.black_carbon.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.10</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Organic Carbon</t>
+  </si>
+  <si>
+    <t>Organic carbon aerosol forcing</t>
+  </si>
+  <si>
+    <t>2.1.10.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.organic_carbon.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.10.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.organic_carbon.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.11</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Nitrate</t>
+  </si>
+  <si>
+    <t>Nitrate forcing</t>
+  </si>
+  <si>
+    <t>2.1.11.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.nitrate.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.11.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.nitrate.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.12</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Cloud Albedo Effect</t>
+  </si>
+  <si>
+    <t>Cloud albedo effect forcing (RFaci)</t>
+  </si>
+  <si>
+    <t>2.1.12.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.provision</t>
+  </si>
+  <si>
+    <t>2.1.12.2 *</t>
+  </si>
+  <si>
+    <t>Aerosol Effect On Ice Clouds</t>
+  </si>
+  <si>
+    <t>Radiative effects of aerosols on ice clouds are represented?</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.aerosol_effect_on_ice_clouds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.12.3 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.13</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Cloud Lifetime Effect</t>
+  </si>
+  <si>
+    <t>Cloud lifetime effect forcing (ERFaci)</t>
+  </si>
+  <si>
+    <t>2.1.13.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.provision</t>
+  </si>
+  <si>
+    <t>2.1.13.2 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.aerosol_effect_on_ice_clouds</t>
+  </si>
+  <si>
+    <t>2.1.13.3 *</t>
+  </si>
+  <si>
+    <t>RFaci From Sulfate Only</t>
+  </si>
+  <si>
+    <t>Radiative forcing from aerosol cloud interactions from sulfate aerosol only?</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.RFaci_from_sulfate_only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.13.4 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.14</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Dust</t>
+  </si>
+  <si>
+    <t>Dust forcing</t>
+  </si>
+  <si>
+    <t>2.1.14.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.dust.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.14.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.dust.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.15</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Tropospheric Volcanic</t>
+  </si>
+  <si>
+    <t>Tropospheric volcanic forcing</t>
+  </si>
+  <si>
+    <t>2.1.15.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.provision</t>
+  </si>
+  <si>
+    <t>2.1.15.2 *</t>
+  </si>
+  <si>
+    <t>Historical Explosive Volcanic Aerosol Implementation</t>
+  </si>
+  <si>
+    <t>How explosive volcanic aerosol is implemented in historical simulations</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
+  </si>
+  <si>
+    <t>Type A</t>
+  </si>
+  <si>
+    <t>Type B</t>
+  </si>
+  <si>
+    <t>Type C</t>
+  </si>
+  <si>
+    <t>Type D</t>
+  </si>
+  <si>
+    <t>Type E</t>
+  </si>
+  <si>
+    <t>2.1.15.3 *</t>
+  </si>
+  <si>
+    <t>Future Explosive Volcanic Aerosol Implementation</t>
+  </si>
+  <si>
+    <t>How explosive volcanic aerosol is implemented in future simulations</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.15.4 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.16</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Stratospheric Volcanic</t>
+  </si>
+  <si>
+    <t>Stratospheric volcanic forcing</t>
+  </si>
+  <si>
+    <t>2.1.16.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.provision</t>
+  </si>
+  <si>
+    <t>2.1.16.2 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
+  </si>
+  <si>
+    <t>2.1.16.3 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.16.4 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.17</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Aerosols --&gt; Sea Salt</t>
+  </si>
+  <si>
+    <t>Sea salt forcing</t>
+  </si>
+  <si>
+    <t>2.1.17.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.sea_salt.provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.17.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.aerosols.sea_salt.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.18</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Other --&gt; Land Use</t>
+  </si>
+  <si>
+    <t>Land use forcing</t>
+  </si>
+  <si>
+    <t>2.1.18.1 *</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.other.land_use.provision</t>
+  </si>
+  <si>
+    <t>2.1.18.2 *</t>
+  </si>
+  <si>
+    <t>Crop Change Only</t>
+  </si>
+  <si>
+    <t>Land use change represented via crop change only?</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.other.land_use.crop_change_only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.18.3 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.other.land_use.additional_information</t>
+  </si>
+  <si>
+    <t>2.1.19</t>
+  </si>
+  <si>
+    <t>Radiative Forcings --&gt; Other --&gt; Solar</t>
+  </si>
+  <si>
+    <t>Solar forcing</t>
+  </si>
+  <si>
+    <t>2.1.19.1 *</t>
+  </si>
+  <si>
+    <t>How solar forcing is provided</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.other.solar.provision</t>
+  </si>
+  <si>
+    <t>Irradiance</t>
+  </si>
+  <si>
+    <t>Proton</t>
+  </si>
+  <si>
+    <t>Electron</t>
+  </si>
+  <si>
+    <t>Cosmic ray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.19.2 </t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.radiative_forcings.other.solar.additional_information</t>
+  </si>
+  <si>
+    <t>HAMMOZ</t>
+  </si>
+  <si>
+    <t>Mauritsen_2019</t>
+  </si>
+  <si>
+    <t>Tegen_2018</t>
+  </si>
+  <si>
     <t>MPI-ESM1.2-HAM</t>
   </si>
   <si>
-    <t>1.1.1.2 *</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Keywords associated with coupled model</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.keywords</t>
-  </si>
-  <si>
-    <t>NOTE: Please enter a comma seperated list</t>
-  </si>
-  <si>
     <t>ECHAM6.3, HAM2.3, MPIOM1.6.3, JSBACH3.20, HAMOCC6</t>
   </si>
   <si>
-    <t>1.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>Top level overview of coupled model</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.overview</t>
-  </si>
-  <si>
-    <t>NOTE: Double click to expand if text is too long for cell</t>
-  </si>
-  <si>
     <t>MPI-ESM1.2-HAM is the latest version of the Max Planck Institute for Meteorology Earth System Model (MPI-ESM1.2) coupled with the Hamburg Aerosol Module (HAM2.3), developed by the HAMMOZ consortium. The HAMMOZ consortium is composed of ETH Zurich, Max Planck Institut for Meteorology, Forschungszentrum Jülich, University of Oxford, the Finnish Meteorological Institute and the Leibniz Institute for Tropospheric Research, and managed by the Center for Climate Systems Modeling (C2SM) at ETH Zurich.</t>
   </si>
   <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Flux Correction</t>
-  </si>
-  <si>
-    <t>Flux correction properties of the model</t>
-  </si>
-  <si>
-    <t>1.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Describe if/how flux corrections are applied in the model</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.flux_correction.details</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Genealogy</t>
-  </si>
-  <si>
-    <t>Genealogy and history of the model</t>
-  </si>
-  <si>
-    <t>1.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Year Released</t>
-  </si>
-  <si>
-    <t>Year the model was released</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.genealogy.year_released</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1.2 </t>
-  </si>
-  <si>
-    <t>CMIP3 Parent</t>
-  </si>
-  <si>
-    <t>CMIP3 parent if any</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.genealogy.CMIP3_parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1.3 </t>
-  </si>
-  <si>
-    <t>CMIP5 Parent</t>
-  </si>
-  <si>
-    <t>CMIP5 parent if any</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.genealogy.CMIP5_parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1.4 </t>
-  </si>
-  <si>
-    <t>CMIP5 Differences</t>
-  </si>
-  <si>
-    <t>Briefly summarize the differences between this model and its CMIP5 parent, if applicable</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.genealogy.CMIP5_differences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1.5 </t>
-  </si>
-  <si>
-    <t>Previous Name</t>
-  </si>
-  <si>
-    <t>Previously known as</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.genealogy.previous_name</t>
-  </si>
-  <si>
-    <t>1.4.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Software Properties</t>
-  </si>
-  <si>
-    <t>Software properties of model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.1 </t>
-  </si>
-  <si>
-    <t>Repository</t>
-  </si>
-  <si>
-    <t>Location of code for this component.</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.software_properties.repository</t>
-  </si>
-  <si>
     <t>https://redmine.hammoz.ethz.ch/projects/aerchemmip</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.1.2 </t>
-  </si>
-  <si>
-    <t>Code Version</t>
-  </si>
-  <si>
-    <t>Code version identifier.</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.software_properties.code_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.3 </t>
-  </si>
-  <si>
-    <t>Code Languages</t>
-  </si>
-  <si>
-    <t>Code language(s).</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.software_properties.code_languages</t>
-  </si>
-  <si>
     <t>Fortran</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.1.4 </t>
-  </si>
-  <si>
-    <t>Components Structure</t>
-  </si>
-  <si>
-    <t>Describe how model realms are structured into independent software components (coupled via a coupler) and internal software components.</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.software_properties.components_structure</t>
-  </si>
-  <si>
     <t>The atmosphere component ECHAM6.3 is directly coupled to the aerosol and cloud microphysics module HAM2.3 and the land surface model JSBACH3.20. The ocean dynamic model MPIOM1.6.3 is directly coupled to the ocean biogeochemistry model HAMOCC6. These two major components are coupled via the coupler OASIS3-MCT.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.1.5 </t>
-  </si>
-  <si>
-    <t>Coupler</t>
-  </si>
-  <si>
-    <t>ENUM</t>
-  </si>
-  <si>
-    <t>Overarching coupling framework for model.</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.software_properties.coupler</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
-    <t>OASIS: The OASIS coupler - prior to OASIS-MCT</t>
-  </si>
-  <si>
-    <t>OASIS3-MCT: The MCT variant of the OASIS coupler</t>
-  </si>
-  <si>
-    <t>ESMF: Vanilla Earth System Modelling Framework</t>
-  </si>
-  <si>
-    <t>NUOPC: National Unified Operational Prediction Capability variant of ESMF</t>
-  </si>
-  <si>
-    <t>Bespoke: Customised coupler developed for this model</t>
-  </si>
-  <si>
-    <t>Unknown: It is not known what/if-a coupler is used</t>
-  </si>
-  <si>
-    <t>None: No coupler is used</t>
-  </si>
-  <si>
-    <t>1.5.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Coupling</t>
-  </si>
-  <si>
-    <t>1.5.1.1 *</t>
-  </si>
-  <si>
-    <t>Atmosphere Double Flux</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>Is the atmosphere passing a double flux to the ocean and sea ice (as opposed to a single one)?</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.coupling.atmosphere_double_flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5.1.2 </t>
-  </si>
-  <si>
-    <t>Atmosphere Fluxes Calculation Grid</t>
-  </si>
-  <si>
-    <t>Where are the air-sea fluxes calculated</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.coupling.atmosphere_fluxes_calculation_grid</t>
-  </si>
-  <si>
-    <t>Atmosphere grid</t>
-  </si>
-  <si>
-    <t>Ocean grid</t>
-  </si>
-  <si>
-    <t>Specific coupler grid</t>
-  </si>
-  <si>
-    <t>1.5.1.3 *</t>
-  </si>
-  <si>
-    <t>Atmosphere Relative Winds</t>
-  </si>
-  <si>
-    <t>Are relative or absolute winds used to compute the flux? I.e. do ocean surface currents enter the wind stress calculation?</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.coupling.atmosphere_relative_winds</t>
-  </si>
-  <si>
-    <t>1.6.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Tuning Applied</t>
-  </si>
-  <si>
-    <t>Tuning methodology for model</t>
-  </si>
-  <si>
-    <t>1.6.1.1 *</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>General overview description of tuning: explain and motivate the main targets and metrics/diagnostics retained. Document the relative weight given to climate performance metrics/diagnostics versus process oriented metrics/diagnostics, and on the possible conflicts with parameterization level tuning. In particular describe any struggle with a parameter value that required pushing it to its limits to solve a particular model deficiency.</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.tuning_applied.description</t>
+    <t>net surface energy flux, surface temperature</t>
+  </si>
+  <si>
+    <t>Arctic sea ice cover, Arctic sea ice volume</t>
+  </si>
+  <si>
+    <t>For ECHAM6.3 and MPI-ESM1.2-LR see Mauritsen et al. (2019). Error 2 described in Mauritsen et al. (2019) is eliminated differently in ECHAM6.3-HAM2.3 and MPI-ESM1.2-HAM. The phase of detrained condensate is passed from the convection scheme to the stratiform scheme but in the stratiform cloud scheme the phase of the detrained condensate is recalculated based on atmospheric conditions (allowing supercooled liquid water) and the latent heat of fusion is released to the atmosphere if necessary.</t>
+  </si>
+  <si>
+    <t>Aerosol-cloud interactions for stratiform liquid, mixed-phase and cirrus clouds are computed online. Detrained cloud droplets from convective clouds depend on the number of activated aerosol particles at the convective cloud base. Aerosol activation is computed using a Köhler-theory based parameterization. For stratiform mixed-phase clouds heterogenous nucleation (immersion and contact freezing) of supercooled cloud droplets is computed. For stratiform cirrus clouds homogeneous nucleation of solution droplets is computed. Size dependent wet scavenging of aerosol particles in-cloud and below cloud is included. The below cloud collection efficiencies as a function of aerosol and rain drop or snow crystal size are read from a look-up table. The in-cloud scavenging scheme takes nucleation scavenging and impaction scavenging of aerosol particles with cloud droplets and ice-crystals into account.</t>
+  </si>
+  <si>
+    <t>see 2.1.12.3</t>
+  </si>
+  <si>
+    <t>See Zhang et al. (2012) for details.</t>
+  </si>
+  <si>
+    <t>Sea salt emissions are computed online based on 10-m wind speed. For details see Tegen et al. (2018).</t>
+  </si>
+  <si>
+    <t>Dust emissions are computed online based on 10-m wind speed. For details see Tegen et al. (2018).</t>
+  </si>
+  <si>
+    <t>NEUBAUER-DAVID</t>
+  </si>
+  <si>
+    <t>FERRACHAT-SYLVAINE</t>
+  </si>
+  <si>
+    <t>Principal Investigator</t>
+  </si>
+  <si>
+    <t>Contributor</t>
   </si>
   <si>
     <t>See Mauritsen et al. (2019) for tuning of MPI-ESM1.2-LR. In order to use the ocean spin-up of MPI-ESM1.2-LR for MPI-ESM1.2-HAM, the energy input into the ocean (global mean net surface energy flux) was tuned to be similar. Also the pre-industrial global mean surface temperature in MPI-ESM1.2-LR was tuned to be similar to the one in MPI-ESM1.2-LR. Both together should minimize drift. In order to obtain acceptable Arctic sea ice cover and volume several adjustments were made including a higher minimum cloud droplet number concentration over land than over ocean and a different sea salt parameterization than the default one used in ECHAM6.3-HAM2.3. The minimum cloud droplet number concentration over ocean was adjusted to best meet the observed warming during the historical time period.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.1.2 </t>
-  </si>
-  <si>
-    <t>Global Mean Metrics Used</t>
-  </si>
-  <si>
-    <t>List set of metrics/diagnostics of the global mean state used in tuning model</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.tuning_applied.global_mean_metrics_used</t>
-  </si>
-  <si>
-    <t>net surface energy flux, surface temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.3 </t>
-  </si>
-  <si>
-    <t>Regional Metrics Used</t>
-  </si>
-  <si>
-    <t>List of regional metrics/diagnostics of mean state (e.g THC, AABW, regional means etc) used in tuning model/component</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.tuning_applied.regional_metrics_used</t>
-  </si>
-  <si>
-    <t>Arctic sea ice cover, Arctic sea ice volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.4 </t>
-  </si>
-  <si>
-    <t>Trend Metrics Used</t>
-  </si>
-  <si>
-    <t>List observed trend metrics/diagnostics used in tuning model/component (such as 20th century)</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.tuning_applied.trend_metrics_used</t>
-  </si>
-  <si>
     <t>surface temperature evolution since 1850</t>
-  </si>
-  <si>
-    <t>1.6.1.5 *</t>
-  </si>
-  <si>
-    <t>Energy Balance</t>
-  </si>
-  <si>
-    <t>Describe how energy balance was obtained in the full system: in the various components independently or at the components coupling stage?</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.tuning_applied.energy_balance</t>
-  </si>
-  <si>
-    <t>1.6.1.6 *</t>
-  </si>
-  <si>
-    <t>Fresh Water Balance</t>
-  </si>
-  <si>
-    <t>Describe how fresh_water balance was obtained in the full system: in the various components independently or at the components coupling stage?</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.tuning_applied.fresh_water_balance</t>
-  </si>
-  <si>
-    <t>1.6.2</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation --&gt; Heat</t>
-  </si>
-  <si>
-    <t>Global heat convervation properties of the model</t>
-  </si>
-  <si>
-    <t>1.6.2.1 *</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>Describe if/how heat is conserved globally</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.heat.global</t>
-  </si>
-  <si>
-    <t>For ECHAM6.3 and MPI-ESM1.2-LR see Mauritsen et al. (2019). Error 2 described in Mauritsen et al. (2019) is eliminated differently in ECHAM6.3-HAM2.3 and MPI-ESM1.2-HAM. The phase of detrained condensate is passed from the convection scheme to the stratiform scheme but in the stratiform cloud scheme the phase of the detrained condensate is recalculated based on atmospheric conditions (allowing supercooled liquid water) and the latent heat of fusion is released to the atmosphere if necessary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.2.2 </t>
-  </si>
-  <si>
-    <t>Atmos Ocean Interface</t>
-  </si>
-  <si>
-    <t>Describe if/how heat is conserved at the atmosphere/ocean coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.heat.atmos_ocean_interface</t>
-  </si>
-  <si>
-    <t>1.6.2.3 *</t>
-  </si>
-  <si>
-    <t>Atmos Land Interface</t>
-  </si>
-  <si>
-    <t>Describe if/how heat is conserved at the atmosphere/land coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.heat.atmos_land_interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.2.4 </t>
-  </si>
-  <si>
-    <t>Atmos Sea-ice Interface</t>
-  </si>
-  <si>
-    <t>Describe if/how heat is conserved at the atmosphere/sea-ice coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.heat.atmos_sea-ice_interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.2.5 </t>
-  </si>
-  <si>
-    <t>Ocean Seaice Interface</t>
-  </si>
-  <si>
-    <t>Describe if/how heat is conserved at the ocean/sea-ice coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.heat.ocean_seaice_interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.2.6 </t>
-  </si>
-  <si>
-    <t>Land Ocean Interface</t>
-  </si>
-  <si>
-    <t>Describe if/how heat is conserved at the land/ocean coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.heat.land_ocean_interface</t>
-  </si>
-  <si>
-    <t>1.6.3</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation --&gt; Fresh Water</t>
-  </si>
-  <si>
-    <t>Global fresh water convervation properties of the model</t>
-  </si>
-  <si>
-    <t>1.6.3.1 *</t>
-  </si>
-  <si>
-    <t>Describe if/how fresh_water is conserved globally</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.3.2 </t>
-  </si>
-  <si>
-    <t>Describe if/how fresh_water is conserved at the atmosphere/ocean coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.atmos_ocean_interface</t>
-  </si>
-  <si>
-    <t>1.6.3.3 *</t>
-  </si>
-  <si>
-    <t>Describe if/how fresh water is conserved at the atmosphere/land coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.atmos_land_interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.3.4 </t>
-  </si>
-  <si>
-    <t>Describe if/how fresh water is conserved at the atmosphere/sea-ice coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.atmos_sea-ice_interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.3.5 </t>
-  </si>
-  <si>
-    <t>Describe if/how fresh water is conserved at the ocean/sea-ice coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.ocean_seaice_interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.3.6 </t>
-  </si>
-  <si>
-    <t>Runoff</t>
-  </si>
-  <si>
-    <t>Describe how runoff is distributed and conserved</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.runoff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.3.7 </t>
-  </si>
-  <si>
-    <t>Iceberg Calving</t>
-  </si>
-  <si>
-    <t>Describe if/how iceberg calving is modeled and conserved</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.iceberg_calving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.3.8 </t>
-  </si>
-  <si>
-    <t>Endoreic Basins</t>
-  </si>
-  <si>
-    <t>Describe if/how endoreic basins (no ocean access) are treated</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.endoreic_basins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.3.9 </t>
-  </si>
-  <si>
-    <t>Snow Accumulation</t>
-  </si>
-  <si>
-    <t>Describe how snow accumulation over land and over sea-ice is treated</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.fresh_water.snow_accumulation</t>
-  </si>
-  <si>
-    <t>1.6.4</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation --&gt; Salt</t>
-  </si>
-  <si>
-    <t>Global salt convervation properties of the model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.4.1 </t>
-  </si>
-  <si>
-    <t>Describe if/how salt is conserved at the ocean/sea-ice coupling interface</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.salt.ocean_seaice_interface</t>
-  </si>
-  <si>
-    <t>1.6.5</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation --&gt; Momentum</t>
-  </si>
-  <si>
-    <t>Global momentum convervation properties of the model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.5.1 </t>
-  </si>
-  <si>
-    <t>Describe if/how momentum is conserved in the model</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.key_properties.conservation.momentum.details</t>
-  </si>
-  <si>
-    <t>2.1.1</t>
-  </si>
-  <si>
-    <t>Radiative Forcings</t>
-  </si>
-  <si>
-    <t>Radiative forcings of the model for historical and scenario (aka Table 12.1 IPCC AR5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the radiative forcings in toplevel model.</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of radiative forcings of the model for historical and scenario (aka table 12.1 ipcc ar5) in toplevel model.</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.overview</t>
-  </si>
-  <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; CO2</t>
-  </si>
-  <si>
-    <t>Carbon dioxide forcing</t>
-  </si>
-  <si>
-    <t>2.1.2.1 *</t>
-  </si>
-  <si>
-    <t>Provision</t>
-  </si>
-  <si>
-    <t>How this forcing agent is provided (e.g. via concentrations, emission precursors, prognostically derived, etc.)</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CO2.provision</t>
-  </si>
-  <si>
-    <t>Y: Prescribed concentrations, distributions or time series data</t>
-  </si>
-  <si>
-    <t>N/A: Not applicable - forcing agent is not included</t>
-  </si>
-  <si>
-    <t>M: Emissions and concentrations determined by the model state rather than externally prescribed</t>
-  </si>
-  <si>
-    <t>E: Concentrations calculated interactively driven by prescribed emissions or precursor emissions</t>
-  </si>
-  <si>
-    <t>ES: Surface emissions (and 3-D concentrations away from the surface) derived via the model from the prescribed surface concentration</t>
-  </si>
-  <si>
-    <t>C: Fixed prescribed climatology of concentrations with no year-to-year variability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.2.2 </t>
-  </si>
-  <si>
-    <t>Additional Information</t>
-  </si>
-  <si>
-    <t>Additional information relating to the provision and implementation of this forcing agent (e.g. citations, use of non-standard datasets, explaining how multiple provisions are used, etc.).</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CO2.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.3</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; CH4</t>
-  </si>
-  <si>
-    <t>Methane forcing</t>
-  </si>
-  <si>
-    <t>2.1.3.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CH4.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.3.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CH4.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.4</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; N2O</t>
-  </si>
-  <si>
-    <t>Nitrous oxide forcing</t>
-  </si>
-  <si>
-    <t>2.1.4.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.N2O.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.4.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.N2O.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.5</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; Tropospheric O3</t>
-  </si>
-  <si>
-    <t>Troposheric ozone forcing</t>
-  </si>
-  <si>
-    <t>2.1.5.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.5.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.6</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; Stratospheric O3</t>
-  </si>
-  <si>
-    <t>Stratospheric ozone forcing</t>
-  </si>
-  <si>
-    <t>2.1.6.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.6.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.7</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; CFC</t>
-  </si>
-  <si>
-    <t>Ozone-depleting and non-ozone-depleting fluorinated gases forcing</t>
-  </si>
-  <si>
-    <t>2.1.7.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.provision</t>
-  </si>
-  <si>
-    <t>2.1.7.2 *</t>
-  </si>
-  <si>
-    <t>Equivalence Concentration</t>
-  </si>
-  <si>
-    <t>Details of any equivalence concentrations used</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.equivalence_concentration</t>
-  </si>
-  <si>
-    <t>N/A: Not applicabale (CFCs not included or emissions and concentrations determined by the model state)</t>
-  </si>
-  <si>
-    <t>Option 1: CFCs, including CFC-12, are provided as actual concentrations</t>
-  </si>
-  <si>
-    <t>Option 2: CFC-12 is provided as actual concentrations and any other gases are provided as an equivalence concentration of CFC-11</t>
-  </si>
-  <si>
-    <t>Option 3: Ozone depleting gases, including CFC-12, are provided as an equivalence concentration of CFC-12 and all other fluorinated gases are provided as an equivalence concentration of HFC-134a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.7.3 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.8</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; SO4</t>
-  </si>
-  <si>
-    <t>SO4 aerosol forcing</t>
-  </si>
-  <si>
-    <t>2.1.8.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.SO4.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.8.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.SO4.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.9</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Black Carbon</t>
-  </si>
-  <si>
-    <t>Black carbon aerosol forcing</t>
-  </si>
-  <si>
-    <t>2.1.9.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.black_carbon.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.9.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.black_carbon.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.10</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Organic Carbon</t>
-  </si>
-  <si>
-    <t>Organic carbon aerosol forcing</t>
-  </si>
-  <si>
-    <t>2.1.10.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.organic_carbon.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.10.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.organic_carbon.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.11</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Nitrate</t>
-  </si>
-  <si>
-    <t>Nitrate forcing</t>
-  </si>
-  <si>
-    <t>2.1.11.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.nitrate.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.11.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.nitrate.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.12</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Cloud Albedo Effect</t>
-  </si>
-  <si>
-    <t>Cloud albedo effect forcing (RFaci)</t>
-  </si>
-  <si>
-    <t>2.1.12.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.provision</t>
-  </si>
-  <si>
-    <t>2.1.12.2 *</t>
-  </si>
-  <si>
-    <t>Aerosol Effect On Ice Clouds</t>
-  </si>
-  <si>
-    <t>Radiative effects of aerosols on ice clouds are represented?</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.aerosol_effect_on_ice_clouds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.12.3 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.additional_information</t>
-  </si>
-  <si>
-    <t>Aerosol-cloud interactions for stratiform liquid, mixed-phase and cirrus clouds are computed online. Detrained cloud droplets from convective clouds depend on the number of activated aerosol particles at the convective cloud base. Aerosol activation is computed using a Köhler-theory based parameterization. For stratiform mixed-phase clouds heterogenous nucleation (immersion and contact freezing) of supercooled cloud droplets is computed. For stratiform cirrus clouds homogeneous nucleation of solution droplets is computed. Size dependent wet scavenging of aerosol particles in-cloud and below cloud is included. The below cloud collection efficiencies as a function of aerosol and rain drop or snow crystal size are read from a look-up table. The in-cloud scavenging scheme takes nucleation scavenging and impaction scavenging of aerosol particles with cloud droplets and ice-crystals into account.</t>
-  </si>
-  <si>
-    <t>2.1.13</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Cloud Lifetime Effect</t>
-  </si>
-  <si>
-    <t>Cloud lifetime effect forcing (ERFaci)</t>
-  </si>
-  <si>
-    <t>2.1.13.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.provision</t>
-  </si>
-  <si>
-    <t>2.1.13.2 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.aerosol_effect_on_ice_clouds</t>
-  </si>
-  <si>
-    <t>2.1.13.3 *</t>
-  </si>
-  <si>
-    <t>RFaci From Sulfate Only</t>
-  </si>
-  <si>
-    <t>Radiative forcing from aerosol cloud interactions from sulfate aerosol only?</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.RFaci_from_sulfate_only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.13.4 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.additional_information</t>
-  </si>
-  <si>
-    <t>see 2.1.12.3</t>
-  </si>
-  <si>
-    <t>2.1.14</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Dust</t>
-  </si>
-  <si>
-    <t>Dust forcing</t>
-  </si>
-  <si>
-    <t>2.1.14.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.dust.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.14.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.dust.additional_information</t>
-  </si>
-  <si>
-    <t>Dust emissions are computed online based on 10-m wind speed. For details see Tegen et al. (2018).</t>
-  </si>
-  <si>
-    <t>2.1.15</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Tropospheric Volcanic</t>
-  </si>
-  <si>
-    <t>Tropospheric volcanic forcing</t>
-  </si>
-  <si>
-    <t>2.1.15.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.provision</t>
-  </si>
-  <si>
-    <t>2.1.15.2 *</t>
-  </si>
-  <si>
-    <t>Historical Explosive Volcanic Aerosol Implementation</t>
-  </si>
-  <si>
-    <t>How explosive volcanic aerosol is implemented in historical simulations</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
-  </si>
-  <si>
-    <t>Type E: Explosive volcanic aerosol set to constant (average volcano) background</t>
-  </si>
-  <si>
-    <t>Type A: Explosive volcanic aerosol returns rapidly to zero (or near-zero) background.</t>
-  </si>
-  <si>
-    <t>Type B: Explosive volcanic aerosol returns rapidly to constant (average volcano)</t>
-  </si>
-  <si>
-    <t>Type C: Explosive volcanic aerosol returns slowly (over several decades) to constant (average volcano) background.</t>
-  </si>
-  <si>
-    <t>Type D: Explosive volcanic aerosol set to zero</t>
-  </si>
-  <si>
-    <t>2.1.15.3 *</t>
-  </si>
-  <si>
-    <t>Future Explosive Volcanic Aerosol Implementation</t>
-  </si>
-  <si>
-    <t>How explosive volcanic aerosol is implemented in future simulations</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.15.4 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.additional_information</t>
-  </si>
-  <si>
-    <t>See Zhang et al. (2012) for details.</t>
-  </si>
-  <si>
-    <t>2.1.16</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Stratospheric Volcanic</t>
-  </si>
-  <si>
-    <t>Stratospheric volcanic forcing</t>
-  </si>
-  <si>
-    <t>2.1.16.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.provision</t>
-  </si>
-  <si>
-    <t>2.1.16.2 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
-  </si>
-  <si>
-    <t>2.1.16.3 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.16.4 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.17</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Aerosols --&gt; Sea Salt</t>
-  </si>
-  <si>
-    <t>Sea salt forcing</t>
-  </si>
-  <si>
-    <t>2.1.17.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.sea_salt.provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.17.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.aerosols.sea_salt.additional_information</t>
-  </si>
-  <si>
-    <t>Sea salt emissions are computed online based on 10-m wind speed. For details see Tegen et al. (2018).</t>
-  </si>
-  <si>
-    <t>2.1.18</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Other --&gt; Land Use</t>
-  </si>
-  <si>
-    <t>Land use forcing</t>
-  </si>
-  <si>
-    <t>2.1.18.1 *</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.other.land_use.provision</t>
-  </si>
-  <si>
-    <t>2.1.18.2 *</t>
-  </si>
-  <si>
-    <t>Crop Change Only</t>
-  </si>
-  <si>
-    <t>Land use change represented via crop change only?</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.other.land_use.crop_change_only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.18.3 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.other.land_use.additional_information</t>
-  </si>
-  <si>
-    <t>2.1.19</t>
-  </si>
-  <si>
-    <t>Radiative Forcings --&gt; Other --&gt; Solar</t>
-  </si>
-  <si>
-    <t>Solar forcing</t>
-  </si>
-  <si>
-    <t>2.1.19.1 *</t>
-  </si>
-  <si>
-    <t>How solar forcing is provided</t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.other.solar.provision</t>
-  </si>
-  <si>
-    <t>Irradiance</t>
-  </si>
-  <si>
-    <t>N/A: Not applicable - solar forcing is not included</t>
-  </si>
-  <si>
-    <t>irradiance: Solar irradiance forcing</t>
-  </si>
-  <si>
-    <t>proton: Proton pathway to solar forcing</t>
-  </si>
-  <si>
-    <t>electron: Electron pathway to solar forcing</t>
-  </si>
-  <si>
-    <t>cosmic ray: Cosmic ray pathway to solar forcing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.19.2 </t>
-  </si>
-  <si>
-    <t>cmip6.toplevel.radiative_forcings.other.solar.additional_information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1438,6 +1450,14 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1480,10 +1500,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1527,12 +1548,21 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1611,6 +1641,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1645,6 +1676,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1820,10 +1852,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1832,12 +1864,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +1877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1853,7 +1885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1861,7 +1893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1869,7 +1901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1877,12 +1909,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="18">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1890,7 +1922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1898,7 +1930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="18">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1906,7 +1938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="18">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1914,13 +1946,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="20.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="20.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1936,8 +1968,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1948,7 +1980,7 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -1959,7 +1991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1975,7 +2007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
@@ -1983,60 +2015,88 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="11" t="s">
+        <v>418</v>
+      </c>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18">
+      <c r="A11" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18">
+      <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" ht="18">
+      <c r="A20" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B20" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B11">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:B20">
       <formula1>"Top Level,Key Properties,Radiative Forcings"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD224"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH224"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2080,15 +2140,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>40</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2096,28 +2156,28 @@
         <v>37</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>46</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2125,41 +2185,41 @@
         <v>37</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>52</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -2167,41 +2227,41 @@
         <v>37</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="177.95" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>60</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -2209,10 +2269,10 @@
         <v>37</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -2222,10 +2282,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -2233,23 +2293,23 @@
         <v>37</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>60</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -2257,23 +2317,23 @@
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>60</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -2281,28 +2341,28 @@
         <v>37</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="B45" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="177.95" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>60</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
@@ -2310,10 +2370,10 @@
         <v>37</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -2321,23 +2381,23 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="B54" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -2345,23 +2405,23 @@
         <v>37</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="B58" s="11" t="s">
-        <v>91</v>
+      <c r="B58" s="15" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -2369,23 +2429,23 @@
         <v>37</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="B62" s="11" t="s">
-        <v>40</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:34" ht="24" customHeight="1">
@@ -2393,28 +2453,28 @@
         <v>37</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:34" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="24" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>100</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69" spans="1:34" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:34" ht="24" customHeight="1">
@@ -2422,60 +2482,63 @@
         <v>37</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:34" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>105</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:34" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:34" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
         <v>111</v>
       </c>
+      <c r="D75" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="AA75" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AF75" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AG75" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AH75" s="6" t="s">
         <v>111</v>
@@ -2483,10 +2546,10 @@
     </row>
     <row r="78" spans="1:34" ht="24" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:34" ht="24" customHeight="1">
@@ -2494,21 +2557,21 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
@@ -2516,33 +2579,33 @@
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AD87" s="6" t="s">
         <v>111</v>
@@ -2550,21 +2613,21 @@
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
@@ -2572,23 +2635,23 @@
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="B95" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -2596,28 +2659,28 @@
         <v>37</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="B99" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="177.95" customHeight="1">
       <c r="B100" s="11" t="s">
-        <v>144</v>
+        <v>440</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -2625,28 +2688,28 @@
         <v>37</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="B104" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11" t="s">
-        <v>149</v>
+        <v>428</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
@@ -2654,28 +2717,28 @@
         <v>37</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="B110" s="11" t="s">
-        <v>154</v>
+        <v>429</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
@@ -2683,28 +2746,28 @@
         <v>37</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="B114" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
       <c r="B115" s="11" t="s">
-        <v>159</v>
+        <v>441</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -2712,10 +2775,10 @@
         <v>37</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
@@ -2723,10 +2786,10 @@
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
@@ -2734,10 +2797,10 @@
         <v>37</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
@@ -2745,23 +2808,23 @@
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="A126" s="12" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="B127" s="13" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
       <c r="A129" s="9" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
@@ -2769,28 +2832,28 @@
         <v>37</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="177.95" customHeight="1">
       <c r="B132" s="11" t="s">
-        <v>175</v>
+        <v>430</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -2798,26 +2861,26 @@
         <v>37</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
       <c r="B136" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="177.95" customHeight="1">
       <c r="B137" s="11"/>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="A139" s="9" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
@@ -2825,26 +2888,26 @@
         <v>37</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="B141" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="177.95" customHeight="1">
       <c r="B142" s="11"/>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="A144" s="9" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
@@ -2852,26 +2915,26 @@
         <v>37</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="B146" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="177.95" customHeight="1">
       <c r="B147" s="11"/>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="A149" s="9" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
@@ -2879,26 +2942,26 @@
         <v>37</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
       <c r="B151" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="177.95" customHeight="1">
       <c r="B152" s="11"/>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
@@ -2906,39 +2969,39 @@
         <v>37</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="B156" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="177.95" customHeight="1">
       <c r="B157" s="11"/>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
@@ -2946,26 +3009,26 @@
         <v>37</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="B165" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="177.95" customHeight="1">
       <c r="B166" s="11"/>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
       <c r="A168" s="9" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
@@ -2973,26 +3036,26 @@
         <v>37</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="B170" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="177.95" customHeight="1">
       <c r="B171" s="11"/>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="9" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -3000,26 +3063,26 @@
         <v>37</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="24" customHeight="1">
       <c r="B175" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="177.95" customHeight="1">
       <c r="B176" s="11"/>
     </row>
     <row r="178" spans="1:3" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="24" customHeight="1">
@@ -3027,26 +3090,26 @@
         <v>37</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="24" customHeight="1">
       <c r="B180" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="177.95" customHeight="1">
       <c r="B181" s="11"/>
     </row>
     <row r="183" spans="1:3" ht="24" customHeight="1">
       <c r="A183" s="9" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="24" customHeight="1">
@@ -3054,26 +3117,26 @@
         <v>37</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="24" customHeight="1">
       <c r="B185" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="177.95" customHeight="1">
       <c r="B186" s="11"/>
     </row>
     <row r="188" spans="1:3" ht="24" customHeight="1">
       <c r="A188" s="9" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="24" customHeight="1">
@@ -3081,26 +3144,26 @@
         <v>37</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="24" customHeight="1">
       <c r="B190" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="177.95" customHeight="1">
       <c r="B191" s="11"/>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
       <c r="A193" s="9" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="24" customHeight="1">
@@ -3108,26 +3171,26 @@
         <v>37</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="24" customHeight="1">
       <c r="B195" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="177.95" customHeight="1">
       <c r="B196" s="11"/>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
       <c r="A198" s="9" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="24" customHeight="1">
@@ -3135,26 +3198,26 @@
         <v>37</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="24" customHeight="1">
       <c r="B200" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="177.95" customHeight="1">
       <c r="B201" s="11"/>
     </row>
     <row r="203" spans="1:3" ht="24" customHeight="1">
       <c r="A203" s="9" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="24" customHeight="1">
@@ -3162,39 +3225,39 @@
         <v>37</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="24" customHeight="1">
       <c r="B205" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="177.95" customHeight="1">
       <c r="B206" s="11"/>
     </row>
     <row r="209" spans="1:3" ht="24" customHeight="1">
       <c r="A209" s="12" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="24" customHeight="1">
       <c r="B210" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="24" customHeight="1">
       <c r="A212" s="9" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="24" customHeight="1">
@@ -3202,39 +3265,39 @@
         <v>37</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="24" customHeight="1">
       <c r="B214" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="177.95" customHeight="1">
       <c r="B215" s="11"/>
     </row>
     <row r="218" spans="1:3" ht="24" customHeight="1">
       <c r="A218" s="12" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="24" customHeight="1">
       <c r="B219" s="13" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="24" customHeight="1">
       <c r="A221" s="9" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="24" customHeight="1">
@@ -3242,18 +3305,18 @@
         <v>37</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="24" customHeight="1">
       <c r="B223" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="177.95" customHeight="1">
       <c r="B224" s="11"/>
     </row>
   </sheetData>
@@ -3279,10 +3342,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD300"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG300"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3294,20 +3359,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>36</v>
@@ -3318,10 +3383,10 @@
         <v>37</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3329,10 +3394,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3340,50 +3405,50 @@
         <v>37</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
@@ -3393,25 +3458,25 @@
     </row>
     <row r="20" spans="1:33" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG20" s="6" t="s">
         <v>111</v>
@@ -3419,25 +3484,25 @@
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG21" s="6" t="s">
         <v>111</v>
@@ -3445,10 +3510,10 @@
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="24" customHeight="1">
@@ -3456,50 +3521,50 @@
         <v>37</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="B25" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="177.95" customHeight="1">
       <c r="B26" s="11"/>
     </row>
     <row r="29" spans="1:33" ht="24" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:33" ht="24" customHeight="1">
@@ -3509,25 +3574,25 @@
     </row>
     <row r="35" spans="1:33" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG35" s="6" t="s">
         <v>111</v>
@@ -3535,10 +3600,10 @@
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:33" ht="24" customHeight="1">
@@ -3546,50 +3611,50 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:33" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" ht="177.95" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="43" spans="1:33" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:33" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:33" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:33" ht="24" customHeight="1">
@@ -3599,25 +3664,25 @@
     </row>
     <row r="49" spans="1:33" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE49" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF49" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG49" s="6" t="s">
         <v>111</v>
@@ -3625,10 +3690,10 @@
     </row>
     <row r="51" spans="1:33" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:33" ht="24" customHeight="1">
@@ -3636,50 +3701,50 @@
         <v>37</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:33" ht="24" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" ht="177.95" customHeight="1">
       <c r="B54" s="11"/>
     </row>
     <row r="57" spans="1:33" ht="24" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:33" ht="24" customHeight="1">
       <c r="B58" s="13" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:33" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:33" ht="24" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:33" ht="24" customHeight="1">
@@ -3689,25 +3754,25 @@
     </row>
     <row r="63" spans="1:33" ht="24" customHeight="1">
       <c r="B63" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AA63" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD63" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE63" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF63" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG63" s="6" t="s">
         <v>111</v>
@@ -3715,10 +3780,10 @@
     </row>
     <row r="65" spans="1:33" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:33" ht="24" customHeight="1">
@@ -3726,50 +3791,50 @@
         <v>37</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:33" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" ht="177.95" customHeight="1">
       <c r="B68" s="11"/>
     </row>
     <row r="71" spans="1:33" ht="24" customHeight="1">
       <c r="A71" s="12" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:33" ht="24" customHeight="1">
       <c r="B72" s="13" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:33" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:33" ht="24" customHeight="1">
       <c r="A75" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:33" ht="24" customHeight="1">
@@ -3779,25 +3844,25 @@
     </row>
     <row r="77" spans="1:33" ht="24" customHeight="1">
       <c r="B77" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AA77" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC77" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD77" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE77" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF77" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG77" s="6" t="s">
         <v>111</v>
@@ -3805,10 +3870,10 @@
     </row>
     <row r="79" spans="1:33" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:33" ht="24" customHeight="1">
@@ -3816,50 +3881,50 @@
         <v>37</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:33" ht="24" customHeight="1">
       <c r="B81" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="82" spans="1:33" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" ht="177.95" customHeight="1">
       <c r="B82" s="11"/>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:33" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="88" spans="1:33" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
@@ -3869,25 +3934,25 @@
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
       <c r="B91" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AA91" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD91" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE91" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF91" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG91" s="6" t="s">
         <v>111</v>
@@ -3895,36 +3960,36 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
       <c r="B95" s="11"/>
       <c r="AA95" s="6" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="AB95" s="6" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="AD95" s="6" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="AE95" s="6" t="s">
         <v>111</v>
@@ -3932,10 +3997,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -3943,50 +4008,50 @@
         <v>37</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
       <c r="B99" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="100" spans="1:33" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" ht="177.95" customHeight="1">
       <c r="B100" s="11"/>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="A103" s="12" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="24" customHeight="1">
       <c r="B104" s="13" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
       <c r="A106" s="9" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="A107" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:33" ht="24" customHeight="1">
@@ -3996,25 +4061,25 @@
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="B109" s="11" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AA109" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB109" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC109" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD109" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE109" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF109" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG109" s="6" t="s">
         <v>111</v>
@@ -4022,10 +4087,10 @@
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" spans="1:33" ht="24" customHeight="1">
@@ -4033,50 +4098,50 @@
         <v>37</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" spans="1:33" ht="24" customHeight="1">
       <c r="B113" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="114" spans="1:33" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" ht="177.95" customHeight="1">
       <c r="B114" s="11"/>
     </row>
     <row r="117" spans="1:33" ht="24" customHeight="1">
       <c r="A117" s="12" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="118" spans="1:33" ht="24" customHeight="1">
       <c r="B118" s="13" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120" spans="1:33" ht="24" customHeight="1">
       <c r="A120" s="9" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:33" ht="24" customHeight="1">
       <c r="A121" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="1:33" ht="24" customHeight="1">
@@ -4086,25 +4151,25 @@
     </row>
     <row r="123" spans="1:33" ht="24" customHeight="1">
       <c r="B123" s="11" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AA123" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB123" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC123" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD123" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE123" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF123" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG123" s="6" t="s">
         <v>111</v>
@@ -4112,10 +4177,10 @@
     </row>
     <row r="125" spans="1:33" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:33" ht="24" customHeight="1">
@@ -4123,50 +4188,50 @@
         <v>37</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="127" spans="1:33" ht="24" customHeight="1">
       <c r="B127" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="128" spans="1:33" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33" ht="177.95" customHeight="1">
       <c r="B128" s="11"/>
     </row>
     <row r="131" spans="1:33" ht="24" customHeight="1">
       <c r="A131" s="12" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:33" ht="24" customHeight="1">
       <c r="B132" s="13" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="134" spans="1:33" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="135" spans="1:33" ht="24" customHeight="1">
       <c r="A135" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="136" spans="1:33" ht="24" customHeight="1">
@@ -4176,25 +4241,25 @@
     </row>
     <row r="137" spans="1:33" ht="24" customHeight="1">
       <c r="B137" s="11" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AA137" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB137" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC137" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD137" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE137" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF137" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG137" s="6" t="s">
         <v>111</v>
@@ -4202,10 +4267,10 @@
     </row>
     <row r="139" spans="1:33" ht="24" customHeight="1">
       <c r="A139" s="9" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140" spans="1:33" ht="24" customHeight="1">
@@ -4213,50 +4278,50 @@
         <v>37</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" spans="1:33" ht="24" customHeight="1">
       <c r="B141" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="142" spans="1:33" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33" ht="177.95" customHeight="1">
       <c r="B142" s="11"/>
     </row>
     <row r="145" spans="1:33" ht="24" customHeight="1">
       <c r="A145" s="12" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="B146" s="13" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
       <c r="A148" s="9" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="A149" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="150" spans="1:33" ht="24" customHeight="1">
@@ -4266,25 +4331,25 @@
     </row>
     <row r="151" spans="1:33" ht="24" customHeight="1">
       <c r="B151" s="11" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AA151" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB151" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC151" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD151" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE151" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF151" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG151" s="6" t="s">
         <v>111</v>
@@ -4292,10 +4357,10 @@
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="A153" s="9" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="154" spans="1:33" ht="24" customHeight="1">
@@ -4303,50 +4368,50 @@
         <v>37</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="B155" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="156" spans="1:33" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33" ht="177.95" customHeight="1">
       <c r="B156" s="11"/>
     </row>
     <row r="159" spans="1:33" ht="24" customHeight="1">
       <c r="A159" s="12" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="B160" s="13" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:33" ht="24" customHeight="1">
       <c r="A162" s="9" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="163" spans="1:33" ht="24" customHeight="1">
       <c r="A163" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="164" spans="1:33" ht="24" customHeight="1">
@@ -4356,25 +4421,25 @@
     </row>
     <row r="165" spans="1:33" ht="24" customHeight="1">
       <c r="B165" s="11" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AA165" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB165" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC165" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD165" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE165" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF165" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG165" s="6" t="s">
         <v>111</v>
@@ -4382,21 +4447,21 @@
     </row>
     <row r="167" spans="1:33" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="168" spans="1:33" ht="24" customHeight="1">
       <c r="A168" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="169" spans="1:33" ht="24" customHeight="1">
@@ -4406,10 +4471,10 @@
     </row>
     <row r="171" spans="1:33" ht="24" customHeight="1">
       <c r="A171" s="9" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="172" spans="1:33" ht="24" customHeight="1">
@@ -4417,52 +4482,52 @@
         <v>37</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="173" spans="1:33" ht="24" customHeight="1">
       <c r="B173" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="174" spans="1:33" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="174" spans="1:33" ht="177.95" customHeight="1">
       <c r="B174" s="11" t="s">
-        <v>350</v>
+        <v>431</v>
       </c>
     </row>
     <row r="177" spans="1:33" ht="24" customHeight="1">
       <c r="A177" s="12" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="178" spans="1:33" ht="24" customHeight="1">
       <c r="B178" s="13" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="180" spans="1:33" ht="24" customHeight="1">
       <c r="A180" s="9" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="181" spans="1:33" ht="24" customHeight="1">
       <c r="A181" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="182" spans="1:33" ht="24" customHeight="1">
@@ -4472,25 +4537,25 @@
     </row>
     <row r="183" spans="1:33" ht="24" customHeight="1">
       <c r="B183" s="11" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AA183" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB183" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC183" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD183" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE183" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF183" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG183" s="6" t="s">
         <v>111</v>
@@ -4498,21 +4563,21 @@
     </row>
     <row r="185" spans="1:33" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="186" spans="1:33" ht="24" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="187" spans="1:33" ht="24" customHeight="1">
@@ -4522,21 +4587,21 @@
     </row>
     <row r="189" spans="1:33" ht="24" customHeight="1">
       <c r="A189" s="9" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="190" spans="1:33" ht="24" customHeight="1">
       <c r="A190" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="191" spans="1:33" ht="24" customHeight="1">
@@ -4546,10 +4611,10 @@
     </row>
     <row r="193" spans="1:33" ht="24" customHeight="1">
       <c r="A193" s="9" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="194" spans="1:33" ht="24" customHeight="1">
@@ -4557,52 +4622,52 @@
         <v>37</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="195" spans="1:33" ht="24" customHeight="1">
       <c r="B195" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="196" spans="1:33" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="196" spans="1:33" ht="177.95" customHeight="1">
       <c r="B196" s="11" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
     </row>
     <row r="199" spans="1:33" ht="24" customHeight="1">
       <c r="A199" s="12" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="200" spans="1:33" ht="24" customHeight="1">
       <c r="B200" s="13" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="202" spans="1:33" ht="24" customHeight="1">
       <c r="A202" s="9" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="203" spans="1:33" ht="24" customHeight="1">
       <c r="A203" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="204" spans="1:33" ht="24" customHeight="1">
@@ -4612,25 +4677,25 @@
     </row>
     <row r="205" spans="1:33" ht="24" customHeight="1">
       <c r="B205" s="11" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AA205" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB205" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC205" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD205" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE205" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF205" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG205" s="6" t="s">
         <v>111</v>
@@ -4638,10 +4703,10 @@
     </row>
     <row r="207" spans="1:33" ht="24" customHeight="1">
       <c r="A207" s="9" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="208" spans="1:33" ht="24" customHeight="1">
@@ -4649,52 +4714,52 @@
         <v>37</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="209" spans="1:33" ht="24" customHeight="1">
       <c r="B209" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="210" spans="1:33" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="210" spans="1:33" ht="177.95" customHeight="1">
       <c r="B210" s="11" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
     </row>
     <row r="213" spans="1:33" ht="24" customHeight="1">
       <c r="A213" s="12" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="214" spans="1:33" ht="24" customHeight="1">
       <c r="B214" s="13" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="216" spans="1:33" ht="24" customHeight="1">
       <c r="A216" s="9" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="217" spans="1:33" ht="24" customHeight="1">
       <c r="A217" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="218" spans="1:33" ht="24" customHeight="1">
@@ -4704,25 +4769,25 @@
     </row>
     <row r="219" spans="1:33" ht="24" customHeight="1">
       <c r="B219" s="11" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AA219" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB219" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC219" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD219" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE219" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF219" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG219" s="6" t="s">
         <v>111</v>
@@ -4730,41 +4795,41 @@
     </row>
     <row r="221" spans="1:33" ht="24" customHeight="1">
       <c r="A221" s="9" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="222" spans="1:33" ht="24" customHeight="1">
       <c r="A222" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="223" spans="1:33" ht="24" customHeight="1">
       <c r="B223" s="11" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="AA223" s="6" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="AB223" s="6" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="AC223" s="6" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="AD223" s="6" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="AE223" s="6" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="AF223" s="6" t="s">
         <v>111</v>
@@ -4772,41 +4837,41 @@
     </row>
     <row r="225" spans="1:32" ht="24" customHeight="1">
       <c r="A225" s="9" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="226" spans="1:32" ht="24" customHeight="1">
       <c r="A226" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="227" spans="1:32" ht="24" customHeight="1">
       <c r="B227" s="11" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="AA227" s="6" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="AB227" s="6" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="AC227" s="6" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="AD227" s="6" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="AE227" s="6" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="AF227" s="6" t="s">
         <v>111</v>
@@ -4814,10 +4879,10 @@
     </row>
     <row r="229" spans="1:32" ht="24" customHeight="1">
       <c r="A229" s="9" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="230" spans="1:32" ht="24" customHeight="1">
@@ -4825,52 +4890,52 @@
         <v>37</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="231" spans="1:32" ht="24" customHeight="1">
       <c r="B231" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="232" spans="1:32" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="232" spans="1:32" ht="177.95" customHeight="1">
       <c r="B232" s="11" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
     </row>
     <row r="235" spans="1:32" ht="24" customHeight="1">
       <c r="A235" s="12" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="236" spans="1:32" ht="24" customHeight="1">
       <c r="B236" s="13" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="238" spans="1:32" ht="24" customHeight="1">
       <c r="A238" s="9" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="239" spans="1:32" ht="24" customHeight="1">
       <c r="A239" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="240" spans="1:32" ht="24" customHeight="1">
@@ -4880,25 +4945,25 @@
     </row>
     <row r="241" spans="1:33" ht="24" customHeight="1">
       <c r="B241" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AA241" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB241" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC241" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD241" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE241" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF241" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG241" s="6" t="s">
         <v>111</v>
@@ -4906,41 +4971,41 @@
     </row>
     <row r="243" spans="1:33" ht="24" customHeight="1">
       <c r="A243" s="9" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="244" spans="1:33" ht="24" customHeight="1">
       <c r="A244" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="245" spans="1:33" ht="24" customHeight="1">
       <c r="B245" s="11" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="AA245" s="6" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="AB245" s="6" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="AC245" s="6" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="AD245" s="6" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="AE245" s="6" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="AF245" s="6" t="s">
         <v>111</v>
@@ -4948,41 +5013,41 @@
     </row>
     <row r="247" spans="1:33" ht="24" customHeight="1">
       <c r="A247" s="9" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="248" spans="1:33" ht="24" customHeight="1">
       <c r="A248" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="249" spans="1:33" ht="24" customHeight="1">
       <c r="B249" s="11" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="AA249" s="6" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="AB249" s="6" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="AC249" s="6" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="AD249" s="6" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="AE249" s="6" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="AF249" s="6" t="s">
         <v>111</v>
@@ -4990,10 +5055,10 @@
     </row>
     <row r="251" spans="1:33" ht="24" customHeight="1">
       <c r="A251" s="9" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="252" spans="1:33" ht="24" customHeight="1">
@@ -5001,50 +5066,50 @@
         <v>37</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="253" spans="1:33" ht="24" customHeight="1">
       <c r="B253" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="254" spans="1:33" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="254" spans="1:33" ht="177.95" customHeight="1">
       <c r="B254" s="11"/>
     </row>
     <row r="257" spans="1:33" ht="24" customHeight="1">
       <c r="A257" s="12" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
     </row>
     <row r="258" spans="1:33" ht="24" customHeight="1">
       <c r="B258" s="13" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
     </row>
     <row r="260" spans="1:33" ht="24" customHeight="1">
       <c r="A260" s="9" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="261" spans="1:33" ht="24" customHeight="1">
       <c r="A261" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="262" spans="1:33" ht="24" customHeight="1">
@@ -5054,25 +5119,25 @@
     </row>
     <row r="263" spans="1:33" ht="24" customHeight="1">
       <c r="B263" s="11" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AA263" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB263" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC263" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD263" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE263" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF263" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG263" s="6" t="s">
         <v>111</v>
@@ -5080,10 +5145,10 @@
     </row>
     <row r="265" spans="1:33" ht="24" customHeight="1">
       <c r="A265" s="9" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="266" spans="1:33" ht="24" customHeight="1">
@@ -5091,52 +5156,52 @@
         <v>37</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
     </row>
     <row r="267" spans="1:33" ht="24" customHeight="1">
       <c r="B267" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="268" spans="1:33" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="268" spans="1:33" ht="177.95" customHeight="1">
       <c r="B268" s="11" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
     </row>
     <row r="271" spans="1:33" ht="24" customHeight="1">
       <c r="A271" s="12" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
     </row>
     <row r="272" spans="1:33" ht="24" customHeight="1">
       <c r="B272" s="13" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
     </row>
     <row r="274" spans="1:33" ht="24" customHeight="1">
       <c r="A274" s="9" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="275" spans="1:33" ht="24" customHeight="1">
       <c r="A275" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
     </row>
     <row r="276" spans="1:33" ht="24" customHeight="1">
@@ -5146,25 +5211,25 @@
     </row>
     <row r="277" spans="1:33" ht="24" customHeight="1">
       <c r="B277" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AA277" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AB277" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AC277" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AD277" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE277" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF277" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG277" s="6" t="s">
         <v>111</v>
@@ -5172,21 +5237,21 @@
     </row>
     <row r="279" spans="1:33" ht="24" customHeight="1">
       <c r="A279" s="9" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
     </row>
     <row r="280" spans="1:33" ht="24" customHeight="1">
       <c r="A280" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
     </row>
     <row r="281" spans="1:33" ht="24" customHeight="1">
@@ -5196,10 +5261,10 @@
     </row>
     <row r="283" spans="1:33" ht="24" customHeight="1">
       <c r="A283" s="9" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="284" spans="1:33" ht="24" customHeight="1">
@@ -5207,50 +5272,50 @@
         <v>37</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
     </row>
     <row r="285" spans="1:33" ht="24" customHeight="1">
       <c r="B285" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="286" spans="1:33" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="286" spans="1:33" ht="177.95" customHeight="1">
       <c r="B286" s="11"/>
     </row>
     <row r="289" spans="1:32" ht="24" customHeight="1">
       <c r="A289" s="12" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
     <row r="290" spans="1:32" ht="24" customHeight="1">
       <c r="B290" s="13" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="292" spans="1:32" ht="24" customHeight="1">
       <c r="A292" s="9" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="293" spans="1:32" ht="24" customHeight="1">
       <c r="A293" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
     </row>
     <row r="294" spans="1:32" ht="24" customHeight="1">
@@ -5260,22 +5325,22 @@
     </row>
     <row r="295" spans="1:32" ht="24" customHeight="1">
       <c r="B295" s="11" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="AA295" s="6" t="s">
-        <v>431</v>
+        <v>246</v>
       </c>
       <c r="AB295" s="6" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="AC295" s="6" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="AD295" s="6" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="AE295" s="6" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="AF295" s="6" t="s">
         <v>111</v>
@@ -5283,10 +5348,10 @@
     </row>
     <row r="297" spans="1:32" ht="24" customHeight="1">
       <c r="A297" s="9" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="298" spans="1:32" ht="24" customHeight="1">
@@ -5294,105 +5359,33 @@
         <v>37</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="299" spans="1:32" ht="24" customHeight="1">
       <c r="B299" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="300" spans="1:32" ht="178" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="300" spans="1:32" ht="177.95" customHeight="1">
       <c r="B300" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="28">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B277 B263 B241 B219 B205 B183 B165 B151 B137 B123 B109 B91 B77 B63 B49 B20:B21">
       <formula1>AA20:AG20</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>AA21:AG21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>AA35:AG35</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
-      <formula1>AA49:AG49</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AG63</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77">
-      <formula1>AA77:AG77</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
-      <formula1>AA91:AG91</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
       <formula1>AA95:AE95</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109">
-      <formula1>AA109:AG109</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B123">
-      <formula1>AA123:AG123</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B137">
-      <formula1>AA137:AG137</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151">
-      <formula1>AA151:AG151</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
-      <formula1>AA165:AG165</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169 B281 B191 B187">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B183">
-      <formula1>AA183:AG183</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B187">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B191">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B205">
-      <formula1>AA205:AG205</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B219">
-      <formula1>AA219:AG219</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B223">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B223 B295 B249 B245 B227">
       <formula1>AA223:AF223</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B227">
-      <formula1>AA227:AF227</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B241">
-      <formula1>AA241:AG241</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B245">
-      <formula1>AA245:AF245</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B249">
-      <formula1>AA249:AF249</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B263">
-      <formula1>AA263:AG263</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B277">
-      <formula1>AA277:AG277</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B281">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B295">
-      <formula1>AA295:AF295</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_toplevel.xlsx
+++ b/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_toplevel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
     <sheet name="2. Radiative Forcings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="438">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -139,6 +139,9 @@
     <t>cmip6.toplevel.key_properties.name</t>
   </si>
   <si>
+    <t>MPI-ESM1.2-HAM</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
+    <t>ECHAM6.3, HAM2.3, MPIOM1.6.3, JSBACH3.20, HAMOCC6</t>
+  </si>
+  <si>
     <t>1.1.1.3 *</t>
   </si>
   <si>
@@ -169,6 +175,9 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>MPI-ESM1.2-HAM is the latest version of the Max Planck Institute for Meteorology Earth System Model (MPI-ESM1.2) coupled with the Hamburg Aerosol Module (HAM2.3), developed by the HAMMOZ consortium. The HAMMOZ consortium is composed of ETH Zurich, Max Planck Institut for Meteorology, Forschungszentrum Jülich, University of Oxford, the Finnish Meteorological Institute and the Leibniz Institute for Tropospheric Research, and managed by the Center for Climate Systems Modeling (C2SM) at ETH Zurich.</t>
+  </si>
+  <si>
     <t>1.2.1</t>
   </si>
   <si>
@@ -280,6 +289,9 @@
     <t>cmip6.toplevel.key_properties.software_properties.repository</t>
   </si>
   <si>
+    <t>https://redmine.hammoz.ethz.ch/projects/aerchemmip</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
@@ -304,6 +316,9 @@
     <t>cmip6.toplevel.key_properties.software_properties.code_languages</t>
   </si>
   <si>
+    <t>Fortran</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.4 </t>
   </si>
   <si>
@@ -316,6 +331,9 @@
     <t>cmip6.toplevel.key_properties.software_properties.components_structure</t>
   </si>
   <si>
+    <t>The atmosphere component ECHAM6.3 is directly coupled to the aerosol and cloud microphysics module HAM2.3 and the land surface model JSBACH3.20. The ocean dynamic model MPIOM1.6.3 is directly coupled to the ocean biogeochemistry model HAMOCC6. These two major components are coupled via the coupler OASIS3-MCT.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.5 </t>
   </si>
   <si>
@@ -331,25 +349,28 @@
     <t>cmip6.toplevel.key_properties.software_properties.coupler</t>
   </si>
   <si>
-    <t>OASIS</t>
-  </si>
-  <si>
-    <t>OASIS3-MCT</t>
-  </si>
-  <si>
-    <t>ESMF</t>
-  </si>
-  <si>
-    <t>NUOPC</t>
-  </si>
-  <si>
-    <t>Bespoke</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>Other: OASIS3-MCT</t>
+  </si>
+  <si>
+    <t>OASIS: The OASIS coupler - prior to OASIS-MCT</t>
+  </si>
+  <si>
+    <t>OASIS3-MCT: The MCT variant of the OASIS coupler</t>
+  </si>
+  <si>
+    <t>ESMF: Vanilla Earth System Modelling Framework</t>
+  </si>
+  <si>
+    <t>NUOPC: National Unified Operational Prediction Capability variant of ESMF</t>
+  </si>
+  <si>
+    <t>Bespoke: Customised coupler developed for this model</t>
+  </si>
+  <si>
+    <t>Unknown: It is not known what/if-a coupler is used</t>
+  </si>
+  <si>
+    <t>None: No coupler is used</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -430,6 +451,9 @@
     <t>cmip6.toplevel.key_properties.tuning_applied.description</t>
   </si>
   <si>
+    <t>See Mauritsen et al. (2019) for tuning of MPI-ESM1.2-LR. In order to use the ocean spin-up of MPI-ESM1.2-LR for MPI-ESM1.2-HAM, the energy input into the ocean (global mean net surface energy flux) was tuned to be similar. Also the pre-industrial global mean surface temperature in MPI-ESM1.2-LR was tuned to be similar to the one in MPI-ESM1.2-LR. Both together should minimize drift. In order to obtain acceptable Arctic sea ice cover and volume several adjustments were made including a higher minimum cloud droplet number concentration over land than over ocean and a different sea salt parameterization than the default one used in ECHAM6.3-HAM2.3. The minimum cloud droplet number concentration over ocean was adjusted to best meet the observed warming during the historical time period.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.6.1.2 </t>
   </si>
   <si>
@@ -442,6 +466,9 @@
     <t>cmip6.toplevel.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
+    <t>net surface energy flux, surface temperature</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.6.1.3 </t>
   </si>
   <si>
@@ -454,6 +481,9 @@
     <t>cmip6.toplevel.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
+    <t>Arctic sea ice cover, Arctic sea ice volume</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.6.1.4 </t>
   </si>
   <si>
@@ -466,6 +496,9 @@
     <t>cmip6.toplevel.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
+    <t>surface temperature evolution since 1850</t>
+  </si>
+  <si>
     <t>1.6.1.5 *</t>
   </si>
   <si>
@@ -511,6 +544,9 @@
     <t>cmip6.toplevel.key_properties.conservation.heat.global</t>
   </si>
   <si>
+    <t>For ECHAM6.3 and MPI-ESM1.2-LR see Mauritsen et al. (2019). Error 2 described in Mauritsen et al. (2019) is eliminated differently in ECHAM6.3-HAM2.3 and MPI-ESM1.2-HAM. The phase of detrained condensate is passed from the convection scheme to the stratiform scheme but in the stratiform cloud scheme the phase of the detrained condensate is recalculated based on atmospheric conditions (allowing supercooled liquid water) and the latent heat of fusion is released to the atmosphere if necessary.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.6.2.2 </t>
   </si>
   <si>
@@ -757,22 +793,22 @@
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CO2.provision</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Y: Prescribed concentrations, distributions or time series data</t>
+  </si>
+  <si>
+    <t>N/A: Not applicable - forcing agent is not included</t>
+  </si>
+  <si>
+    <t>M: Emissions and concentrations determined by the model state rather than externally prescribed</t>
+  </si>
+  <si>
+    <t>E: Concentrations calculated interactively driven by prescribed emissions or precursor emissions</t>
+  </si>
+  <si>
+    <t>ES: Surface emissions (and 3-D concentrations away from the surface) derived via the model from the prescribed surface concentration</t>
+  </si>
+  <si>
+    <t>C: Fixed prescribed climatology of concentrations with no year-to-year variability</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.2.2 </t>
@@ -898,13 +934,16 @@
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.equivalence_concentration</t>
   </si>
   <si>
-    <t>Option 1</t>
-  </si>
-  <si>
-    <t>Option 2</t>
-  </si>
-  <si>
-    <t>Option 3</t>
+    <t>N/A: Not applicabale (CFCs not included or emissions and concentrations determined by the model state)</t>
+  </si>
+  <si>
+    <t>Option 1: CFCs, including CFC-12, are provided as actual concentrations</t>
+  </si>
+  <si>
+    <t>Option 2: CFC-12 is provided as actual concentrations and any other gases are provided as an equivalence concentration of CFC-11</t>
+  </si>
+  <si>
+    <t>Option 3: Ozone depleting gases, including CFC-12, are provided as an equivalence concentration of CFC-12 and all other fluorinated gases are provided as an equivalence concentration of HFC-134a</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.7.3 </t>
@@ -1030,6 +1069,9 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.additional_information</t>
   </si>
   <si>
+    <t>Aerosol-cloud interactions for stratiform liquid, mixed-phase and cirrus clouds are computed online. Detrained cloud droplets from convective clouds depend on the number of activated aerosol particles at the convective cloud base. Aerosol activation is computed using a Köhler-theory based parameterization. For stratiform mixed-phase clouds heterogenous nucleation (immersion and contact freezing) of supercooled cloud droplets is computed. For stratiform cirrus clouds homogeneous nucleation of solution droplets is computed. Size dependent wet scavenging of aerosol particles in-cloud and below cloud is included. The below cloud collection efficiencies as a function of aerosol and rain drop or snow crystal size are read from a look-up table. The in-cloud scavenging scheme takes nucleation scavenging and impaction scavenging of aerosol particles with cloud droplets and ice-crystals into account.</t>
+  </si>
+  <si>
     <t>2.1.13</t>
   </si>
   <si>
@@ -1069,6 +1111,9 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.additional_information</t>
   </si>
   <si>
+    <t>see 2.1.12.3</t>
+  </si>
+  <si>
     <t>2.1.14</t>
   </si>
   <si>
@@ -1090,6 +1135,9 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.dust.additional_information</t>
   </si>
   <si>
+    <t>Dust emissions are computed online based on 10-m wind speed. For details see Tegen et al. (2018).</t>
+  </si>
+  <si>
     <t>2.1.15</t>
   </si>
   <si>
@@ -1117,19 +1165,19 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
   </si>
   <si>
-    <t>Type A</t>
-  </si>
-  <si>
-    <t>Type B</t>
-  </si>
-  <si>
-    <t>Type C</t>
-  </si>
-  <si>
-    <t>Type D</t>
-  </si>
-  <si>
-    <t>Type E</t>
+    <t>Type E: Explosive volcanic aerosol set to constant (average volcano) background</t>
+  </si>
+  <si>
+    <t>Type A: Explosive volcanic aerosol returns rapidly to zero (or near-zero) background.</t>
+  </si>
+  <si>
+    <t>Type B: Explosive volcanic aerosol returns rapidly to constant (average volcano)</t>
+  </si>
+  <si>
+    <t>Type C: Explosive volcanic aerosol returns slowly (over several decades) to constant (average volcano) background.</t>
+  </si>
+  <si>
+    <t>Type D: Explosive volcanic aerosol set to zero</t>
   </si>
   <si>
     <t>2.1.15.3 *</t>
@@ -1150,6 +1198,9 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.additional_information</t>
   </si>
   <si>
+    <t>See Zhang et al. (2012) for details.</t>
+  </si>
+  <si>
     <t>2.1.16</t>
   </si>
   <si>
@@ -1204,6 +1255,9 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.sea_salt.additional_information</t>
   </si>
   <si>
+    <t>Sea salt emissions are computed online based on 10-m wind speed. For details see Tegen et al. (2018).</t>
+  </si>
+  <si>
     <t>2.1.18</t>
   </si>
   <si>
@@ -1258,98 +1312,32 @@
     <t>Irradiance</t>
   </si>
   <si>
-    <t>Proton</t>
-  </si>
-  <si>
-    <t>Electron</t>
-  </si>
-  <si>
-    <t>Cosmic ray</t>
+    <t>N/A: Not applicable - solar forcing is not included</t>
+  </si>
+  <si>
+    <t>irradiance: Solar irradiance forcing</t>
+  </si>
+  <si>
+    <t>proton: Proton pathway to solar forcing</t>
+  </si>
+  <si>
+    <t>electron: Electron pathway to solar forcing</t>
+  </si>
+  <si>
+    <t>cosmic ray: Cosmic ray pathway to solar forcing</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.19.2 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.other.solar.additional_information</t>
-  </si>
-  <si>
-    <t>HAMMOZ</t>
-  </si>
-  <si>
-    <t>Mauritsen_2019</t>
-  </si>
-  <si>
-    <t>Tegen_2018</t>
-  </si>
-  <si>
-    <t>MPI-ESM1.2-HAM</t>
-  </si>
-  <si>
-    <t>ECHAM6.3, HAM2.3, MPIOM1.6.3, JSBACH3.20, HAMOCC6</t>
-  </si>
-  <si>
-    <t>MPI-ESM1.2-HAM is the latest version of the Max Planck Institute for Meteorology Earth System Model (MPI-ESM1.2) coupled with the Hamburg Aerosol Module (HAM2.3), developed by the HAMMOZ consortium. The HAMMOZ consortium is composed of ETH Zurich, Max Planck Institut for Meteorology, Forschungszentrum Jülich, University of Oxford, the Finnish Meteorological Institute and the Leibniz Institute for Tropospheric Research, and managed by the Center for Climate Systems Modeling (C2SM) at ETH Zurich.</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>https://redmine.hammoz.ethz.ch/projects/aerchemmip</t>
-  </si>
-  <si>
-    <t>Fortran</t>
-  </si>
-  <si>
-    <t>The atmosphere component ECHAM6.3 is directly coupled to the aerosol and cloud microphysics module HAM2.3 and the land surface model JSBACH3.20. The ocean dynamic model MPIOM1.6.3 is directly coupled to the ocean biogeochemistry model HAMOCC6. These two major components are coupled via the coupler OASIS3-MCT.</t>
-  </si>
-  <si>
-    <t>net surface energy flux, surface temperature</t>
-  </si>
-  <si>
-    <t>Arctic sea ice cover, Arctic sea ice volume</t>
-  </si>
-  <si>
-    <t>For ECHAM6.3 and MPI-ESM1.2-LR see Mauritsen et al. (2019). Error 2 described in Mauritsen et al. (2019) is eliminated differently in ECHAM6.3-HAM2.3 and MPI-ESM1.2-HAM. The phase of detrained condensate is passed from the convection scheme to the stratiform scheme but in the stratiform cloud scheme the phase of the detrained condensate is recalculated based on atmospheric conditions (allowing supercooled liquid water) and the latent heat of fusion is released to the atmosphere if necessary.</t>
-  </si>
-  <si>
-    <t>Aerosol-cloud interactions for stratiform liquid, mixed-phase and cirrus clouds are computed online. Detrained cloud droplets from convective clouds depend on the number of activated aerosol particles at the convective cloud base. Aerosol activation is computed using a Köhler-theory based parameterization. For stratiform mixed-phase clouds heterogenous nucleation (immersion and contact freezing) of supercooled cloud droplets is computed. For stratiform cirrus clouds homogeneous nucleation of solution droplets is computed. Size dependent wet scavenging of aerosol particles in-cloud and below cloud is included. The below cloud collection efficiencies as a function of aerosol and rain drop or snow crystal size are read from a look-up table. The in-cloud scavenging scheme takes nucleation scavenging and impaction scavenging of aerosol particles with cloud droplets and ice-crystals into account.</t>
-  </si>
-  <si>
-    <t>see 2.1.12.3</t>
-  </si>
-  <si>
-    <t>See Zhang et al. (2012) for details.</t>
-  </si>
-  <si>
-    <t>Sea salt emissions are computed online based on 10-m wind speed. For details see Tegen et al. (2018).</t>
-  </si>
-  <si>
-    <t>Dust emissions are computed online based on 10-m wind speed. For details see Tegen et al. (2018).</t>
-  </si>
-  <si>
-    <t>NEUBAUER-DAVID</t>
-  </si>
-  <si>
-    <t>FERRACHAT-SYLVAINE</t>
-  </si>
-  <si>
-    <t>Principal Investigator</t>
-  </si>
-  <si>
-    <t>Contributor</t>
-  </si>
-  <si>
-    <t>See Mauritsen et al. (2019) for tuning of MPI-ESM1.2-LR. In order to use the ocean spin-up of MPI-ESM1.2-LR for MPI-ESM1.2-HAM, the energy input into the ocean (global mean net surface energy flux) was tuned to be similar. Also the pre-industrial global mean surface temperature in MPI-ESM1.2-LR was tuned to be similar to the one in MPI-ESM1.2-LR. Both together should minimize drift. In order to obtain acceptable Arctic sea ice cover and volume several adjustments were made including a higher minimum cloud droplet number concentration over land than over ocean and a different sea salt parameterization than the default one used in ECHAM6.3-HAM2.3. The minimum cloud droplet number concentration over ocean was adjusted to best meet the observed warming during the historical time period.</t>
-  </si>
-  <si>
-    <t>surface temperature evolution since 1850</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1450,14 +1438,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1500,11 +1480,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1548,21 +1527,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1641,7 +1611,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1676,7 +1645,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1852,10 +1820,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1864,12 +1832,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33.75">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1877,7 +1845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1885,7 +1853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1893,7 +1861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1901,7 +1869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1909,12 +1877,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.25">
+    <row r="9" spans="1:2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18">
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1922,7 +1890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1930,7 +1898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18">
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1938,7 +1906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1946,13 +1914,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" ht="20.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1968,8 +1936,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1980,7 +1948,7 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -1991,7 +1959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -2007,7 +1975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75">
+    <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
@@ -2015,88 +1983,60 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18">
-      <c r="A9" s="11" t="s">
-        <v>418</v>
-      </c>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:2" ht="18">
-      <c r="A10" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18">
-      <c r="A11" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18">
-      <c r="A14" s="9" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75">
-      <c r="A18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18">
-      <c r="A19" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2" ht="18">
-      <c r="A20" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B20" s="11"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:B20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>"Top Level,Key Properties,Radiative Forcings"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A15" r:id="rId2"/>
+    <hyperlink ref="A13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH224"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2140,15 +2080,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>421</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2156,28 +2096,28 @@
         <v>37</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>422</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2185,41 +2125,41 @@
         <v>37</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>423</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -2227,41 +2167,39 @@
         <v>37</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="177.95" customHeight="1">
-      <c r="B25" s="11" t="s">
-        <v>424</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="178" customHeight="1">
+      <c r="B25" s="11"/>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -2269,10 +2207,10 @@
         <v>37</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -2282,10 +2220,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -2293,23 +2231,21 @@
         <v>37</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="B37" s="11" t="s">
-        <v>424</v>
-      </c>
+      <c r="B37" s="11"/>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -2317,23 +2253,21 @@
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="11" t="s">
-        <v>424</v>
-      </c>
+      <c r="B41" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -2341,28 +2275,26 @@
         <v>37</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="B45" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="177.95" customHeight="1">
-      <c r="B46" s="11" t="s">
-        <v>424</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="178" customHeight="1">
+      <c r="B46" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
@@ -2370,10 +2302,10 @@
         <v>37</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -2381,23 +2313,23 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="B54" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -2405,23 +2337,23 @@
         <v>37</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="B58" s="15" t="s">
-        <v>425</v>
+      <c r="B58" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -2429,23 +2361,23 @@
         <v>37</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="B62" s="11" t="s">
-        <v>421</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:34" ht="24" customHeight="1">
@@ -2453,28 +2385,28 @@
         <v>37</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:34" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="24" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>426</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:34" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:34" ht="24" customHeight="1">
@@ -2482,74 +2414,71 @@
         <v>37</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:34" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>427</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:34" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:34" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA75" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA75" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="AB75" s="6" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AF75" s="6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AG75" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AH75" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:34" ht="24" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:34" ht="24" customHeight="1">
@@ -2557,21 +2486,21 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
@@ -2579,55 +2508,55 @@
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
@@ -2635,23 +2564,23 @@
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="12" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="B95" s="13" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -2659,28 +2588,28 @@
         <v>37</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="B99" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="178" customHeight="1">
       <c r="B100" s="11" t="s">
-        <v>440</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -2688,28 +2617,28 @@
         <v>37</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="B104" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11" t="s">
-        <v>428</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
@@ -2717,28 +2646,28 @@
         <v>37</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="B110" s="11" t="s">
-        <v>429</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
@@ -2746,28 +2675,28 @@
         <v>37</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="B114" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
       <c r="B115" s="11" t="s">
-        <v>441</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -2775,10 +2704,10 @@
         <v>37</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
@@ -2786,10 +2715,10 @@
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
@@ -2797,10 +2726,10 @@
         <v>37</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
@@ -2808,23 +2737,23 @@
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="A126" s="12" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="B127" s="13" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
       <c r="A129" s="9" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
@@ -2832,28 +2761,28 @@
         <v>37</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="178" customHeight="1">
       <c r="B132" s="11" t="s">
-        <v>430</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -2861,26 +2790,26 @@
         <v>37</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
       <c r="B136" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="178" customHeight="1">
       <c r="B137" s="11"/>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="A139" s="9" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
@@ -2888,26 +2817,26 @@
         <v>37</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="B141" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="178" customHeight="1">
       <c r="B142" s="11"/>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="A144" s="9" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
@@ -2915,26 +2844,26 @@
         <v>37</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="B146" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="178" customHeight="1">
       <c r="B147" s="11"/>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="A149" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
@@ -2942,26 +2871,26 @@
         <v>37</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
       <c r="B151" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="178" customHeight="1">
       <c r="B152" s="11"/>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
@@ -2969,39 +2898,39 @@
         <v>37</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="B156" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="178" customHeight="1">
       <c r="B157" s="11"/>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
@@ -3009,26 +2938,26 @@
         <v>37</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="B165" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="178" customHeight="1">
       <c r="B166" s="11"/>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
       <c r="A168" s="9" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
@@ -3036,26 +2965,26 @@
         <v>37</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="B170" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="178" customHeight="1">
       <c r="B171" s="11"/>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="9" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -3063,26 +2992,26 @@
         <v>37</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="24" customHeight="1">
       <c r="B175" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="178" customHeight="1">
       <c r="B176" s="11"/>
     </row>
     <row r="178" spans="1:3" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="24" customHeight="1">
@@ -3090,26 +3019,26 @@
         <v>37</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="24" customHeight="1">
       <c r="B180" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="178" customHeight="1">
       <c r="B181" s="11"/>
     </row>
     <row r="183" spans="1:3" ht="24" customHeight="1">
       <c r="A183" s="9" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="24" customHeight="1">
@@ -3117,26 +3046,26 @@
         <v>37</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="24" customHeight="1">
       <c r="B185" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="178" customHeight="1">
       <c r="B186" s="11"/>
     </row>
     <row r="188" spans="1:3" ht="24" customHeight="1">
       <c r="A188" s="9" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="24" customHeight="1">
@@ -3144,26 +3073,26 @@
         <v>37</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="24" customHeight="1">
       <c r="B190" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="178" customHeight="1">
       <c r="B191" s="11"/>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
       <c r="A193" s="9" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="24" customHeight="1">
@@ -3171,26 +3100,26 @@
         <v>37</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="24" customHeight="1">
       <c r="B195" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="178" customHeight="1">
       <c r="B196" s="11"/>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
       <c r="A198" s="9" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="24" customHeight="1">
@@ -3198,26 +3127,26 @@
         <v>37</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="24" customHeight="1">
       <c r="B200" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="178" customHeight="1">
       <c r="B201" s="11"/>
     </row>
     <row r="203" spans="1:3" ht="24" customHeight="1">
       <c r="A203" s="9" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="24" customHeight="1">
@@ -3225,39 +3154,39 @@
         <v>37</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="24" customHeight="1">
       <c r="B205" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="178" customHeight="1">
       <c r="B206" s="11"/>
     </row>
     <row r="209" spans="1:3" ht="24" customHeight="1">
       <c r="A209" s="12" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="24" customHeight="1">
       <c r="B210" s="13" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="24" customHeight="1">
       <c r="A212" s="9" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="24" customHeight="1">
@@ -3265,39 +3194,39 @@
         <v>37</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="24" customHeight="1">
       <c r="B214" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="178" customHeight="1">
       <c r="B215" s="11"/>
     </row>
     <row r="218" spans="1:3" ht="24" customHeight="1">
       <c r="A218" s="12" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="24" customHeight="1">
       <c r="B219" s="13" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="24" customHeight="1">
       <c r="A221" s="9" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="24" customHeight="1">
@@ -3305,18 +3234,18 @@
         <v>37</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="24" customHeight="1">
       <c r="B223" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="178" customHeight="1">
       <c r="B224" s="11"/>
     </row>
   </sheetData>
@@ -3342,12 +3271,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG300"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3359,20 +3286,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>36</v>
@@ -3383,10 +3310,10 @@
         <v>37</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3394,10 +3321,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3405,50 +3332,50 @@
         <v>37</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
@@ -3458,62 +3385,62 @@
     </row>
     <row r="20" spans="1:33" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="24" customHeight="1">
@@ -3521,50 +3448,50 @@
         <v>37</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="B25" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="178" customHeight="1">
       <c r="B26" s="11"/>
     </row>
     <row r="29" spans="1:33" ht="24" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:33" ht="24" customHeight="1">
@@ -3574,36 +3501,36 @@
     </row>
     <row r="35" spans="1:33" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG35" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:33" ht="24" customHeight="1">
@@ -3611,50 +3538,50 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:33" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" ht="178" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="43" spans="1:33" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:33" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:33" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:33" ht="24" customHeight="1">
@@ -3664,36 +3591,36 @@
     </row>
     <row r="49" spans="1:33" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE49" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF49" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG49" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:33" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:33" ht="24" customHeight="1">
@@ -3701,50 +3628,50 @@
         <v>37</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:33" ht="24" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" ht="178" customHeight="1">
       <c r="B54" s="11"/>
     </row>
     <row r="57" spans="1:33" ht="24" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:33" ht="24" customHeight="1">
       <c r="B58" s="13" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:33" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:33" ht="24" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:33" ht="24" customHeight="1">
@@ -3754,36 +3681,36 @@
     </row>
     <row r="63" spans="1:33" ht="24" customHeight="1">
       <c r="B63" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AA63" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD63" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE63" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF63" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG63" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:33" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:33" ht="24" customHeight="1">
@@ -3791,50 +3718,50 @@
         <v>37</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:33" ht="24" customHeight="1">
       <c r="B67" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" ht="178" customHeight="1">
       <c r="B68" s="11"/>
     </row>
     <row r="71" spans="1:33" ht="24" customHeight="1">
       <c r="A71" s="12" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:33" ht="24" customHeight="1">
       <c r="B72" s="13" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:33" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:33" ht="24" customHeight="1">
       <c r="A75" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:33" ht="24" customHeight="1">
@@ -3844,36 +3771,36 @@
     </row>
     <row r="77" spans="1:33" ht="24" customHeight="1">
       <c r="B77" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AA77" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC77" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD77" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE77" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF77" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG77" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:33" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:33" ht="24" customHeight="1">
@@ -3881,50 +3808,50 @@
         <v>37</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:33" ht="24" customHeight="1">
       <c r="B81" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" ht="178" customHeight="1">
       <c r="B82" s="11"/>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:33" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="88" spans="1:33" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
@@ -3934,73 +3861,73 @@
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
       <c r="B91" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AA91" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD91" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE91" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF91" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG91" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
       <c r="B95" s="11"/>
       <c r="AA95" s="6" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="AB95" s="6" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="AD95" s="6" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="AE95" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -4008,50 +3935,50 @@
         <v>37</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
       <c r="B99" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" ht="178" customHeight="1">
       <c r="B100" s="11"/>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="A103" s="12" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="24" customHeight="1">
       <c r="B104" s="13" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
       <c r="A106" s="9" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="A107" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:33" ht="24" customHeight="1">
@@ -4061,36 +3988,36 @@
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="B109" s="11" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AA109" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB109" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC109" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD109" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE109" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF109" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG109" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:33" ht="24" customHeight="1">
@@ -4098,50 +4025,50 @@
         <v>37</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="1:33" ht="24" customHeight="1">
       <c r="B113" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="114" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" ht="178" customHeight="1">
       <c r="B114" s="11"/>
     </row>
     <row r="117" spans="1:33" ht="24" customHeight="1">
       <c r="A117" s="12" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:33" ht="24" customHeight="1">
       <c r="B118" s="13" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:33" ht="24" customHeight="1">
       <c r="A120" s="9" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="121" spans="1:33" ht="24" customHeight="1">
       <c r="A121" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:33" ht="24" customHeight="1">
@@ -4151,36 +4078,36 @@
     </row>
     <row r="123" spans="1:33" ht="24" customHeight="1">
       <c r="B123" s="11" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AA123" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB123" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC123" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD123" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE123" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF123" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG123" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:33" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:33" ht="24" customHeight="1">
@@ -4188,50 +4115,50 @@
         <v>37</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127" spans="1:33" ht="24" customHeight="1">
       <c r="B127" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="128" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33" ht="178" customHeight="1">
       <c r="B128" s="11"/>
     </row>
     <row r="131" spans="1:33" ht="24" customHeight="1">
       <c r="A131" s="12" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="132" spans="1:33" ht="24" customHeight="1">
       <c r="B132" s="13" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="134" spans="1:33" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:33" ht="24" customHeight="1">
       <c r="A135" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="136" spans="1:33" ht="24" customHeight="1">
@@ -4241,36 +4168,36 @@
     </row>
     <row r="137" spans="1:33" ht="24" customHeight="1">
       <c r="B137" s="11" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AA137" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB137" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC137" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD137" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE137" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF137" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG137" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="139" spans="1:33" ht="24" customHeight="1">
       <c r="A139" s="9" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="140" spans="1:33" ht="24" customHeight="1">
@@ -4278,50 +4205,50 @@
         <v>37</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="141" spans="1:33" ht="24" customHeight="1">
       <c r="B141" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="142" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33" ht="178" customHeight="1">
       <c r="B142" s="11"/>
     </row>
     <row r="145" spans="1:33" ht="24" customHeight="1">
       <c r="A145" s="12" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="B146" s="13" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
       <c r="A148" s="9" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="A149" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="150" spans="1:33" ht="24" customHeight="1">
@@ -4331,36 +4258,36 @@
     </row>
     <row r="151" spans="1:33" ht="24" customHeight="1">
       <c r="B151" s="11" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AA151" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB151" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC151" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD151" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE151" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF151" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG151" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="A153" s="9" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="154" spans="1:33" ht="24" customHeight="1">
@@ -4368,50 +4295,50 @@
         <v>37</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="B155" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="156" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33" ht="178" customHeight="1">
       <c r="B156" s="11"/>
     </row>
     <row r="159" spans="1:33" ht="24" customHeight="1">
       <c r="A159" s="12" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="B160" s="13" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="162" spans="1:33" ht="24" customHeight="1">
       <c r="A162" s="9" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="163" spans="1:33" ht="24" customHeight="1">
       <c r="A163" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="164" spans="1:33" ht="24" customHeight="1">
@@ -4421,47 +4348,47 @@
     </row>
     <row r="165" spans="1:33" ht="24" customHeight="1">
       <c r="B165" s="11" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AA165" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB165" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC165" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD165" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE165" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF165" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG165" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="167" spans="1:33" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="168" spans="1:33" ht="24" customHeight="1">
       <c r="A168" s="14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="169" spans="1:33" ht="24" customHeight="1">
@@ -4471,10 +4398,10 @@
     </row>
     <row r="171" spans="1:33" ht="24" customHeight="1">
       <c r="A171" s="9" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" spans="1:33" ht="24" customHeight="1">
@@ -4482,52 +4409,52 @@
         <v>37</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="173" spans="1:33" ht="24" customHeight="1">
       <c r="B173" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="174" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="174" spans="1:33" ht="178" customHeight="1">
       <c r="B174" s="11" t="s">
-        <v>431</v>
+        <v>350</v>
       </c>
     </row>
     <row r="177" spans="1:33" ht="24" customHeight="1">
       <c r="A177" s="12" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="178" spans="1:33" ht="24" customHeight="1">
       <c r="B178" s="13" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="1:33" ht="24" customHeight="1">
       <c r="A180" s="9" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="181" spans="1:33" ht="24" customHeight="1">
       <c r="A181" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="182" spans="1:33" ht="24" customHeight="1">
@@ -4537,47 +4464,47 @@
     </row>
     <row r="183" spans="1:33" ht="24" customHeight="1">
       <c r="B183" s="11" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AA183" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB183" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC183" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD183" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE183" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF183" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG183" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="185" spans="1:33" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="186" spans="1:33" ht="24" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187" spans="1:33" ht="24" customHeight="1">
@@ -4587,21 +4514,21 @@
     </row>
     <row r="189" spans="1:33" ht="24" customHeight="1">
       <c r="A189" s="9" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="190" spans="1:33" ht="24" customHeight="1">
       <c r="A190" s="14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="191" spans="1:33" ht="24" customHeight="1">
@@ -4611,10 +4538,10 @@
     </row>
     <row r="193" spans="1:33" ht="24" customHeight="1">
       <c r="A193" s="9" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="194" spans="1:33" ht="24" customHeight="1">
@@ -4622,52 +4549,52 @@
         <v>37</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="195" spans="1:33" ht="24" customHeight="1">
       <c r="B195" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="196" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:33" ht="178" customHeight="1">
       <c r="B196" s="11" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
     </row>
     <row r="199" spans="1:33" ht="24" customHeight="1">
       <c r="A199" s="12" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
     </row>
     <row r="200" spans="1:33" ht="24" customHeight="1">
       <c r="B200" s="13" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="202" spans="1:33" ht="24" customHeight="1">
       <c r="A202" s="9" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="203" spans="1:33" ht="24" customHeight="1">
       <c r="A203" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
     </row>
     <row r="204" spans="1:33" ht="24" customHeight="1">
@@ -4677,36 +4604,36 @@
     </row>
     <row r="205" spans="1:33" ht="24" customHeight="1">
       <c r="B205" s="11" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AA205" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB205" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC205" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD205" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE205" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF205" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG205" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="207" spans="1:33" ht="24" customHeight="1">
       <c r="A207" s="9" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="208" spans="1:33" ht="24" customHeight="1">
@@ -4714,52 +4641,52 @@
         <v>37</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
     </row>
     <row r="209" spans="1:33" ht="24" customHeight="1">
       <c r="B209" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="210" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="210" spans="1:33" ht="178" customHeight="1">
       <c r="B210" s="11" t="s">
-        <v>435</v>
+        <v>372</v>
       </c>
     </row>
     <row r="213" spans="1:33" ht="24" customHeight="1">
       <c r="A213" s="12" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
     </row>
     <row r="214" spans="1:33" ht="24" customHeight="1">
       <c r="B214" s="13" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
     </row>
     <row r="216" spans="1:33" ht="24" customHeight="1">
       <c r="A216" s="9" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="217" spans="1:33" ht="24" customHeight="1">
       <c r="A217" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="218" spans="1:33" ht="24" customHeight="1">
@@ -4769,120 +4696,120 @@
     </row>
     <row r="219" spans="1:33" ht="24" customHeight="1">
       <c r="B219" s="11" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AA219" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB219" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC219" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD219" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE219" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF219" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG219" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="221" spans="1:33" ht="24" customHeight="1">
       <c r="A221" s="9" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="222" spans="1:33" ht="24" customHeight="1">
       <c r="A222" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
     </row>
     <row r="223" spans="1:33" ht="24" customHeight="1">
       <c r="B223" s="11" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="AA223" s="6" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="AB223" s="6" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="AC223" s="6" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="AD223" s="6" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="AE223" s="6" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="AF223" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="225" spans="1:32" ht="24" customHeight="1">
       <c r="A225" s="9" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="226" spans="1:32" ht="24" customHeight="1">
       <c r="A226" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="227" spans="1:32" ht="24" customHeight="1">
       <c r="B227" s="11" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="AA227" s="6" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="AB227" s="6" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="AC227" s="6" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="AD227" s="6" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="AE227" s="6" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="AF227" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="229" spans="1:32" ht="24" customHeight="1">
       <c r="A229" s="9" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="230" spans="1:32" ht="24" customHeight="1">
@@ -4890,52 +4817,52 @@
         <v>37</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="231" spans="1:32" ht="24" customHeight="1">
       <c r="B231" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="232" spans="1:32" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="232" spans="1:32" ht="178" customHeight="1">
       <c r="B232" s="11" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
     </row>
     <row r="235" spans="1:32" ht="24" customHeight="1">
       <c r="A235" s="12" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
     </row>
     <row r="236" spans="1:32" ht="24" customHeight="1">
       <c r="B236" s="13" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="238" spans="1:32" ht="24" customHeight="1">
       <c r="A238" s="9" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="239" spans="1:32" ht="24" customHeight="1">
       <c r="A239" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
     </row>
     <row r="240" spans="1:32" ht="24" customHeight="1">
@@ -4945,120 +4872,120 @@
     </row>
     <row r="241" spans="1:33" ht="24" customHeight="1">
       <c r="B241" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AA241" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB241" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC241" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD241" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE241" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF241" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG241" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="243" spans="1:33" ht="24" customHeight="1">
       <c r="A243" s="9" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="244" spans="1:33" ht="24" customHeight="1">
       <c r="A244" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
     </row>
     <row r="245" spans="1:33" ht="24" customHeight="1">
       <c r="B245" s="11" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="AA245" s="6" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="AB245" s="6" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="AC245" s="6" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="AD245" s="6" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="AE245" s="6" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="AF245" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="247" spans="1:33" ht="24" customHeight="1">
       <c r="A247" s="9" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="248" spans="1:33" ht="24" customHeight="1">
       <c r="A248" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
     </row>
     <row r="249" spans="1:33" ht="24" customHeight="1">
       <c r="B249" s="11" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="AA249" s="6" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="AB249" s="6" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="AC249" s="6" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="AD249" s="6" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="AE249" s="6" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="AF249" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="251" spans="1:33" ht="24" customHeight="1">
       <c r="A251" s="9" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="252" spans="1:33" ht="24" customHeight="1">
@@ -5066,50 +4993,50 @@
         <v>37</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="253" spans="1:33" ht="24" customHeight="1">
       <c r="B253" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="254" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="254" spans="1:33" ht="178" customHeight="1">
       <c r="B254" s="11"/>
     </row>
     <row r="257" spans="1:33" ht="24" customHeight="1">
       <c r="A257" s="12" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
     </row>
     <row r="258" spans="1:33" ht="24" customHeight="1">
       <c r="B258" s="13" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="260" spans="1:33" ht="24" customHeight="1">
       <c r="A260" s="9" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="261" spans="1:33" ht="24" customHeight="1">
       <c r="A261" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
     </row>
     <row r="262" spans="1:33" ht="24" customHeight="1">
@@ -5119,36 +5046,36 @@
     </row>
     <row r="263" spans="1:33" ht="24" customHeight="1">
       <c r="B263" s="11" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AA263" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB263" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC263" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD263" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE263" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF263" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG263" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="265" spans="1:33" ht="24" customHeight="1">
       <c r="A265" s="9" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="266" spans="1:33" ht="24" customHeight="1">
@@ -5156,52 +5083,52 @@
         <v>37</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
     </row>
     <row r="267" spans="1:33" ht="24" customHeight="1">
       <c r="B267" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="268" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="268" spans="1:33" ht="178" customHeight="1">
       <c r="B268" s="11" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
     </row>
     <row r="271" spans="1:33" ht="24" customHeight="1">
       <c r="A271" s="12" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
     </row>
     <row r="272" spans="1:33" ht="24" customHeight="1">
       <c r="B272" s="13" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
     </row>
     <row r="274" spans="1:33" ht="24" customHeight="1">
       <c r="A274" s="9" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="275" spans="1:33" ht="24" customHeight="1">
       <c r="A275" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
     </row>
     <row r="276" spans="1:33" ht="24" customHeight="1">
@@ -5211,47 +5138,47 @@
     </row>
     <row r="277" spans="1:33" ht="24" customHeight="1">
       <c r="B277" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AA277" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AB277" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AC277" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AD277" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE277" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF277" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG277" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="279" spans="1:33" ht="24" customHeight="1">
       <c r="A279" s="9" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
     <row r="280" spans="1:33" ht="24" customHeight="1">
       <c r="A280" s="14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
     </row>
     <row r="281" spans="1:33" ht="24" customHeight="1">
@@ -5261,10 +5188,10 @@
     </row>
     <row r="283" spans="1:33" ht="24" customHeight="1">
       <c r="A283" s="9" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="284" spans="1:33" ht="24" customHeight="1">
@@ -5272,50 +5199,50 @@
         <v>37</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
     </row>
     <row r="285" spans="1:33" ht="24" customHeight="1">
       <c r="B285" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="286" spans="1:33" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="286" spans="1:33" ht="178" customHeight="1">
       <c r="B286" s="11"/>
     </row>
     <row r="289" spans="1:32" ht="24" customHeight="1">
       <c r="A289" s="12" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
     </row>
     <row r="290" spans="1:32" ht="24" customHeight="1">
       <c r="B290" s="13" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
     </row>
     <row r="292" spans="1:32" ht="24" customHeight="1">
       <c r="A292" s="9" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="293" spans="1:32" ht="24" customHeight="1">
       <c r="A293" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
     </row>
     <row r="294" spans="1:32" ht="24" customHeight="1">
@@ -5325,33 +5252,33 @@
     </row>
     <row r="295" spans="1:32" ht="24" customHeight="1">
       <c r="B295" s="11" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="AA295" s="6" t="s">
-        <v>246</v>
+        <v>431</v>
       </c>
       <c r="AB295" s="6" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="AC295" s="6" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="AD295" s="6" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="AE295" s="6" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="AF295" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="297" spans="1:32" ht="24" customHeight="1">
       <c r="A297" s="9" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="298" spans="1:32" ht="24" customHeight="1">
@@ -5359,33 +5286,105 @@
         <v>37</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
     </row>
     <row r="299" spans="1:32" ht="24" customHeight="1">
       <c r="B299" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="300" spans="1:32" ht="177.95" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="300" spans="1:32" ht="178" customHeight="1">
       <c r="B300" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B277 B263 B241 B219 B205 B183 B165 B151 B137 B123 B109 B91 B77 B63 B49 B20:B21">
+  <dataValidations count="28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>AA20:AG20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>AA21:AG21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>AA35:AG35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
+      <formula1>AA49:AG49</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+      <formula1>AA63:AG63</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77">
+      <formula1>AA77:AG77</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
+      <formula1>AA91:AG91</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
       <formula1>AA95:AE95</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169 B281 B191 B187">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109">
+      <formula1>AA109:AG109</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B123">
+      <formula1>AA123:AG123</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B137">
+      <formula1>AA137:AG137</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151">
+      <formula1>AA151:AG151</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
+      <formula1>AA165:AG165</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B223 B295 B249 B245 B227">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B183">
+      <formula1>AA183:AG183</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B187">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B191">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B205">
+      <formula1>AA205:AG205</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B219">
+      <formula1>AA219:AG219</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B223">
       <formula1>AA223:AF223</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B227">
+      <formula1>AA227:AF227</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B241">
+      <formula1>AA241:AG241</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B245">
+      <formula1>AA245:AF245</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B249">
+      <formula1>AA249:AF249</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B263">
+      <formula1>AA263:AG263</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B277">
+      <formula1>AA277:AG277</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B281">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B295">
+      <formula1>AA295:AF295</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
